--- a/Midterm-exam/evidence/spreadsheets/per_site/www.jevnaker.kommune.no.xlsx
+++ b/Midterm-exam/evidence/spreadsheets/per_site/www.jevnaker.kommune.no.xlsx
@@ -445,31 +445,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>11271.517499999998</v>
+        <v>10236.833499999997</v>
       </c>
       <c r="C2">
-        <v>3397.246</v>
+        <v>3224.633999999999</v>
       </c>
       <c r="D2">
-        <v>419</v>
+        <v>235</v>
       </c>
       <c r="E2">
-        <v>11600.474900000001</v>
+        <v>10540.459749999998</v>
       </c>
       <c r="F2">
-        <v>24.500000000000455</v>
+        <v>52</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>5881.734135795637</v>
+        <v>5414.230477115425</v>
       </c>
       <c r="I2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J2">
-        <v>3112352</v>
+        <v>3104076</v>
       </c>
       <c r="K2">
         <v>82</v>
@@ -480,31 +480,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10817.7835</v>
+        <v>10276.724000000002</v>
       </c>
       <c r="C3">
-        <v>3405.9329999999995</v>
+        <v>3237.212</v>
       </c>
       <c r="D3">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="E3">
-        <v>11083.202800000001</v>
+        <v>10584.693400000004</v>
       </c>
       <c r="F3">
-        <v>16.5</v>
+        <v>57.5</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5881.555429602988</v>
+        <v>5578.552266884513</v>
       </c>
       <c r="I3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J3">
-        <v>3113089</v>
+        <v>3104546</v>
       </c>
       <c r="K3">
         <v>82</v>
@@ -515,34 +515,34 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>6992.352499999999</v>
+        <v>10190.616750000003</v>
       </c>
       <c r="C4">
-        <v>2055.0599999999995</v>
+        <v>3218.274</v>
       </c>
       <c r="D4">
-        <v>455</v>
+        <v>256</v>
       </c>
       <c r="E4">
-        <v>7658.868124999999</v>
+        <v>10492.291375000004</v>
       </c>
       <c r="F4">
-        <v>9.5</v>
+        <v>4.5</v>
       </c>
       <c r="G4">
-        <v>0.0009376901543071373</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>2055.0599999999995</v>
+        <v>5414.4789819014895</v>
       </c>
       <c r="I4">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="J4">
-        <v>3113426</v>
+        <v>3103931</v>
       </c>
       <c r="K4">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
@@ -550,31 +550,31 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>10817.7835</v>
+        <v>10236.833499999997</v>
       </c>
       <c r="C5">
-        <v>3397.246</v>
+        <v>3224.633999999999</v>
       </c>
       <c r="D5">
-        <v>419</v>
+        <v>256</v>
       </c>
       <c r="E5">
-        <v>11083.202800000001</v>
+        <v>10540.459749999998</v>
       </c>
       <c r="F5">
-        <v>16.5</v>
+        <v>52</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5881.555429602988</v>
+        <v>5414.4789819014895</v>
       </c>
       <c r="I5">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J5">
-        <v>3113089</v>
+        <v>3104076</v>
       </c>
       <c r="K5">
         <v>82</v>
@@ -589,7 +589,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H248"/>
+  <dimension ref="A1:H247"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -634,16 +634,16 @@
         <v>text/html</v>
       </c>
       <c r="E2">
-        <v>17031</v>
+        <v>16701</v>
       </c>
       <c r="F2">
-        <v>88229</v>
+        <v>87206</v>
       </c>
       <c r="G2">
-        <v>0.004952836203</v>
+        <v>0.004856867912999999</v>
       </c>
       <c r="H2">
-        <v>0.0065242593234000005</v>
+        <v>0.006397842461400001</v>
       </c>
     </row>
     <row r="3">
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="str">
-        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/1761193676945/sitevision-responsive-grids.css?gridConfigs=651.638b2cc2196f633e47f3ae1a_FLUID_GRID&amp;pushPull=false</v>
+        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/1763012651802/sitevision-responsive-grids.css?gridConfigs=651.638b2cc2196f633e47f3ae1a_FLUID_GRID&amp;pushPull=false</v>
       </c>
       <c r="C3" t="str">
         <v>Stylesheet</v>
@@ -677,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="str">
-        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/649/4459/print/SiteVision.css</v>
+        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/119/5010/print/SiteVision.css</v>
       </c>
       <c r="C4" t="str">
         <v>Stylesheet</v>
@@ -686,16 +686,16 @@
         <v>text/css</v>
       </c>
       <c r="E4">
-        <v>6003</v>
+        <v>5991</v>
       </c>
       <c r="F4">
-        <v>69206</v>
+        <v>69205</v>
       </c>
       <c r="G4">
-        <v>0.0017457504389999997</v>
+        <v>0.001742260683</v>
       </c>
       <c r="H4">
-        <v>0.0022996376442000004</v>
+        <v>0.0022950406674</v>
       </c>
     </row>
     <row r="5">
@@ -703,7 +703,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="str">
-        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/faf8e723c75273654ef4ca21f2f98d57be2edb6ad7423f62726de84051a3b8e0/css/portlets.css</v>
+        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/07c16d59554a729db34079442c91c27bb79e776ae9da8ea6eec5385cb6967383/css/portlets.css</v>
       </c>
       <c r="C5" t="str">
         <v>Stylesheet</v>
@@ -712,16 +712,16 @@
         <v>text/css</v>
       </c>
       <c r="E5">
-        <v>7023</v>
+        <v>7236</v>
       </c>
       <c r="F5">
-        <v>40322</v>
+        <v>42372</v>
       </c>
       <c r="G5">
-        <v>0.0020423796989999994</v>
+        <v>0.0021043228679999996</v>
       </c>
       <c r="H5">
-        <v>0.0026903806722</v>
+        <v>0.0027719770104000004</v>
       </c>
     </row>
     <row r="6">
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="str">
-        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/faf8e723c75273654ef4ca21f2f98d57be2edb6ad7423f62726de84051a3b8e0/envision/envision.css</v>
+        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/07c16d59554a729db34079442c91c27bb79e776ae9da8ea6eec5385cb6967383/envision/envision.css</v>
       </c>
       <c r="C6" t="str">
         <v>Stylesheet</v>
@@ -738,16 +738,16 @@
         <v>text/css</v>
       </c>
       <c r="E6">
-        <v>22078</v>
+        <v>22101</v>
       </c>
       <c r="F6">
-        <v>255322</v>
+        <v>255462</v>
       </c>
       <c r="G6">
-        <v>0.006420569413999999</v>
+        <v>0.006427258112999999</v>
       </c>
       <c r="H6">
-        <v>0.0084576711492</v>
+        <v>0.0084664820214</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="str">
-        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/91.638b2cc2196f633e47f3b486/1761193868254/0/sv-template-asset.css</v>
+        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/91.638b2cc2196f633e47f3b486/1763012815709/0/sv-template-asset.css</v>
       </c>
       <c r="C7" t="str">
         <v>Stylesheet</v>
@@ -781,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="str">
-        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/1761193868058/sitevision-spacing.css</v>
+        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/1763012815430/sitevision-spacing.css</v>
       </c>
       <c r="C8" t="str">
         <v>Stylesheet</v>
@@ -963,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="str">
-        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/faf8e723c75273654ef4ca21f2f98d57be2edb6ad7423f62726de84051a3b8e0/js/jquery.js</v>
+        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/07c16d59554a729db34079442c91c27bb79e776ae9da8ea6eec5385cb6967383/js/jquery.js</v>
       </c>
       <c r="C15" t="str">
         <v>Script</v>
@@ -989,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="str">
-        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/faf8e723c75273654ef4ca21f2f98d57be2edb6ad7423f62726de84051a3b8e0/envision/envision.js</v>
+        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/07c16d59554a729db34079442c91c27bb79e776ae9da8ea6eec5385cb6967383/envision/envision.js</v>
       </c>
       <c r="C16" t="str">
         <v>Script</v>
@@ -998,16 +998,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E16">
-        <v>17895</v>
+        <v>17837</v>
       </c>
       <c r="F16">
-        <v>71690</v>
+        <v>71762</v>
       </c>
       <c r="G16">
-        <v>0.0052040986349999995</v>
+        <v>0.005187231480999999</v>
       </c>
       <c r="H16">
-        <v>0.006855241653</v>
+        <v>0.006833022931799999</v>
       </c>
     </row>
     <row r="17">
@@ -1015,7 +1015,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="str">
-        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/faf8e723c75273654ef4ca21f2f98d57be2edb6ad7423f62726de84051a3b8e0/js/utils.js</v>
+        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/07c16d59554a729db34079442c91c27bb79e776ae9da8ea6eec5385cb6967383/js/utils.js</v>
       </c>
       <c r="C17" t="str">
         <v>Script</v>
@@ -1024,16 +1024,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E17">
-        <v>18832</v>
+        <v>18673</v>
       </c>
       <c r="F17">
-        <v>58222</v>
+        <v>58086</v>
       </c>
       <c r="G17">
-        <v>0.005476590415999999</v>
+        <v>0.005430351149</v>
       </c>
       <c r="H17">
-        <v>0.0072141889247999995</v>
+        <v>0.007153278982200001</v>
       </c>
     </row>
     <row r="18">
@@ -1041,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="str">
-        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/faf8e723c75273654ef4ca21f2f98d57be2edb6ad7423f62726de84051a3b8e0/js/portlets.js</v>
+        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/07c16d59554a729db34079442c91c27bb79e776ae9da8ea6eec5385cb6967383/js/portlets.js</v>
       </c>
       <c r="C18" t="str">
         <v>Script</v>
@@ -1050,16 +1050,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E18">
-        <v>39317</v>
+        <v>38892</v>
       </c>
       <c r="F18">
-        <v>152113</v>
+        <v>149358</v>
       </c>
       <c r="G18">
-        <v>0.011433894720999998</v>
+        <v>0.011310299195999999</v>
       </c>
       <c r="H18">
-        <v>0.015061611403800003</v>
+        <v>0.014898801808799999</v>
       </c>
     </row>
     <row r="19">
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="str">
-        <v>https://www.jevnaker.kommune.no/images/200.6a10803c19993a6f9311d8c/1759385980205/vaksine.jpg</v>
+        <v>https://www.jevnaker.kommune.no/images/200.6603e25119a7bb1072fb31/1763133364725/iStock-1442909729.jpg</v>
       </c>
       <c r="C21" t="str">
         <v>Image</v>
@@ -1128,16 +1128,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E21">
-        <v>60778</v>
+        <v>34687</v>
       </c>
       <c r="F21">
-        <v>60489</v>
+        <v>34398</v>
       </c>
       <c r="G21">
-        <v>0.017675032514</v>
+        <v>0.010087430530999997</v>
       </c>
       <c r="H21">
-        <v>0.0232829213292</v>
+        <v>0.013287944521800002</v>
       </c>
     </row>
     <row r="22">
@@ -1145,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="str">
-        <v>https://www.jevnaker.kommune.no/images/200.4ff8dba919a0f52c855ffc1/1762634603578/Svar_for_bestemor.jpg</v>
+        <v>https://www.jevnaker.kommune.no/images/200.7468bd14197a1fc3af868ae/1752152172212/ulfsnes-red.jpg</v>
       </c>
       <c r="C22" t="str">
         <v>Image</v>
@@ -1154,16 +1154,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E22">
-        <v>60347</v>
+        <v>40938</v>
       </c>
       <c r="F22">
-        <v>60058</v>
+        <v>40649</v>
       </c>
       <c r="G22">
-        <v>0.017549692110999996</v>
+        <v>0.011905302593999998</v>
       </c>
       <c r="H22">
-        <v>0.0231178132458</v>
+        <v>0.015682586353200002</v>
       </c>
     </row>
     <row r="23">
@@ -1171,25 +1171,25 @@
         <v>1</v>
       </c>
       <c r="B23" t="str">
-        <v>https://www.jevnaker.kommune.no/images/200.5aa488e919a0f60ef5ddf94/1762632797943/bibli-front.png</v>
+        <v>https://www.jevnaker.kommune.no/images/200.6a10803c19993a6f9311d8c/1759385980205/vaksine.jpg</v>
       </c>
       <c r="C23" t="str">
         <v>Image</v>
       </c>
       <c r="D23" t="str">
-        <v>image/png</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E23">
-        <v>148683</v>
+        <v>60778</v>
       </c>
       <c r="F23">
-        <v>148394</v>
+        <v>60489</v>
       </c>
       <c r="G23">
-        <v>0.043238949278999995</v>
+        <v>0.017675032514</v>
       </c>
       <c r="H23">
-        <v>0.05695769179620001</v>
+        <v>0.0232829213292</v>
       </c>
     </row>
     <row r="24">
@@ -1197,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="str">
-        <v>https://www.jevnaker.kommune.no/images/200.91e7b3719a0f44bb6cce6b/1762247581830/(2)%2006%20kopi-forside.jpg</v>
+        <v>https://www.jevnaker.kommune.no/images/200.4ff8dba919a0f52c855ffc1/1762634603578/Svar_for_bestemor.jpg</v>
       </c>
       <c r="C24" t="str">
         <v>Image</v>
@@ -1206,16 +1206,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E24">
-        <v>73137</v>
+        <v>60347</v>
       </c>
       <c r="F24">
-        <v>72848</v>
+        <v>60058</v>
       </c>
       <c r="G24">
-        <v>0.021269190381</v>
+        <v>0.017549692110999996</v>
       </c>
       <c r="H24">
-        <v>0.028017424351800005</v>
+        <v>0.0231178132458</v>
       </c>
     </row>
     <row r="25">
@@ -1223,25 +1223,25 @@
         <v>1</v>
       </c>
       <c r="B25" t="str">
-        <v>https://www.jevnaker.kommune.no/images/200.5aa488e919a0f60ef5db4d4/1762164629493/pexels-karola-g-4964485.jpg</v>
+        <v>https://www.jevnaker.kommune.no/images/200.5aa488e919a0f60ef5ddf94/1762632797943/bibli-front.png</v>
       </c>
       <c r="C25" t="str">
         <v>Image</v>
       </c>
       <c r="D25" t="str">
-        <v>image/jpeg</v>
+        <v>image/png</v>
       </c>
       <c r="E25">
-        <v>24673</v>
+        <v>148683</v>
       </c>
       <c r="F25">
-        <v>24384</v>
+        <v>148394</v>
       </c>
       <c r="G25">
-        <v>0.007175229148999999</v>
+        <v>0.043238949278999995</v>
       </c>
       <c r="H25">
-        <v>0.0094517673822</v>
+        <v>0.05695769179620001</v>
       </c>
     </row>
     <row r="26">
@@ -1249,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="str">
-        <v>https://www.jevnaker.kommune.no/images/200.f48e3b519a0f6dc2c3c836/1762155773605/heidiellingsen.jpg</v>
+        <v>https://www.jevnaker.kommune.no/images/200.91e7b3719a0f44bb6cce6b/1762247581830/(2)%2006%20kopi-forside.jpg</v>
       </c>
       <c r="C26" t="str">
         <v>Image</v>
@@ -1258,16 +1258,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E26">
-        <v>59349</v>
+        <v>73137</v>
       </c>
       <c r="F26">
-        <v>59060</v>
+        <v>72848</v>
       </c>
       <c r="G26">
-        <v>0.017259460736999997</v>
+        <v>0.021269190381</v>
       </c>
       <c r="H26">
-        <v>0.022735498008600002</v>
+        <v>0.028017424351800005</v>
       </c>
     </row>
     <row r="27">
@@ -1492,16 +1492,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E35">
-        <v>7206</v>
+        <v>7208</v>
       </c>
       <c r="F35">
         <v>22031</v>
       </c>
       <c r="G35">
-        <v>0.0020955984779999996</v>
+        <v>0.0020961801039999996</v>
       </c>
       <c r="H35">
-        <v>0.0027604845684</v>
+        <v>0.0027612507312</v>
       </c>
     </row>
     <row r="36">
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="B40" t="str">
-        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/91.638b2cc2196f633e47f3b486/1761193868258/BODY/0/sv-template-asset.js</v>
+        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/91.638b2cc2196f633e47f3b486/1763012815720/BODY/0/sv-template-asset.js</v>
       </c>
       <c r="C40" t="str">
         <v>Script</v>
@@ -1639,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="B41" t="str">
-        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/faf8e723c75273654ef4ca21f2f98d57be2edb6ad7423f62726de84051a3b8e0/js/webAppExternals/react_18_3.js</v>
+        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/07c16d59554a729db34079442c91c27bb79e776ae9da8ea6eec5385cb6967383/js/webAppExternals/react_18_3.js</v>
       </c>
       <c r="C41" t="str">
         <v>Script</v>
@@ -1674,16 +1674,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E42">
-        <v>22978</v>
+        <v>22977</v>
       </c>
       <c r="F42">
         <v>69596</v>
       </c>
       <c r="G42">
-        <v>0.006682301113999999</v>
+        <v>0.006682010300999999</v>
       </c>
       <c r="H42">
-        <v>0.0088024444092</v>
+        <v>0.0088020613278</v>
       </c>
     </row>
     <row r="43">
@@ -1700,16 +1700,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E43">
-        <v>41227</v>
+        <v>41219</v>
       </c>
       <c r="F43">
         <v>138254</v>
       </c>
       <c r="G43">
-        <v>0.011989347550999998</v>
+        <v>0.011987021046999998</v>
       </c>
       <c r="H43">
-        <v>0.015793296877799998</v>
+        <v>0.015790232226600004</v>
       </c>
     </row>
     <row r="44">
@@ -1726,16 +1726,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E44">
-        <v>24571</v>
+        <v>24570</v>
       </c>
       <c r="F44">
         <v>74871</v>
       </c>
       <c r="G44">
-        <v>0.0071455662229999994</v>
+        <v>0.00714527541</v>
       </c>
       <c r="H44">
-        <v>0.009412693079400002</v>
+        <v>0.009412309998000001</v>
       </c>
     </row>
     <row r="45">
@@ -1752,16 +1752,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E45">
-        <v>19913</v>
+        <v>19906</v>
       </c>
       <c r="F45">
         <v>58733</v>
       </c>
       <c r="G45">
-        <v>0.005790959268999999</v>
+        <v>0.005788923577999999</v>
       </c>
       <c r="H45">
-        <v>0.007628299918200001</v>
+        <v>0.0076256183484000005</v>
       </c>
     </row>
     <row r="46">
@@ -1769,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="str">
-        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/faf8e723c75273654ef4ca21f2f98d57be2edb6ad7423f62726de84051a3b8e0/webapps/webapp_sdk-legacy.js</v>
+        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/07c16d59554a729db34079442c91c27bb79e776ae9da8ea6eec5385cb6967383/webapps/webapp_sdk-legacy.js</v>
       </c>
       <c r="C46" t="str">
         <v>Script</v>
@@ -1830,16 +1830,16 @@
         <v>text/html</v>
       </c>
       <c r="E48">
-        <v>8730</v>
+        <v>8722</v>
       </c>
       <c r="F48">
         <v>41338</v>
       </c>
       <c r="G48">
-        <v>0.0025387974899999995</v>
+        <v>0.0025364709859999994</v>
       </c>
       <c r="H48">
-        <v>0.0033443006220000003</v>
+        <v>0.003341235970800001</v>
       </c>
     </row>
     <row r="49">
@@ -1951,25 +1951,25 @@
         <v>1</v>
       </c>
       <c r="B53" t="str">
-        <v>https://www.jevnaker.kommune.no/appresource/2.638b2cc2196f633e47f3ad7c/12.638b2cc2196f633e47f41b0b/menuitems?svAjaxReqParam=ajax</v>
+        <v>https://snapwidget.com/stylesheets/embed.vendor.min.760717b3f565c387.css</v>
       </c>
       <c r="C53" t="str">
-        <v>XHR</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D53" t="str">
-        <v>application/json</v>
+        <v>text/css</v>
       </c>
       <c r="E53">
-        <v>855</v>
+        <v>1001</v>
       </c>
       <c r="F53">
-        <v>2281</v>
+        <v>2359</v>
       </c>
       <c r="G53">
-        <v>0.00024864511499999995</v>
+        <v>0.00029110381299999997</v>
       </c>
       <c r="H53">
-        <v>0.000327534597</v>
+        <v>0.0003834644814000001</v>
       </c>
     </row>
     <row r="54">
@@ -1977,25 +1977,25 @@
         <v>1</v>
       </c>
       <c r="B54" t="str">
-        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/faf8e723c75273654ef4ca21f2f98d57be2edb6ad7423f62726de84051a3b8e0/envision/popper-1c40e6672ac9d88ded8c.js</v>
+        <v>https://snapwidget.com/stylesheets/embed.style.min.33d8714986a48d7b.css</v>
       </c>
       <c r="C54" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D54" t="str">
-        <v>text/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E54">
-        <v>6837</v>
+        <v>4009</v>
       </c>
       <c r="F54">
-        <v>19616</v>
+        <v>16311</v>
       </c>
       <c r="G54">
-        <v>0.0019882884809999998</v>
+        <v>0.001165869317</v>
       </c>
       <c r="H54">
-        <v>0.0026191275318</v>
+        <v>0.0015357733326000003</v>
       </c>
     </row>
     <row r="55">
@@ -2003,25 +2003,25 @@
         <v>1</v>
       </c>
       <c r="B55" t="str">
-        <v>https://www.jevnaker.kommune.no/appresource/2.638b2cc2196f633e47f3ad7c/12.638b2cc2196f633e47f41383/menuitems?svAjaxReqParam=ajax</v>
+        <v>https://snapwidget.com/stylesheets/embed.grid.min.0d105dc3e2d4e747.css</v>
       </c>
       <c r="C55" t="str">
-        <v>XHR</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D55" t="str">
-        <v>application/json</v>
+        <v>text/css</v>
       </c>
       <c r="E55">
-        <v>501</v>
+        <v>1187</v>
       </c>
       <c r="F55">
-        <v>700</v>
+        <v>2769</v>
       </c>
       <c r="G55">
-        <v>0.000145697313</v>
+        <v>0.00034519503099999995</v>
       </c>
       <c r="H55">
-        <v>0.0001919237814</v>
+        <v>0.00045471762180000004</v>
       </c>
     </row>
     <row r="56">
@@ -2029,25 +2029,25 @@
         <v>1</v>
       </c>
       <c r="B56" t="str">
-        <v>https://www.jevnaker.kommune.no/appresource/2.638b2cc2196f633e47f3ad7c/12.638b2cc2196f633e47f3edcd/menuitems?svAjaxReqParam=ajax</v>
+        <v>https://www.googletagmanager.com/gtag/js?id=G-E8WQDE3S74</v>
       </c>
       <c r="C56" t="str">
-        <v>XHR</v>
+        <v>Script</v>
       </c>
       <c r="D56" t="str">
-        <v>application/json</v>
+        <v>application/javascript</v>
       </c>
       <c r="E56">
-        <v>442</v>
+        <v>146003</v>
       </c>
       <c r="F56">
-        <v>244</v>
+        <v>428221</v>
       </c>
       <c r="G56">
-        <v>0.000128539346</v>
+        <v>0.042459570439</v>
       </c>
       <c r="H56">
-        <v>0.0001693219788</v>
+        <v>0.055931033644200004</v>
       </c>
     </row>
     <row r="57">
@@ -2055,25 +2055,25 @@
         <v>1</v>
       </c>
       <c r="B57" t="str">
-        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cd3/1759239074973/Avatar-Mine-Worker-Man--Streamline-Ultimate.svg</v>
+        <v>https://snapwidget.com/js/embed.vendor.min.2f17f0b14ee46c5a.js</v>
       </c>
       <c r="C57" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D57" t="str">
-        <v>image/svg+xml</v>
+        <v>application/javascript</v>
       </c>
       <c r="E57">
-        <v>2163</v>
+        <v>1438</v>
       </c>
       <c r="F57">
-        <v>1872</v>
+        <v>2529</v>
       </c>
       <c r="G57">
-        <v>0.0006290285189999999</v>
+        <v>0.00041818909399999997</v>
       </c>
       <c r="H57">
-        <v>0.0008286050682000001</v>
+        <v>0.0005508710532</v>
       </c>
     </row>
     <row r="58">
@@ -2081,25 +2081,25 @@
         <v>1</v>
       </c>
       <c r="B58" t="str">
-        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47ce2/1759239075181/Tool-Box--Streamline-Ultimate.svg</v>
+        <v>https://snapwidget.com/js/embed.main.min.65b73ba9362828bd.js</v>
       </c>
       <c r="C58" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D58" t="str">
-        <v>image/svg+xml</v>
+        <v>application/javascript</v>
       </c>
       <c r="E58">
-        <v>1381</v>
+        <v>1443</v>
       </c>
       <c r="F58">
-        <v>1090</v>
+        <v>3096</v>
       </c>
       <c r="G58">
-        <v>0.00040161275299999995</v>
+        <v>0.00041964315899999994</v>
       </c>
       <c r="H58">
-        <v>0.0005290354134000001</v>
+        <v>0.0005527864602000001</v>
       </c>
     </row>
     <row r="59">
@@ -2107,25 +2107,25 @@
         <v>1</v>
       </c>
       <c r="B59" t="str">
-        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cdd/1759239075111/Safety-Fire-Extinguisher--Streamline-Ultimate.svg</v>
+        <v>https://snapwidget.com/js/vendor/iframeResizer.contentWindow.min.0da4d54c7d115e53.js</v>
       </c>
       <c r="C59" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D59" t="str">
-        <v>image/svg+xml</v>
+        <v>application/javascript</v>
       </c>
       <c r="E59">
-        <v>1433</v>
+        <v>6515</v>
       </c>
       <c r="F59">
-        <v>1142</v>
+        <v>21586</v>
       </c>
       <c r="G59">
-        <v>0.00041673502899999994</v>
+        <v>0.0018946466949999999</v>
       </c>
       <c r="H59">
-        <v>0.0005489556462000001</v>
+        <v>0.0024957753210000004</v>
       </c>
     </row>
     <row r="60">
@@ -2133,25 +2133,25 @@
         <v>1</v>
       </c>
       <c r="B60" t="str">
-        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47ce5/1759239075222/Water-Protection-Faucet--Streamline-Ultimate.svg</v>
+        <v>https://static.cloudflareinsights.com/beacon.min.js/vcd15cbe7772f49c399c6a5babf22c1241717689176015</v>
       </c>
       <c r="C60" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D60" t="str">
-        <v>image/svg+xml</v>
+        <v>text/javascript</v>
       </c>
       <c r="E60">
-        <v>1941</v>
+        <v>7110</v>
       </c>
       <c r="F60">
-        <v>1650</v>
+        <v>19948</v>
       </c>
       <c r="G60">
-        <v>0.000564468033</v>
+        <v>0.0020676804299999997</v>
       </c>
       <c r="H60">
-        <v>0.0007435609974</v>
+        <v>0.0027237087540000005</v>
       </c>
     </row>
     <row r="61">
@@ -2159,25 +2159,25 @@
         <v>1</v>
       </c>
       <c r="B61" t="str">
-        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cd6/1759239075018/Greek-God-Atlas--Streamline-Ultimate.svg</v>
+        <v>https://www.jevnaker.kommune.no/appresource/2.638b2cc2196f633e47f3ad7c/12.638b2cc2196f633e47f41b0b/menuitems?svAjaxReqParam=ajax</v>
       </c>
       <c r="C61" t="str">
-        <v>Image</v>
+        <v>XHR</v>
       </c>
       <c r="D61" t="str">
-        <v>image/svg+xml</v>
+        <v>application/json</v>
       </c>
       <c r="E61">
-        <v>1186</v>
+        <v>855</v>
       </c>
       <c r="F61">
-        <v>2424</v>
+        <v>2281</v>
       </c>
       <c r="G61">
-        <v>0.00034490421799999993</v>
+        <v>0.00024864511499999995</v>
       </c>
       <c r="H61">
-        <v>0.00045433454039999995</v>
+        <v>0.000327534597</v>
       </c>
     </row>
     <row r="62">
@@ -2185,25 +2185,25 @@
         <v>1</v>
       </c>
       <c r="B62" t="str">
-        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47ce6/1759239075234/Wheelchair-Helper--Streamline-Ultimate.svg</v>
+        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/07c16d59554a729db34079442c91c27bb79e776ae9da8ea6eec5385cb6967383/envision/popper-7d0017b4b0eee8522ac7.js</v>
       </c>
       <c r="C62" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D62" t="str">
-        <v>image/svg+xml</v>
+        <v>text/javascript</v>
       </c>
       <c r="E62">
-        <v>1754</v>
+        <v>6812</v>
       </c>
       <c r="F62">
-        <v>4084</v>
+        <v>19517</v>
       </c>
       <c r="G62">
-        <v>0.0005100860019999999</v>
+        <v>0.001981018156</v>
       </c>
       <c r="H62">
-        <v>0.0006719247756</v>
+        <v>0.0026095504968</v>
       </c>
     </row>
     <row r="63">
@@ -2211,25 +2211,25 @@
         <v>1</v>
       </c>
       <c r="B63" t="str">
-        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cd8/1759239075046/House-Home-Building-1--Streamline-Ultimate.svg</v>
+        <v>https://www.google-analytics.com/analytics.js</v>
       </c>
       <c r="C63" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D63" t="str">
-        <v>image/svg+xml</v>
+        <v>text/javascript</v>
       </c>
       <c r="E63">
-        <v>1369</v>
+        <v>21344</v>
       </c>
       <c r="F63">
-        <v>1078</v>
+        <v>52310</v>
       </c>
       <c r="G63">
-        <v>0.00039812299699999997</v>
+        <v>0.006207112672</v>
       </c>
       <c r="H63">
-        <v>0.0005244384366</v>
+        <v>0.008176489401600002</v>
       </c>
     </row>
     <row r="64">
@@ -2237,25 +2237,25 @@
         <v>1</v>
       </c>
       <c r="B64" t="str">
-        <v>https://snapwidget.com/stylesheets/embed.vendor.min.760717b3f565c387.css</v>
+        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAYAAAAfFcSJAAAAGXRFWHRTb2Z0d2FyZQBBZG9iZSBJb…</v>
       </c>
       <c r="C64" t="str">
-        <v>Stylesheet</v>
+        <v>Image</v>
       </c>
       <c r="D64" t="str">
-        <v>text/css</v>
+        <v>image/png</v>
       </c>
       <c r="E64">
-        <v>1034</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>2359</v>
+        <v>926</v>
       </c>
       <c r="G64">
-        <v>0.000300700642</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>0.00039610616760000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2263,25 +2263,25 @@
         <v>1</v>
       </c>
       <c r="B65" t="str">
-        <v>https://snapwidget.com/stylesheets/embed.style.min.33d8714986a48d7b.css</v>
+        <v>https://www.jevnaker.kommune.no/appresource/2.638b2cc2196f633e47f3ad7c/12.638b2cc2196f633e47f41383/menuitems?svAjaxReqParam=ajax</v>
       </c>
       <c r="C65" t="str">
-        <v>Stylesheet</v>
+        <v>XHR</v>
       </c>
       <c r="D65" t="str">
-        <v>text/css</v>
+        <v>application/json</v>
       </c>
       <c r="E65">
-        <v>3983</v>
+        <v>501</v>
       </c>
       <c r="F65">
-        <v>16311</v>
+        <v>700</v>
       </c>
       <c r="G65">
-        <v>0.0011583081789999998</v>
+        <v>0.000145697313</v>
       </c>
       <c r="H65">
-        <v>0.0015258132162000002</v>
+        <v>0.0001919237814</v>
       </c>
     </row>
     <row r="66">
@@ -2289,25 +2289,25 @@
         <v>1</v>
       </c>
       <c r="B66" t="str">
-        <v>https://snapwidget.com/stylesheets/embed.grid.min.0d105dc3e2d4e747.css</v>
+        <v>https://www.jevnaker.kommune.no/appresource/2.638b2cc2196f633e47f3ad7c/12.638b2cc2196f633e47f3edcd/menuitems?svAjaxReqParam=ajax</v>
       </c>
       <c r="C66" t="str">
-        <v>Stylesheet</v>
+        <v>XHR</v>
       </c>
       <c r="D66" t="str">
-        <v>text/css</v>
+        <v>application/json</v>
       </c>
       <c r="E66">
-        <v>1183</v>
+        <v>442</v>
       </c>
       <c r="F66">
-        <v>2769</v>
+        <v>244</v>
       </c>
       <c r="G66">
-        <v>0.00034403177899999994</v>
+        <v>0.000128539346</v>
       </c>
       <c r="H66">
-        <v>0.0004531852962</v>
+        <v>0.0001693219788</v>
       </c>
     </row>
     <row r="67">
@@ -2315,25 +2315,25 @@
         <v>1</v>
       </c>
       <c r="B67" t="str">
-        <v>https://www.googletagmanager.com/gtag/js?id=G-E8WQDE3S74</v>
+        <v>https://snapwidget.com/images/post_type_icons.png</v>
       </c>
       <c r="C67" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D67" t="str">
-        <v>application/javascript</v>
+        <v>image/png</v>
       </c>
       <c r="E67">
-        <v>146254</v>
+        <v>3182</v>
       </c>
       <c r="F67">
-        <v>428746</v>
+        <v>2671</v>
       </c>
       <c r="G67">
-        <v>0.04253256450199999</v>
+        <v>0.0009253669659999999</v>
       </c>
       <c r="H67">
-        <v>0.05602718707560002</v>
+        <v>0.0012189650148000002</v>
       </c>
     </row>
     <row r="68">
@@ -2341,25 +2341,25 @@
         <v>1</v>
       </c>
       <c r="B68" t="str">
-        <v>https://snapwidget.com/js/embed.vendor.min.2f17f0b14ee46c5a.js</v>
+        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cd3/1759239074973/Avatar-Mine-Worker-Man--Streamline-Ultimate.svg</v>
       </c>
       <c r="C68" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D68" t="str">
-        <v>application/javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E68">
-        <v>1437</v>
+        <v>2163</v>
       </c>
       <c r="F68">
-        <v>2529</v>
+        <v>1872</v>
       </c>
       <c r="G68">
-        <v>0.00041789828099999995</v>
+        <v>0.0006290285189999999</v>
       </c>
       <c r="H68">
-        <v>0.0005504879718</v>
+        <v>0.0008286050682000001</v>
       </c>
     </row>
     <row r="69">
@@ -2367,25 +2367,25 @@
         <v>1</v>
       </c>
       <c r="B69" t="str">
-        <v>https://snapwidget.com/js/embed.main.min.65b73ba9362828bd.js</v>
+        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47ce2/1759239075181/Tool-Box--Streamline-Ultimate.svg</v>
       </c>
       <c r="C69" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D69" t="str">
-        <v>application/javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E69">
-        <v>1448</v>
+        <v>1381</v>
       </c>
       <c r="F69">
-        <v>3096</v>
+        <v>1090</v>
       </c>
       <c r="G69">
-        <v>0.00042109722399999997</v>
+        <v>0.00040161275299999995</v>
       </c>
       <c r="H69">
-        <v>0.0005547018672000001</v>
+        <v>0.0005290354134000001</v>
       </c>
     </row>
     <row r="70">
@@ -2393,25 +2393,25 @@
         <v>1</v>
       </c>
       <c r="B70" t="str">
-        <v>https://snapwidget.com/js/vendor/iframeResizer.contentWindow.min.0da4d54c7d115e53.js</v>
+        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cdd/1759239075111/Safety-Fire-Extinguisher--Streamline-Ultimate.svg</v>
       </c>
       <c r="C70" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D70" t="str">
-        <v>application/javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E70">
-        <v>6514</v>
+        <v>1433</v>
       </c>
       <c r="F70">
-        <v>21586</v>
+        <v>1142</v>
       </c>
       <c r="G70">
-        <v>0.0018943558819999999</v>
+        <v>0.00041673502899999994</v>
       </c>
       <c r="H70">
-        <v>0.0024953922396000004</v>
+        <v>0.0005489556462000001</v>
       </c>
     </row>
     <row r="71">
@@ -2419,25 +2419,25 @@
         <v>1</v>
       </c>
       <c r="B71" t="str">
-        <v>https://static.cloudflareinsights.com/beacon.min.js/vcd15cbe7772f49c399c6a5babf22c1241717689176015</v>
+        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47ce5/1759239075222/Water-Protection-Faucet--Streamline-Ultimate.svg</v>
       </c>
       <c r="C71" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D71" t="str">
-        <v>text/javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E71">
-        <v>7119</v>
+        <v>1941</v>
       </c>
       <c r="F71">
-        <v>19948</v>
+        <v>1650</v>
       </c>
       <c r="G71">
-        <v>0.0020702977469999996</v>
+        <v>0.000564468033</v>
       </c>
       <c r="H71">
-        <v>0.0027271564866</v>
+        <v>0.0007435609974</v>
       </c>
     </row>
     <row r="72">
@@ -2445,25 +2445,25 @@
         <v>1</v>
       </c>
       <c r="B72" t="str">
-        <v>https://www.google-analytics.com/analytics.js</v>
+        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cd6/1759239075018/Greek-God-Atlas--Streamline-Ultimate.svg</v>
       </c>
       <c r="C72" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D72" t="str">
-        <v>text/javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E72">
-        <v>21344</v>
+        <v>1186</v>
       </c>
       <c r="F72">
-        <v>52310</v>
+        <v>2424</v>
       </c>
       <c r="G72">
-        <v>0.006207112672</v>
+        <v>0.00034490421799999993</v>
       </c>
       <c r="H72">
-        <v>0.008176489401600002</v>
+        <v>0.00045433454039999995</v>
       </c>
     </row>
     <row r="73">
@@ -2471,25 +2471,25 @@
         <v>1</v>
       </c>
       <c r="B73" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAYAAAAfFcSJAAAAGXRFWHRTb2Z0d2FyZQBBZG9iZSBJb…</v>
+        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47ce6/1759239075234/Wheelchair-Helper--Streamline-Ultimate.svg</v>
       </c>
       <c r="C73" t="str">
         <v>Image</v>
       </c>
       <c r="D73" t="str">
-        <v>image/png</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1754</v>
       </c>
       <c r="F73">
-        <v>926</v>
+        <v>4084</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>0.0005100860019999999</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>0.0006719247756</v>
       </c>
     </row>
     <row r="74">
@@ -2497,25 +2497,25 @@
         <v>1</v>
       </c>
       <c r="B74" t="str">
-        <v>https://snapwidget.com/images/post_type_icons.png</v>
+        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cd8/1759239075046/House-Home-Building-1--Streamline-Ultimate.svg</v>
       </c>
       <c r="C74" t="str">
         <v>Image</v>
       </c>
       <c r="D74" t="str">
-        <v>image/png</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E74">
-        <v>3166</v>
+        <v>1369</v>
       </c>
       <c r="F74">
-        <v>2671</v>
+        <v>1078</v>
       </c>
       <c r="G74">
-        <v>0.0009207139579999999</v>
+        <v>0.00039812299699999997</v>
       </c>
       <c r="H74">
-        <v>0.0012128357124</v>
+        <v>0.0005244384366</v>
       </c>
     </row>
     <row r="75">
@@ -2523,22 +2523,22 @@
         <v>1</v>
       </c>
       <c r="B75" t="str">
-        <v>https://snapwidget.com/cdn-cgi/rum?</v>
+        <v>https://www.jevnaker.kommune.no/favicon.ico</v>
       </c>
       <c r="C75" t="str">
-        <v>XHR</v>
+        <v>other</v>
       </c>
       <c r="D75" t="str">
-        <v>text/plain</v>
+        <v/>
       </c>
       <c r="E75">
-        <v>334</v>
+        <v>203</v>
       </c>
       <c r="G75">
-        <v>0.00009713154199999998</v>
+        <v>0.00005903503899999999</v>
       </c>
       <c r="H75">
-        <v>0.00012794918760000002</v>
+        <v>0.00007776552420000002</v>
       </c>
     </row>
     <row r="76">
@@ -2546,22 +2546,22 @@
         <v>1</v>
       </c>
       <c r="B76" t="str">
-        <v>https://www.jevnaker.kommune.no/favicon.ico</v>
+        <v>https://snapwidget.com/cdn-cgi/rum?</v>
       </c>
       <c r="C76" t="str">
-        <v>other</v>
+        <v>XHR</v>
       </c>
       <c r="D76" t="str">
-        <v/>
+        <v>text/plain</v>
       </c>
       <c r="E76">
-        <v>203</v>
+        <v>338</v>
       </c>
       <c r="G76">
-        <v>0.00005903503899999999</v>
+        <v>0.00009829479399999999</v>
       </c>
       <c r="H76">
-        <v>0.00007776552420000002</v>
+        <v>0.0001294815132</v>
       </c>
     </row>
     <row r="77">
@@ -2595,7 +2595,7 @@
         <v>1</v>
       </c>
       <c r="B78" t="str">
-        <v>https://scontent.cdninstagram.com/v/t39.30808-6/559008362_1232017585620230_1261247343826860851_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=cfWpIiBpc6gQ7kNvwFJL_Xo&amp;_nc_oc=Adk4MnzNmTm9wAckw7t89J452M7KaH7fdncqlIeiI83sF85v2gGwXB1mE4KNBZqp09k&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=20p8J2-NsJApN0CT7-yyvQ&amp;oh=00_AfgHA2gWsgQzHtT9l8qdVwDq-7hcT_Kw98MomuOpjQ0h2Q&amp;oe=69184C58</v>
+        <v>https://scontent.cdninstagram.com/v/t39.30808-6/559008362_1232017585620230_1261247343826860851_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=T0D1_iRqtVIQ7kNvwF4oHnO&amp;_nc_oc=Adl3lrtsQ2G01wX5KMlcJRgi5U4dANnSq2oU7RVifCP-m7Gar4L4iH0jF_efHxkp5MU&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=Du_4ouqXXu6usKwpYY-C-A&amp;oh=00_AfjVPiw5hWW7NZIvCyfmvT77Npn05E3ySzFdGRrY9PPHfw&amp;oe=691D21D8</v>
       </c>
       <c r="C78" t="str">
         <v>Image</v>
@@ -2604,16 +2604,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E78">
-        <v>592880</v>
+        <v>593215</v>
       </c>
       <c r="F78">
         <v>592779</v>
       </c>
       <c r="G78">
-        <v>0.17241721143999997</v>
+        <v>0.17251463379499998</v>
       </c>
       <c r="H78">
-        <v>0.227121300432</v>
+        <v>0.22724963270100002</v>
       </c>
     </row>
     <row r="79">
@@ -2621,7 +2621,7 @@
         <v>1</v>
       </c>
       <c r="B79" t="str">
-        <v>https://scontent.cdninstagram.com/v/t39.30808-6/565329695_1238170471671608_6196745189101583773_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=Lhv4biFlpT8Q7kNvwH3Q-cU&amp;_nc_oc=AdlCmQkL-qEtINIv_WiA3ooseJpGE01d5M39DHrHAkBUkMJ5Q4Hwfpb1pC_dye75cCE&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=20p8J2-NsJApN0CT7-yyvQ&amp;oh=00_Afio9r9w8guVzCp5QgIfjGMcE3h-3JqucEn3ihklcSattw&amp;oe=69184EA1</v>
+        <v>https://scontent.cdninstagram.com/v/t39.30808-6/565329695_1238170471671608_6196745189101583773_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=mCsHf0__u5QQ7kNvwHDDwdV&amp;_nc_oc=Adl5jnijQXhDUOYkThc0-P-YoQCgR2u6O6ziQ3ax_9uh5_fXhje6Py_1OcbOp3ImhAY&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=Du_4ouqXXu6usKwpYY-C-A&amp;oh=00_AfiME4QAjV0DRLt6rpmFCvTxW4XkJs4ZPIaHpGSgzOBHUQ&amp;oe=691D2421</v>
       </c>
       <c r="C79" t="str">
         <v>Image</v>
@@ -2630,16 +2630,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E79">
-        <v>278664</v>
+        <v>279047</v>
       </c>
       <c r="F79">
         <v>278586</v>
       </c>
       <c r="G79">
-        <v>0.08103911383199999</v>
+        <v>0.08115049521099998</v>
       </c>
       <c r="H79">
-        <v>0.10675099524959998</v>
+        <v>0.10689771542580001</v>
       </c>
     </row>
     <row r="80">
@@ -2647,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="B80" t="str">
-        <v>https://scontent.cdninstagram.com/v/t51.82787-15/571469270_18537882733035841_487393053145516240_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=8p-l-qPhE4YQ7kNvwHBN29m&amp;_nc_oc=AdmgLxnFU1syt_d6TZ7Nq2KobxuiDbHE-hI1HlLyphuzTsabZA_QITCPnJrPGeIp1n0&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=20p8J2-NsJApN0CT7-yyvQ&amp;oh=00_AfjG3GMTKmgUYZHPerFAGwzFVUbMEDkkZKXnPtLwn-5e9w&amp;oe=69184422</v>
+        <v>https://scontent.cdninstagram.com/v/t51.82787-15/571469270_18537882733035841_487393053145516240_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=jKmZ-LZ475YQ7kNvwFOnfQ4&amp;_nc_oc=Adms9KUcc-zLk8787wjf5dmgKK6omwuCLmFFgIy1da02KFozoF9chuR-VnJexisug-0&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=Du_4ouqXXu6usKwpYY-C-A&amp;oh=00_AfhVV9GEnzvUFa-kYHw7e8_tDW9YD-1AwZI-e9N4_phxCw&amp;oe=691D19A2</v>
       </c>
       <c r="C80" t="str">
         <v>Image</v>
@@ -2656,16 +2656,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E80">
-        <v>67612</v>
+        <v>67736</v>
       </c>
       <c r="F80">
         <v>67549</v>
       </c>
       <c r="G80">
-        <v>0.019662448555999995</v>
+        <v>0.019698509367999998</v>
       </c>
       <c r="H80">
-        <v>0.0259008996168</v>
+        <v>0.025948401710400002</v>
       </c>
     </row>
     <row r="81">
@@ -2673,7 +2673,7 @@
         <v>1</v>
       </c>
       <c r="B81" t="str">
-        <v>https://scontent.cdninstagram.com/v/t39.30808-6/571218357_1246549530833702_3884028946526260024_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=q5CzZT8221UQ7kNvwF6hsCW&amp;_nc_oc=Adk35Q77RNWOhCAREtggeEo9ASWWp_ejtvgSl7U9nrUY7KEwv0jfG8Wm4qpEXPmigKs&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=20p8J2-NsJApN0CT7-yyvQ&amp;oh=00_AfgKfnrf0aTRe1Qgw2JdWa8LnERG7Tpaui_uZNOg7jaMZg&amp;oe=691821B2</v>
+        <v>https://scontent.cdninstagram.com/v/t39.30808-6/571218357_1246549530833702_3884028946526260024_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=DLNlow1VftYQ7kNvwFAbQ96&amp;_nc_oc=AdlmPlorzlb0nITCmKatpVRKu9tTdZctFTt5--kMouEJJPsUT3oKYoQx2GrS99eBASI&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=Du_4ouqXXu6usKwpYY-C-A&amp;oh=00_Afg0XUXoU2fR-_CHo4cZH-fpkUuJIUesy8O4qJ228zoo7w&amp;oe=691D2F72</v>
       </c>
       <c r="C81" t="str">
         <v>Image</v>
@@ -2682,16 +2682,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E81">
-        <v>315902</v>
+        <v>316029</v>
       </c>
       <c r="F81">
         <v>315697</v>
       </c>
       <c r="G81">
-        <v>0.09186840832599999</v>
+        <v>0.09190534157699998</v>
       </c>
       <c r="H81">
-        <v>0.1210161804228</v>
+        <v>0.12106483176060001</v>
       </c>
     </row>
     <row r="82">
@@ -2699,7 +2699,7 @@
         <v>1</v>
       </c>
       <c r="B82" t="str">
-        <v>https://scontent.cdninstagram.com/v/t39.30808-6/571331711_1248201744001814_1853178542471537521_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=VkSoUGY-LiQQ7kNvwE-WKAc&amp;_nc_oc=Adl2rq7DPkgQXhJ7MV6llGJNmE79jhMxueS6JkEkCkgVeHYwgWcNJ4irOblGqlw_6nE&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=20p8J2-NsJApN0CT7-yyvQ&amp;oh=00_AfgyHUK3IINnQ13deJ6r5gPyf1WBIfJicZ_9p1zKOX68JA&amp;oe=691830FB</v>
+        <v>https://scontent.cdninstagram.com/v/t39.30808-6/571331711_1248201744001814_1853178542471537521_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=5iOa_E6a8nIQ7kNvwGtdvzH&amp;_nc_oc=AdkbSjKyfOGu7XGbyCjmzhxXJGmX214i-aoyygRoaKMNU3DuUFj0K2sFE6K2EnVeyCU&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=Du_4ouqXXu6usKwpYY-C-A&amp;oh=00_AfhelwFi4gdUnXnrP0TNiGTNg-LQ88JXhZTYbFle-3y3bg&amp;oe=691D3EBB</v>
       </c>
       <c r="C82" t="str">
         <v>Image</v>
@@ -2725,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="B83" t="str">
-        <v>https://scontent.cdninstagram.com/v/t51.82787-15/572121945_18540931042035841_893827279987965030_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=7295ilXScTIQ7kNvwF8GLLd&amp;_nc_oc=Adl_DTFHS3RU6h633zxkbI6xCD_ae1Owq0K5OQvS0FUPyiEeCV30xvscTtODU4VpQYM&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=20p8J2-NsJApN0CT7-yyvQ&amp;oh=00_Afj52rncgcH9XDdhQa6jcK9JQYDilX1ZIiGlFgSw_fKvFg&amp;oe=6918209E</v>
+        <v>https://scontent.cdninstagram.com/v/t51.82787-15/572121945_18540931042035841_893827279987965030_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=dxrYgVTpDi4Q7kNvwGohUYC&amp;_nc_oc=Adkgmpt-BQfNq8MO-gDukMpA1BQ4-EMQ25g1U8al2odGf0vSM1Biz0CCeKQkHJ4OB3I&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=Du_4ouqXXu6usKwpYY-C-A&amp;oh=00_Afic0DVprSOCiQBt9Zn_DPzjHfGplGmezj6LV1Pn7wxcUA&amp;oe=691D2E5E</v>
       </c>
       <c r="C83" t="str">
         <v>Image</v>
@@ -2734,16 +2734,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E83">
-        <v>236071</v>
+        <v>236265</v>
       </c>
       <c r="F83">
         <v>235862</v>
       </c>
       <c r="G83">
-        <v>0.06865251572299999</v>
+        <v>0.068708933445</v>
       </c>
       <c r="H83">
-        <v>0.0904344091794</v>
+        <v>0.09050872697099999</v>
       </c>
     </row>
     <row r="84">
@@ -2760,16 +2760,16 @@
         <v>text/html</v>
       </c>
       <c r="E84">
-        <v>17035</v>
+        <v>16704</v>
       </c>
       <c r="F84">
-        <v>88229</v>
+        <v>87206</v>
       </c>
       <c r="G84">
-        <v>0.004953999455</v>
+        <v>0.004857740351999999</v>
       </c>
       <c r="H84">
-        <v>0.006525791649000001</v>
+        <v>0.006398991705600001</v>
       </c>
     </row>
     <row r="85">
@@ -2777,7 +2777,7 @@
         <v>2</v>
       </c>
       <c r="B85" t="str">
-        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/1761195444930/sitevision-responsive-grids.css?gridConfigs=651.638b2cc2196f633e47f3ae1a_FLUID_GRID&amp;pushPull=false</v>
+        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/1763013425277/sitevision-responsive-grids.css?gridConfigs=651.638b2cc2196f633e47f3ae1a_FLUID_GRID&amp;pushPull=false</v>
       </c>
       <c r="C85" t="str">
         <v>Stylesheet</v>
@@ -2803,7 +2803,7 @@
         <v>2</v>
       </c>
       <c r="B86" t="str">
-        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/619/3700/print/SiteVision.css</v>
+        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/120/6256/print/SiteVision.css</v>
       </c>
       <c r="C86" t="str">
         <v>Stylesheet</v>
@@ -2812,16 +2812,16 @@
         <v>text/css</v>
       </c>
       <c r="E86">
-        <v>6003</v>
+        <v>5991</v>
       </c>
       <c r="F86">
-        <v>69206</v>
+        <v>69205</v>
       </c>
       <c r="G86">
-        <v>0.0017457504389999997</v>
+        <v>0.001742260683</v>
       </c>
       <c r="H86">
-        <v>0.0022996376442000004</v>
+        <v>0.0022950406674</v>
       </c>
     </row>
     <row r="87">
@@ -2829,7 +2829,7 @@
         <v>2</v>
       </c>
       <c r="B87" t="str">
-        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/faf8e723c75273654ef4ca21f2f98d57be2edb6ad7423f62726de84051a3b8e0/css/portlets.css</v>
+        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/07c16d59554a729db34079442c91c27bb79e776ae9da8ea6eec5385cb6967383/css/portlets.css</v>
       </c>
       <c r="C87" t="str">
         <v>Stylesheet</v>
@@ -2838,16 +2838,16 @@
         <v>text/css</v>
       </c>
       <c r="E87">
-        <v>7023</v>
+        <v>7236</v>
       </c>
       <c r="F87">
-        <v>40322</v>
+        <v>42372</v>
       </c>
       <c r="G87">
-        <v>0.0020423796989999994</v>
+        <v>0.0021043228679999996</v>
       </c>
       <c r="H87">
-        <v>0.0026903806722</v>
+        <v>0.0027719770104000004</v>
       </c>
     </row>
     <row r="88">
@@ -2855,7 +2855,7 @@
         <v>2</v>
       </c>
       <c r="B88" t="str">
-        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/faf8e723c75273654ef4ca21f2f98d57be2edb6ad7423f62726de84051a3b8e0/envision/envision.css</v>
+        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/07c16d59554a729db34079442c91c27bb79e776ae9da8ea6eec5385cb6967383/envision/envision.css</v>
       </c>
       <c r="C88" t="str">
         <v>Stylesheet</v>
@@ -2864,16 +2864,16 @@
         <v>text/css</v>
       </c>
       <c r="E88">
-        <v>22078</v>
+        <v>22101</v>
       </c>
       <c r="F88">
-        <v>255322</v>
+        <v>255462</v>
       </c>
       <c r="G88">
-        <v>0.006420569413999999</v>
+        <v>0.006427258112999999</v>
       </c>
       <c r="H88">
-        <v>0.0084576711492</v>
+        <v>0.0084664820214</v>
       </c>
     </row>
     <row r="89">
@@ -2881,7 +2881,7 @@
         <v>2</v>
       </c>
       <c r="B89" t="str">
-        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/91.638b2cc2196f633e47f3b486/1761196242897/0/sv-template-asset.css</v>
+        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/91.638b2cc2196f633e47f3b486/1763013593487/0/sv-template-asset.css</v>
       </c>
       <c r="C89" t="str">
         <v>Stylesheet</v>
@@ -2907,7 +2907,7 @@
         <v>2</v>
       </c>
       <c r="B90" t="str">
-        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/1761196190045/sitevision-spacing.css</v>
+        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/1763013593043/sitevision-spacing.css</v>
       </c>
       <c r="C90" t="str">
         <v>Stylesheet</v>
@@ -3089,7 +3089,7 @@
         <v>2</v>
       </c>
       <c r="B97" t="str">
-        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/faf8e723c75273654ef4ca21f2f98d57be2edb6ad7423f62726de84051a3b8e0/js/jquery.js</v>
+        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/07c16d59554a729db34079442c91c27bb79e776ae9da8ea6eec5385cb6967383/js/jquery.js</v>
       </c>
       <c r="C97" t="str">
         <v>Script</v>
@@ -3115,7 +3115,7 @@
         <v>2</v>
       </c>
       <c r="B98" t="str">
-        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/faf8e723c75273654ef4ca21f2f98d57be2edb6ad7423f62726de84051a3b8e0/envision/envision.js</v>
+        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/07c16d59554a729db34079442c91c27bb79e776ae9da8ea6eec5385cb6967383/envision/envision.js</v>
       </c>
       <c r="C98" t="str">
         <v>Script</v>
@@ -3124,16 +3124,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E98">
-        <v>17895</v>
+        <v>17837</v>
       </c>
       <c r="F98">
-        <v>71690</v>
+        <v>71762</v>
       </c>
       <c r="G98">
-        <v>0.0052040986349999995</v>
+        <v>0.005187231480999999</v>
       </c>
       <c r="H98">
-        <v>0.006855241653</v>
+        <v>0.006833022931799999</v>
       </c>
     </row>
     <row r="99">
@@ -3141,7 +3141,7 @@
         <v>2</v>
       </c>
       <c r="B99" t="str">
-        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/faf8e723c75273654ef4ca21f2f98d57be2edb6ad7423f62726de84051a3b8e0/js/utils.js</v>
+        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/07c16d59554a729db34079442c91c27bb79e776ae9da8ea6eec5385cb6967383/js/utils.js</v>
       </c>
       <c r="C99" t="str">
         <v>Script</v>
@@ -3150,16 +3150,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E99">
-        <v>18832</v>
+        <v>18673</v>
       </c>
       <c r="F99">
-        <v>58222</v>
+        <v>58086</v>
       </c>
       <c r="G99">
-        <v>0.005476590415999999</v>
+        <v>0.005430351149</v>
       </c>
       <c r="H99">
-        <v>0.0072141889247999995</v>
+        <v>0.007153278982200001</v>
       </c>
     </row>
     <row r="100">
@@ -3167,7 +3167,7 @@
         <v>2</v>
       </c>
       <c r="B100" t="str">
-        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/faf8e723c75273654ef4ca21f2f98d57be2edb6ad7423f62726de84051a3b8e0/js/portlets.js</v>
+        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/07c16d59554a729db34079442c91c27bb79e776ae9da8ea6eec5385cb6967383/js/portlets.js</v>
       </c>
       <c r="C100" t="str">
         <v>Script</v>
@@ -3176,16 +3176,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E100">
-        <v>39317</v>
+        <v>38892</v>
       </c>
       <c r="F100">
-        <v>152113</v>
+        <v>149358</v>
       </c>
       <c r="G100">
-        <v>0.011433894720999998</v>
+        <v>0.011310299195999999</v>
       </c>
       <c r="H100">
-        <v>0.015061611403800003</v>
+        <v>0.014898801808799999</v>
       </c>
     </row>
     <row r="101">
@@ -3245,7 +3245,7 @@
         <v>2</v>
       </c>
       <c r="B103" t="str">
-        <v>https://www.jevnaker.kommune.no/images/200.6a10803c19993a6f9311d8c/1759385980205/vaksine.jpg</v>
+        <v>https://www.jevnaker.kommune.no/images/200.6603e25119a7bb1072fb31/1763133364725/iStock-1442909729.jpg</v>
       </c>
       <c r="C103" t="str">
         <v>Image</v>
@@ -3254,16 +3254,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E103">
-        <v>60778</v>
+        <v>34687</v>
       </c>
       <c r="F103">
-        <v>60489</v>
+        <v>34398</v>
       </c>
       <c r="G103">
-        <v>0.017675032514</v>
+        <v>0.010087430530999997</v>
       </c>
       <c r="H103">
-        <v>0.0232829213292</v>
+        <v>0.013287944521800002</v>
       </c>
     </row>
     <row r="104">
@@ -3271,7 +3271,7 @@
         <v>2</v>
       </c>
       <c r="B104" t="str">
-        <v>https://www.jevnaker.kommune.no/images/200.4ff8dba919a0f52c855ffc1/1762634603578/Svar_for_bestemor.jpg</v>
+        <v>https://www.jevnaker.kommune.no/images/200.7468bd14197a1fc3af868ae/1752152172212/ulfsnes-red.jpg</v>
       </c>
       <c r="C104" t="str">
         <v>Image</v>
@@ -3280,16 +3280,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E104">
-        <v>60347</v>
+        <v>40938</v>
       </c>
       <c r="F104">
-        <v>60058</v>
+        <v>40649</v>
       </c>
       <c r="G104">
-        <v>0.017549692110999996</v>
+        <v>0.011905302593999998</v>
       </c>
       <c r="H104">
-        <v>0.0231178132458</v>
+        <v>0.015682586353200002</v>
       </c>
     </row>
     <row r="105">
@@ -3297,25 +3297,25 @@
         <v>2</v>
       </c>
       <c r="B105" t="str">
-        <v>https://www.jevnaker.kommune.no/images/200.5aa488e919a0f60ef5ddf94/1762632797943/bibli-front.png</v>
+        <v>https://www.jevnaker.kommune.no/images/200.6a10803c19993a6f9311d8c/1759385980205/vaksine.jpg</v>
       </c>
       <c r="C105" t="str">
         <v>Image</v>
       </c>
       <c r="D105" t="str">
-        <v>image/png</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E105">
-        <v>148683</v>
+        <v>60778</v>
       </c>
       <c r="F105">
-        <v>148394</v>
+        <v>60489</v>
       </c>
       <c r="G105">
-        <v>0.043238949278999995</v>
+        <v>0.017675032514</v>
       </c>
       <c r="H105">
-        <v>0.05695769179620001</v>
+        <v>0.0232829213292</v>
       </c>
     </row>
     <row r="106">
@@ -3323,7 +3323,7 @@
         <v>2</v>
       </c>
       <c r="B106" t="str">
-        <v>https://www.jevnaker.kommune.no/images/200.91e7b3719a0f44bb6cce6b/1762247581830/(2)%2006%20kopi-forside.jpg</v>
+        <v>https://www.jevnaker.kommune.no/images/200.4ff8dba919a0f52c855ffc1/1762634603578/Svar_for_bestemor.jpg</v>
       </c>
       <c r="C106" t="str">
         <v>Image</v>
@@ -3332,16 +3332,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E106">
-        <v>73137</v>
+        <v>60347</v>
       </c>
       <c r="F106">
-        <v>72848</v>
+        <v>60058</v>
       </c>
       <c r="G106">
-        <v>0.021269190381</v>
+        <v>0.017549692110999996</v>
       </c>
       <c r="H106">
-        <v>0.028017424351800005</v>
+        <v>0.0231178132458</v>
       </c>
     </row>
     <row r="107">
@@ -3349,25 +3349,25 @@
         <v>2</v>
       </c>
       <c r="B107" t="str">
-        <v>https://www.jevnaker.kommune.no/images/200.5aa488e919a0f60ef5db4d4/1762164629493/pexels-karola-g-4964485.jpg</v>
+        <v>https://www.jevnaker.kommune.no/images/200.5aa488e919a0f60ef5ddf94/1762632797943/bibli-front.png</v>
       </c>
       <c r="C107" t="str">
         <v>Image</v>
       </c>
       <c r="D107" t="str">
-        <v>image/jpeg</v>
+        <v>image/png</v>
       </c>
       <c r="E107">
-        <v>24673</v>
+        <v>148683</v>
       </c>
       <c r="F107">
-        <v>24384</v>
+        <v>148394</v>
       </c>
       <c r="G107">
-        <v>0.007175229148999999</v>
+        <v>0.043238949278999995</v>
       </c>
       <c r="H107">
-        <v>0.0094517673822</v>
+        <v>0.05695769179620001</v>
       </c>
     </row>
     <row r="108">
@@ -3375,7 +3375,7 @@
         <v>2</v>
       </c>
       <c r="B108" t="str">
-        <v>https://www.jevnaker.kommune.no/images/200.f48e3b519a0f6dc2c3c836/1762155773605/heidiellingsen.jpg</v>
+        <v>https://www.jevnaker.kommune.no/images/200.91e7b3719a0f44bb6cce6b/1762247581830/(2)%2006%20kopi-forside.jpg</v>
       </c>
       <c r="C108" t="str">
         <v>Image</v>
@@ -3384,16 +3384,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E108">
-        <v>59349</v>
+        <v>73137</v>
       </c>
       <c r="F108">
-        <v>59060</v>
+        <v>72848</v>
       </c>
       <c r="G108">
-        <v>0.017259460736999997</v>
+        <v>0.021269190381</v>
       </c>
       <c r="H108">
-        <v>0.022735498008600002</v>
+        <v>0.028017424351800005</v>
       </c>
     </row>
     <row r="109">
@@ -3618,16 +3618,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E117">
-        <v>7204</v>
+        <v>7210</v>
       </c>
       <c r="F117">
         <v>22031</v>
       </c>
       <c r="G117">
-        <v>0.0020950168519999995</v>
+        <v>0.0020967617299999996</v>
       </c>
       <c r="H117">
-        <v>0.0027597184056</v>
+        <v>0.0027620168940000003</v>
       </c>
     </row>
     <row r="118">
@@ -3739,7 +3739,7 @@
         <v>2</v>
       </c>
       <c r="B122" t="str">
-        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/91.638b2cc2196f633e47f3b486/1761196242899/BODY/0/sv-template-asset.js</v>
+        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/91.638b2cc2196f633e47f3b486/1763013593497/BODY/0/sv-template-asset.js</v>
       </c>
       <c r="C122" t="str">
         <v>Script</v>
@@ -3765,7 +3765,7 @@
         <v>2</v>
       </c>
       <c r="B123" t="str">
-        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/faf8e723c75273654ef4ca21f2f98d57be2edb6ad7423f62726de84051a3b8e0/js/webAppExternals/react_18_3.js</v>
+        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/07c16d59554a729db34079442c91c27bb79e776ae9da8ea6eec5385cb6967383/js/webAppExternals/react_18_3.js</v>
       </c>
       <c r="C123" t="str">
         <v>Script</v>
@@ -3800,16 +3800,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E124">
-        <v>22978</v>
+        <v>22977</v>
       </c>
       <c r="F124">
         <v>69596</v>
       </c>
       <c r="G124">
-        <v>0.006682301113999999</v>
+        <v>0.006682010300999999</v>
       </c>
       <c r="H124">
-        <v>0.0088024444092</v>
+        <v>0.0088020613278</v>
       </c>
     </row>
     <row r="125">
@@ -3826,16 +3826,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E125">
-        <v>41227</v>
+        <v>41219</v>
       </c>
       <c r="F125">
         <v>138254</v>
       </c>
       <c r="G125">
-        <v>0.011989347550999998</v>
+        <v>0.011987021046999998</v>
       </c>
       <c r="H125">
-        <v>0.015793296877799998</v>
+        <v>0.015790232226600004</v>
       </c>
     </row>
     <row r="126">
@@ -3878,16 +3878,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E127">
-        <v>19913</v>
+        <v>19906</v>
       </c>
       <c r="F127">
         <v>58733</v>
       </c>
       <c r="G127">
-        <v>0.005790959268999999</v>
+        <v>0.005788923577999999</v>
       </c>
       <c r="H127">
-        <v>0.007628299918200001</v>
+        <v>0.0076256183484000005</v>
       </c>
     </row>
     <row r="128">
@@ -3895,7 +3895,7 @@
         <v>2</v>
       </c>
       <c r="B128" t="str">
-        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/faf8e723c75273654ef4ca21f2f98d57be2edb6ad7423f62726de84051a3b8e0/webapps/webapp_sdk-legacy.js</v>
+        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/07c16d59554a729db34079442c91c27bb79e776ae9da8ea6eec5385cb6967383/webapps/webapp_sdk-legacy.js</v>
       </c>
       <c r="C128" t="str">
         <v>Script</v>
@@ -3956,16 +3956,16 @@
         <v>text/html</v>
       </c>
       <c r="E130">
-        <v>8724</v>
+        <v>8718</v>
       </c>
       <c r="F130">
         <v>41338</v>
       </c>
       <c r="G130">
-        <v>0.0025370526119999994</v>
+        <v>0.0025353077339999993</v>
       </c>
       <c r="H130">
-        <v>0.0033420021335999997</v>
+        <v>0.0033397036452000005</v>
       </c>
     </row>
     <row r="131">
@@ -3999,25 +3999,25 @@
         <v>2</v>
       </c>
       <c r="B132" t="str">
-        <v>https://www.jevnaker.kommune.no/download/18.638b2cc2196f633e47f3e21e/1714030591045/open-sans-v40-latin-regular.woff2</v>
+        <v>https://snapwidget.com/stylesheets/embed.vendor.min.760717b3f565c387.css</v>
       </c>
       <c r="C132" t="str">
-        <v>Font</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D132" t="str">
-        <v>font/woff2</v>
+        <v>text/css</v>
       </c>
       <c r="E132">
-        <v>18957</v>
+        <v>999</v>
       </c>
       <c r="F132">
-        <v>18668</v>
+        <v>2359</v>
       </c>
       <c r="G132">
-        <v>0.005512942040999999</v>
+        <v>0.00029052218699999994</v>
       </c>
       <c r="H132">
-        <v>0.007262074099800002</v>
+        <v>0.0003826983186000001</v>
       </c>
     </row>
     <row r="133">
@@ -4025,25 +4025,25 @@
         <v>2</v>
       </c>
       <c r="B133" t="str">
-        <v>https://www.jevnaker.kommune.no/download/18.638b2cc2196f633e47f3e161/1714030633316/open-sans-v40-latin-700.woff2</v>
+        <v>https://snapwidget.com/stylesheets/embed.style.min.33d8714986a48d7b.css</v>
       </c>
       <c r="C133" t="str">
-        <v>Font</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D133" t="str">
-        <v>font/woff2</v>
+        <v>text/css</v>
       </c>
       <c r="E133">
-        <v>18549</v>
+        <v>3983</v>
       </c>
       <c r="F133">
-        <v>18260</v>
+        <v>16311</v>
       </c>
       <c r="G133">
-        <v>0.0053942903369999995</v>
+        <v>0.0011583081789999998</v>
       </c>
       <c r="H133">
-        <v>0.007105776888600002</v>
+        <v>0.0015258132162000002</v>
       </c>
     </row>
     <row r="134">
@@ -4051,25 +4051,25 @@
         <v>2</v>
       </c>
       <c r="B134" t="str">
-        <v>https://www.jevnaker.kommune.no/download/18.638b2cc2196f633e47f3e15d/1714030625431/open-sans-v40-latin-600.woff2</v>
+        <v>https://snapwidget.com/stylesheets/embed.grid.min.0d105dc3e2d4e747.css</v>
       </c>
       <c r="C134" t="str">
-        <v>Font</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D134" t="str">
-        <v>font/woff2</v>
+        <v>text/css</v>
       </c>
       <c r="E134">
-        <v>18885</v>
+        <v>1211</v>
       </c>
       <c r="F134">
-        <v>18596</v>
+        <v>2769</v>
       </c>
       <c r="G134">
-        <v>0.005492003505</v>
+        <v>0.00035217454299999996</v>
       </c>
       <c r="H134">
-        <v>0.007234492238999999</v>
+        <v>0.00046391157540000006</v>
       </c>
     </row>
     <row r="135">
@@ -4077,25 +4077,25 @@
         <v>2</v>
       </c>
       <c r="B135" t="str">
-        <v>https://www.jevnaker.kommune.no/appresource/2.638b2cc2196f633e47f3ad7c/12.638b2cc2196f633e47f41b0b/menuitems?svAjaxReqParam=ajax</v>
+        <v>https://www.googletagmanager.com/gtag/js?id=G-E8WQDE3S74</v>
       </c>
       <c r="C135" t="str">
-        <v>XHR</v>
+        <v>Script</v>
       </c>
       <c r="D135" t="str">
-        <v>application/json</v>
+        <v>application/javascript</v>
       </c>
       <c r="E135">
-        <v>855</v>
+        <v>146003</v>
       </c>
       <c r="F135">
-        <v>2281</v>
+        <v>428221</v>
       </c>
       <c r="G135">
-        <v>0.00024864511499999995</v>
+        <v>0.042459570439</v>
       </c>
       <c r="H135">
-        <v>0.000327534597</v>
+        <v>0.055931033644200004</v>
       </c>
     </row>
     <row r="136">
@@ -4103,25 +4103,25 @@
         <v>2</v>
       </c>
       <c r="B136" t="str">
-        <v>https://www.jevnaker.kommune.no/appresource/2.638b2cc2196f633e47f3ad7c/12.638b2cc2196f633e47f41383/menuitems?svAjaxReqParam=ajax</v>
+        <v>https://snapwidget.com/js/embed.vendor.min.2f17f0b14ee46c5a.js</v>
       </c>
       <c r="C136" t="str">
-        <v>XHR</v>
+        <v>Script</v>
       </c>
       <c r="D136" t="str">
-        <v>application/json</v>
+        <v>application/javascript</v>
       </c>
       <c r="E136">
-        <v>501</v>
+        <v>1440</v>
       </c>
       <c r="F136">
-        <v>700</v>
+        <v>2529</v>
       </c>
       <c r="G136">
-        <v>0.000145697313</v>
+        <v>0.00041877071999999995</v>
       </c>
       <c r="H136">
-        <v>0.0001919237814</v>
+        <v>0.000551637216</v>
       </c>
     </row>
     <row r="137">
@@ -4129,25 +4129,25 @@
         <v>2</v>
       </c>
       <c r="B137" t="str">
-        <v>https://www.jevnaker.kommune.no/appresource/2.638b2cc2196f633e47f3ad7c/12.638b2cc2196f633e47f3edcd/menuitems?svAjaxReqParam=ajax</v>
+        <v>https://snapwidget.com/js/embed.main.min.65b73ba9362828bd.js</v>
       </c>
       <c r="C137" t="str">
-        <v>XHR</v>
+        <v>Script</v>
       </c>
       <c r="D137" t="str">
-        <v>application/json</v>
+        <v>application/javascript</v>
       </c>
       <c r="E137">
-        <v>442</v>
+        <v>1445</v>
       </c>
       <c r="F137">
-        <v>244</v>
+        <v>3096</v>
       </c>
       <c r="G137">
-        <v>0.000128539346</v>
+        <v>0.0004202247849999999</v>
       </c>
       <c r="H137">
-        <v>0.0001693219788</v>
+        <v>0.000553552623</v>
       </c>
     </row>
     <row r="138">
@@ -4155,25 +4155,25 @@
         <v>2</v>
       </c>
       <c r="B138" t="str">
-        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/faf8e723c75273654ef4ca21f2f98d57be2edb6ad7423f62726de84051a3b8e0/envision/popper-1c40e6672ac9d88ded8c.js</v>
+        <v>https://snapwidget.com/js/vendor/iframeResizer.contentWindow.min.0da4d54c7d115e53.js</v>
       </c>
       <c r="C138" t="str">
         <v>Script</v>
       </c>
       <c r="D138" t="str">
-        <v>text/javascript</v>
+        <v>application/javascript</v>
       </c>
       <c r="E138">
-        <v>6837</v>
+        <v>6512</v>
       </c>
       <c r="F138">
-        <v>19616</v>
+        <v>21586</v>
       </c>
       <c r="G138">
-        <v>0.0019882884809999998</v>
+        <v>0.0018937742559999998</v>
       </c>
       <c r="H138">
-        <v>0.0026191275318</v>
+        <v>0.0024946260768</v>
       </c>
     </row>
     <row r="139">
@@ -4181,25 +4181,25 @@
         <v>2</v>
       </c>
       <c r="B139" t="str">
-        <v>https://snapwidget.com/stylesheets/embed.vendor.min.760717b3f565c387.css</v>
+        <v>https://static.cloudflareinsights.com/beacon.min.js/vcd15cbe7772f49c399c6a5babf22c1241717689176015</v>
       </c>
       <c r="C139" t="str">
-        <v>Stylesheet</v>
+        <v>Script</v>
       </c>
       <c r="D139" t="str">
-        <v>text/css</v>
+        <v>text/javascript</v>
       </c>
       <c r="E139">
-        <v>1047</v>
+        <v>7105</v>
       </c>
       <c r="F139">
-        <v>2359</v>
+        <v>19948</v>
       </c>
       <c r="G139">
-        <v>0.00030448121099999997</v>
+        <v>0.002066226365</v>
       </c>
       <c r="H139">
-        <v>0.00040108622580000005</v>
+        <v>0.002721793347</v>
       </c>
     </row>
     <row r="140">
@@ -4207,25 +4207,25 @@
         <v>2</v>
       </c>
       <c r="B140" t="str">
-        <v>https://snapwidget.com/stylesheets/embed.style.min.33d8714986a48d7b.css</v>
+        <v>https://www.jevnaker.kommune.no/download/18.638b2cc2196f633e47f3e21e/1714030591045/open-sans-v40-latin-regular.woff2</v>
       </c>
       <c r="C140" t="str">
-        <v>Stylesheet</v>
+        <v>Font</v>
       </c>
       <c r="D140" t="str">
-        <v>text/css</v>
+        <v>font/woff2</v>
       </c>
       <c r="E140">
-        <v>3985</v>
+        <v>18957</v>
       </c>
       <c r="F140">
-        <v>16311</v>
+        <v>18668</v>
       </c>
       <c r="G140">
-        <v>0.0011588898049999998</v>
+        <v>0.005512942040999999</v>
       </c>
       <c r="H140">
-        <v>0.0015265793790000004</v>
+        <v>0.007262074099800002</v>
       </c>
     </row>
     <row r="141">
@@ -4233,25 +4233,25 @@
         <v>2</v>
       </c>
       <c r="B141" t="str">
-        <v>https://snapwidget.com/stylesheets/embed.grid.min.0d105dc3e2d4e747.css</v>
+        <v>https://www.jevnaker.kommune.no/download/18.638b2cc2196f633e47f3e161/1714030633316/open-sans-v40-latin-700.woff2</v>
       </c>
       <c r="C141" t="str">
-        <v>Stylesheet</v>
+        <v>Font</v>
       </c>
       <c r="D141" t="str">
-        <v>text/css</v>
+        <v>font/woff2</v>
       </c>
       <c r="E141">
-        <v>1185</v>
+        <v>18549</v>
       </c>
       <c r="F141">
-        <v>2769</v>
+        <v>18260</v>
       </c>
       <c r="G141">
-        <v>0.0003446134049999999</v>
+        <v>0.0053942903369999995</v>
       </c>
       <c r="H141">
-        <v>0.0004539514590000001</v>
+        <v>0.007105776888600002</v>
       </c>
     </row>
     <row r="142">
@@ -4259,25 +4259,25 @@
         <v>2</v>
       </c>
       <c r="B142" t="str">
-        <v>https://www.googletagmanager.com/gtag/js?id=G-E8WQDE3S74</v>
+        <v>https://www.jevnaker.kommune.no/download/18.638b2cc2196f633e47f3e15d/1714030625431/open-sans-v40-latin-600.woff2</v>
       </c>
       <c r="C142" t="str">
-        <v>Script</v>
+        <v>Font</v>
       </c>
       <c r="D142" t="str">
-        <v>application/javascript</v>
+        <v>font/woff2</v>
       </c>
       <c r="E142">
-        <v>146254</v>
+        <v>18885</v>
       </c>
       <c r="F142">
-        <v>428746</v>
+        <v>18596</v>
       </c>
       <c r="G142">
-        <v>0.04253256450199999</v>
+        <v>0.005492003505</v>
       </c>
       <c r="H142">
-        <v>0.05602718707560002</v>
+        <v>0.007234492238999999</v>
       </c>
     </row>
     <row r="143">
@@ -4285,25 +4285,25 @@
         <v>2</v>
       </c>
       <c r="B143" t="str">
-        <v>https://snapwidget.com/js/embed.vendor.min.2f17f0b14ee46c5a.js</v>
+        <v>https://www.jevnaker.kommune.no/appresource/2.638b2cc2196f633e47f3ad7c/12.638b2cc2196f633e47f41b0b/menuitems?svAjaxReqParam=ajax</v>
       </c>
       <c r="C143" t="str">
-        <v>Script</v>
+        <v>XHR</v>
       </c>
       <c r="D143" t="str">
-        <v>application/javascript</v>
+        <v>application/json</v>
       </c>
       <c r="E143">
-        <v>1440</v>
+        <v>855</v>
       </c>
       <c r="F143">
-        <v>2529</v>
+        <v>2281</v>
       </c>
       <c r="G143">
-        <v>0.00041877071999999995</v>
+        <v>0.00024864511499999995</v>
       </c>
       <c r="H143">
-        <v>0.000551637216</v>
+        <v>0.000327534597</v>
       </c>
     </row>
     <row r="144">
@@ -4311,25 +4311,25 @@
         <v>2</v>
       </c>
       <c r="B144" t="str">
-        <v>https://snapwidget.com/js/embed.main.min.65b73ba9362828bd.js</v>
+        <v>https://www.google-analytics.com/analytics.js</v>
       </c>
       <c r="C144" t="str">
         <v>Script</v>
       </c>
       <c r="D144" t="str">
-        <v>application/javascript</v>
+        <v>text/javascript</v>
       </c>
       <c r="E144">
-        <v>1448</v>
+        <v>21344</v>
       </c>
       <c r="F144">
-        <v>3096</v>
+        <v>52310</v>
       </c>
       <c r="G144">
-        <v>0.00042109722399999997</v>
+        <v>0.006207112672</v>
       </c>
       <c r="H144">
-        <v>0.0005547018672000001</v>
+        <v>0.008176489401600002</v>
       </c>
     </row>
     <row r="145">
@@ -4337,25 +4337,25 @@
         <v>2</v>
       </c>
       <c r="B145" t="str">
-        <v>https://snapwidget.com/js/vendor/iframeResizer.contentWindow.min.0da4d54c7d115e53.js</v>
+        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAYAAAAfFcSJAAAAGXRFWHRTb2Z0d2FyZQBBZG9iZSBJb…</v>
       </c>
       <c r="C145" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D145" t="str">
-        <v>application/javascript</v>
+        <v>image/png</v>
       </c>
       <c r="E145">
-        <v>6516</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>21586</v>
+        <v>926</v>
       </c>
       <c r="G145">
-        <v>0.0018949375079999999</v>
+        <v>0</v>
       </c>
       <c r="H145">
-        <v>0.0024961584024000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -4363,7 +4363,7 @@
         <v>2</v>
       </c>
       <c r="B146" t="str">
-        <v>https://static.cloudflareinsights.com/beacon.min.js/vcd15cbe7772f49c399c6a5babf22c1241717689176015</v>
+        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/07c16d59554a729db34079442c91c27bb79e776ae9da8ea6eec5385cb6967383/envision/popper-7d0017b4b0eee8522ac7.js</v>
       </c>
       <c r="C146" t="str">
         <v>Script</v>
@@ -4372,16 +4372,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E146">
-        <v>7110</v>
+        <v>6812</v>
       </c>
       <c r="F146">
-        <v>19948</v>
+        <v>19517</v>
       </c>
       <c r="G146">
-        <v>0.0020676804299999997</v>
+        <v>0.001981018156</v>
       </c>
       <c r="H146">
-        <v>0.0027237087540000005</v>
+        <v>0.0026095504968</v>
       </c>
     </row>
     <row r="147">
@@ -4389,25 +4389,25 @@
         <v>2</v>
       </c>
       <c r="B147" t="str">
-        <v>https://www.google-analytics.com/analytics.js</v>
+        <v>https://www.jevnaker.kommune.no/appresource/2.638b2cc2196f633e47f3ad7c/12.638b2cc2196f633e47f41383/menuitems?svAjaxReqParam=ajax</v>
       </c>
       <c r="C147" t="str">
-        <v>Script</v>
+        <v>XHR</v>
       </c>
       <c r="D147" t="str">
-        <v>text/javascript</v>
+        <v>application/json</v>
       </c>
       <c r="E147">
-        <v>21344</v>
+        <v>501</v>
       </c>
       <c r="F147">
-        <v>52310</v>
+        <v>700</v>
       </c>
       <c r="G147">
-        <v>0.006207112672</v>
+        <v>0.000145697313</v>
       </c>
       <c r="H147">
-        <v>0.008176489401600002</v>
+        <v>0.0001919237814</v>
       </c>
     </row>
     <row r="148">
@@ -4415,25 +4415,25 @@
         <v>2</v>
       </c>
       <c r="B148" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAYAAAAfFcSJAAAAGXRFWHRTb2Z0d2FyZQBBZG9iZSBJb…</v>
+        <v>https://www.jevnaker.kommune.no/appresource/2.638b2cc2196f633e47f3ad7c/12.638b2cc2196f633e47f3edcd/menuitems?svAjaxReqParam=ajax</v>
       </c>
       <c r="C148" t="str">
-        <v>Image</v>
+        <v>XHR</v>
       </c>
       <c r="D148" t="str">
-        <v>image/png</v>
+        <v>application/json</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="F148">
-        <v>926</v>
+        <v>244</v>
       </c>
       <c r="G148">
-        <v>0</v>
+        <v>0.000128539346</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>0.0001693219788</v>
       </c>
     </row>
     <row r="149">
@@ -4450,16 +4450,16 @@
         <v>image/png</v>
       </c>
       <c r="E149">
-        <v>3161</v>
+        <v>3179</v>
       </c>
       <c r="F149">
         <v>2671</v>
       </c>
       <c r="G149">
-        <v>0.0009192598929999999</v>
+        <v>0.0009244945269999998</v>
       </c>
       <c r="H149">
-        <v>0.0012109203053999999</v>
+        <v>0.0012178157706</v>
       </c>
     </row>
     <row r="150">
@@ -4658,13 +4658,13 @@
         <v>text/plain</v>
       </c>
       <c r="E157">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="G157">
-        <v>0.00010382024099999999</v>
+        <v>0.00009858560699999999</v>
       </c>
       <c r="H157">
-        <v>0.0001367600598</v>
+        <v>0.00012986459460000003</v>
       </c>
     </row>
     <row r="158">
@@ -4721,7 +4721,7 @@
         <v>2</v>
       </c>
       <c r="B160" t="str">
-        <v>https://scontent.cdninstagram.com/v/t39.30808-6/559008362_1232017585620230_1261247343826860851_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=cfWpIiBpc6gQ7kNvwFJL_Xo&amp;_nc_oc=Adk4MnzNmTm9wAckw7t89J452M7KaH7fdncqlIeiI83sF85v2gGwXB1mE4KNBZqp09k&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=20p8J2-NsJApN0CT7-yyvQ&amp;oh=00_AfgHA2gWsgQzHtT9l8qdVwDq-7hcT_Kw98MomuOpjQ0h2Q&amp;oe=69184C58</v>
+        <v>https://scontent.cdninstagram.com/v/t39.30808-6/559008362_1232017585620230_1261247343826860851_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=T0D1_iRqtVIQ7kNvwF4oHnO&amp;_nc_oc=Adl3lrtsQ2G01wX5KMlcJRgi5U4dANnSq2oU7RVifCP-m7Gar4L4iH0jF_efHxkp5MU&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=Du_4ouqXXu6usKwpYY-C-A&amp;oh=00_AfjVPiw5hWW7NZIvCyfmvT77Npn05E3ySzFdGRrY9PPHfw&amp;oe=691D21D8</v>
       </c>
       <c r="C160" t="str">
         <v>Image</v>
@@ -4730,16 +4730,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E160">
-        <v>593240</v>
+        <v>593261</v>
       </c>
       <c r="F160">
         <v>592779</v>
       </c>
       <c r="G160">
-        <v>0.17252190411999999</v>
+        <v>0.17252801119299999</v>
       </c>
       <c r="H160">
-        <v>0.22725920973600003</v>
+        <v>0.22726725444540002</v>
       </c>
     </row>
     <row r="161">
@@ -4747,7 +4747,7 @@
         <v>2</v>
       </c>
       <c r="B161" t="str">
-        <v>https://scontent.cdninstagram.com/v/t39.30808-6/565329695_1238170471671608_6196745189101583773_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=Lhv4biFlpT8Q7kNvwH3Q-cU&amp;_nc_oc=AdlCmQkL-qEtINIv_WiA3ooseJpGE01d5M39DHrHAkBUkMJ5Q4Hwfpb1pC_dye75cCE&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=20p8J2-NsJApN0CT7-yyvQ&amp;oh=00_Afio9r9w8guVzCp5QgIfjGMcE3h-3JqucEn3ihklcSattw&amp;oe=69184EA1</v>
+        <v>https://scontent.cdninstagram.com/v/t39.30808-6/565329695_1238170471671608_6196745189101583773_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=mCsHf0__u5QQ7kNvwHDDwdV&amp;_nc_oc=Adl5jnijQXhDUOYkThc0-P-YoQCgR2u6O6ziQ3ax_9uh5_fXhje6Py_1OcbOp3ImhAY&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=Du_4ouqXXu6usKwpYY-C-A&amp;oh=00_AfiME4QAjV0DRLt6rpmFCvTxW4XkJs4ZPIaHpGSgzOBHUQ&amp;oe=691D2421</v>
       </c>
       <c r="C161" t="str">
         <v>Image</v>
@@ -4756,16 +4756,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E161">
-        <v>279045</v>
+        <v>279172</v>
       </c>
       <c r="F161">
         <v>278586</v>
       </c>
       <c r="G161">
-        <v>0.08114991358499998</v>
+        <v>0.08118684683599998</v>
       </c>
       <c r="H161">
-        <v>0.10689694926300002</v>
+        <v>0.1069456006008</v>
       </c>
     </row>
     <row r="162">
@@ -4773,7 +4773,7 @@
         <v>2</v>
       </c>
       <c r="B162" t="str">
-        <v>https://scontent.cdninstagram.com/v/t51.82787-15/571469270_18537882733035841_487393053145516240_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=8p-l-qPhE4YQ7kNvwHBN29m&amp;_nc_oc=AdmgLxnFU1syt_d6TZ7Nq2KobxuiDbHE-hI1HlLyphuzTsabZA_QITCPnJrPGeIp1n0&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=20p8J2-NsJApN0CT7-yyvQ&amp;oh=00_AfjG3GMTKmgUYZHPerFAGwzFVUbMEDkkZKXnPtLwn-5e9w&amp;oe=69184422</v>
+        <v>https://scontent.cdninstagram.com/v/t51.82787-15/571469270_18537882733035841_487393053145516240_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=jKmZ-LZ475YQ7kNvwFOnfQ4&amp;_nc_oc=Adms9KUcc-zLk8787wjf5dmgKK6omwuCLmFFgIy1da02KFozoF9chuR-VnJexisug-0&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=Du_4ouqXXu6usKwpYY-C-A&amp;oh=00_AfhVV9GEnzvUFa-kYHw7e8_tDW9YD-1AwZI-e9N4_phxCw&amp;oe=691D19A2</v>
       </c>
       <c r="C162" t="str">
         <v>Image</v>
@@ -4782,16 +4782,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E162">
-        <v>67612</v>
+        <v>67736</v>
       </c>
       <c r="F162">
         <v>67549</v>
       </c>
       <c r="G162">
-        <v>0.019662448555999995</v>
+        <v>0.019698509367999998</v>
       </c>
       <c r="H162">
-        <v>0.0259008996168</v>
+        <v>0.025948401710400002</v>
       </c>
     </row>
     <row r="163">
@@ -4799,7 +4799,7 @@
         <v>2</v>
       </c>
       <c r="B163" t="str">
-        <v>https://scontent.cdninstagram.com/v/t39.30808-6/571218357_1246549530833702_3884028946526260024_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=q5CzZT8221UQ7kNvwF6hsCW&amp;_nc_oc=Adk35Q77RNWOhCAREtggeEo9ASWWp_ejtvgSl7U9nrUY7KEwv0jfG8Wm4qpEXPmigKs&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=20p8J2-NsJApN0CT7-yyvQ&amp;oh=00_AfgKfnrf0aTRe1Qgw2JdWa8LnERG7Tpaui_uZNOg7jaMZg&amp;oe=691821B2</v>
+        <v>https://scontent.cdninstagram.com/v/t39.30808-6/571218357_1246549530833702_3884028946526260024_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=DLNlow1VftYQ7kNvwFAbQ96&amp;_nc_oc=AdlmPlorzlb0nITCmKatpVRKu9tTdZctFTt5--kMouEJJPsUT3oKYoQx2GrS99eBASI&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=Du_4ouqXXu6usKwpYY-C-A&amp;oh=00_Afg0XUXoU2fR-_CHo4cZH-fpkUuJIUesy8O4qJ228zoo7w&amp;oe=691D2F72</v>
       </c>
       <c r="C163" t="str">
         <v>Image</v>
@@ -4808,16 +4808,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E163">
-        <v>316005</v>
+        <v>316283</v>
       </c>
       <c r="F163">
         <v>315697</v>
       </c>
       <c r="G163">
-        <v>0.09189836206499999</v>
+        <v>0.09197920807899998</v>
       </c>
       <c r="H163">
-        <v>0.12105563780700002</v>
+        <v>0.1211621344362</v>
       </c>
     </row>
     <row r="164">
@@ -4825,7 +4825,7 @@
         <v>2</v>
       </c>
       <c r="B164" t="str">
-        <v>https://scontent.cdninstagram.com/v/t39.30808-6/571331711_1248201744001814_1853178542471537521_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=VkSoUGY-LiQQ7kNvwE-WKAc&amp;_nc_oc=Adl2rq7DPkgQXhJ7MV6llGJNmE79jhMxueS6JkEkCkgVeHYwgWcNJ4irOblGqlw_6nE&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=20p8J2-NsJApN0CT7-yyvQ&amp;oh=00_AfgyHUK3IINnQ13deJ6r5gPyf1WBIfJicZ_9p1zKOX68JA&amp;oe=691830FB</v>
+        <v>https://scontent.cdninstagram.com/v/t39.30808-6/571331711_1248201744001814_1853178542471537521_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=5iOa_E6a8nIQ7kNvwGtdvzH&amp;_nc_oc=AdkbSjKyfOGu7XGbyCjmzhxXJGmX214i-aoyygRoaKMNU3DuUFj0K2sFE6K2EnVeyCU&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=Du_4ouqXXu6usKwpYY-C-A&amp;oh=00_AfhelwFi4gdUnXnrP0TNiGTNg-LQ88JXhZTYbFle-3y3bg&amp;oe=691D3EBB</v>
       </c>
       <c r="C164" t="str">
         <v>Image</v>
@@ -4851,7 +4851,7 @@
         <v>2</v>
       </c>
       <c r="B165" t="str">
-        <v>https://scontent.cdninstagram.com/v/t51.82787-15/572121945_18540931042035841_893827279987965030_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=7295ilXScTIQ7kNvwF8GLLd&amp;_nc_oc=Adl_DTFHS3RU6h633zxkbI6xCD_ae1Owq0K5OQvS0FUPyiEeCV30xvscTtODU4VpQYM&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=20p8J2-NsJApN0CT7-yyvQ&amp;oh=00_Afj52rncgcH9XDdhQa6jcK9JQYDilX1ZIiGlFgSw_fKvFg&amp;oe=6918209E</v>
+        <v>https://scontent.cdninstagram.com/v/t51.82787-15/572121945_18540931042035841_893827279987965030_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=dxrYgVTpDi4Q7kNvwGohUYC&amp;_nc_oc=Adkgmpt-BQfNq8MO-gDukMpA1BQ4-EMQ25g1U8al2odGf0vSM1Biz0CCeKQkHJ4OB3I&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=Du_4ouqXXu6usKwpYY-C-A&amp;oh=00_Afic0DVprSOCiQBt9Zn_DPzjHfGplGmezj6LV1Pn7wxcUA&amp;oe=691D2E5E</v>
       </c>
       <c r="C165" t="str">
         <v>Image</v>
@@ -4860,16 +4860,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E165">
-        <v>235938</v>
+        <v>236319</v>
       </c>
       <c r="F165">
         <v>235862</v>
       </c>
       <c r="G165">
-        <v>0.068613837594</v>
+        <v>0.06872463734699999</v>
       </c>
       <c r="H165">
-        <v>0.09038345935320001</v>
+        <v>0.0905294133666</v>
       </c>
     </row>
     <row r="166">
@@ -4886,16 +4886,16 @@
         <v>text/html</v>
       </c>
       <c r="E166">
-        <v>17033</v>
+        <v>16704</v>
       </c>
       <c r="F166">
-        <v>88229</v>
+        <v>87206</v>
       </c>
       <c r="G166">
-        <v>0.004953417829</v>
+        <v>0.004857740351999999</v>
       </c>
       <c r="H166">
-        <v>0.006525025486200001</v>
+        <v>0.006398991705600001</v>
       </c>
     </row>
     <row r="167">
@@ -4903,7 +4903,7 @@
         <v>3</v>
       </c>
       <c r="B167" t="str">
-        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/1761193676945/sitevision-responsive-grids.css?gridConfigs=651.638b2cc2196f633e47f3ae1a_FLUID_GRID&amp;pushPull=false</v>
+        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/1763011793025/sitevision-responsive-grids.css?gridConfigs=651.638b2cc2196f633e47f3ae1a_FLUID_GRID&amp;pushPull=false</v>
       </c>
       <c r="C167" t="str">
         <v>Stylesheet</v>
@@ -4929,7 +4929,7 @@
         <v>3</v>
       </c>
       <c r="B168" t="str">
-        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/649/4459/print/SiteVision.css</v>
+        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/109/6824/print/SiteVision.css</v>
       </c>
       <c r="C168" t="str">
         <v>Stylesheet</v>
@@ -4938,16 +4938,16 @@
         <v>text/css</v>
       </c>
       <c r="E168">
-        <v>6003</v>
+        <v>5991</v>
       </c>
       <c r="F168">
-        <v>69206</v>
+        <v>69205</v>
       </c>
       <c r="G168">
-        <v>0.0017457504389999997</v>
+        <v>0.001742260683</v>
       </c>
       <c r="H168">
-        <v>0.0022996376442000004</v>
+        <v>0.0022950406674</v>
       </c>
     </row>
     <row r="169">
@@ -4955,7 +4955,7 @@
         <v>3</v>
       </c>
       <c r="B169" t="str">
-        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/faf8e723c75273654ef4ca21f2f98d57be2edb6ad7423f62726de84051a3b8e0/css/portlets.css</v>
+        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/07c16d59554a729db34079442c91c27bb79e776ae9da8ea6eec5385cb6967383/css/portlets.css</v>
       </c>
       <c r="C169" t="str">
         <v>Stylesheet</v>
@@ -4964,16 +4964,16 @@
         <v>text/css</v>
       </c>
       <c r="E169">
-        <v>7023</v>
+        <v>7236</v>
       </c>
       <c r="F169">
-        <v>40322</v>
+        <v>42372</v>
       </c>
       <c r="G169">
-        <v>0.0020423796989999994</v>
+        <v>0.0021043228679999996</v>
       </c>
       <c r="H169">
-        <v>0.0026903806722</v>
+        <v>0.0027719770104000004</v>
       </c>
     </row>
     <row r="170">
@@ -4981,7 +4981,7 @@
         <v>3</v>
       </c>
       <c r="B170" t="str">
-        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/faf8e723c75273654ef4ca21f2f98d57be2edb6ad7423f62726de84051a3b8e0/envision/envision.css</v>
+        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/07c16d59554a729db34079442c91c27bb79e776ae9da8ea6eec5385cb6967383/envision/envision.css</v>
       </c>
       <c r="C170" t="str">
         <v>Stylesheet</v>
@@ -4990,16 +4990,16 @@
         <v>text/css</v>
       </c>
       <c r="E170">
-        <v>22078</v>
+        <v>22101</v>
       </c>
       <c r="F170">
-        <v>255322</v>
+        <v>255462</v>
       </c>
       <c r="G170">
-        <v>0.006420569413999999</v>
+        <v>0.006427258112999999</v>
       </c>
       <c r="H170">
-        <v>0.0084576711492</v>
+        <v>0.0084664820214</v>
       </c>
     </row>
     <row r="171">
@@ -5007,7 +5007,7 @@
         <v>3</v>
       </c>
       <c r="B171" t="str">
-        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/91.638b2cc2196f633e47f3b486/1761193868254/0/sv-template-asset.css</v>
+        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/91.638b2cc2196f633e47f3b486/1763012010965/0/sv-template-asset.css</v>
       </c>
       <c r="C171" t="str">
         <v>Stylesheet</v>
@@ -5033,7 +5033,7 @@
         <v>3</v>
       </c>
       <c r="B172" t="str">
-        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/1761193868058/sitevision-spacing.css</v>
+        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/1763012010760/sitevision-spacing.css</v>
       </c>
       <c r="C172" t="str">
         <v>Stylesheet</v>
@@ -5215,7 +5215,7 @@
         <v>3</v>
       </c>
       <c r="B179" t="str">
-        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/faf8e723c75273654ef4ca21f2f98d57be2edb6ad7423f62726de84051a3b8e0/js/jquery.js</v>
+        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/07c16d59554a729db34079442c91c27bb79e776ae9da8ea6eec5385cb6967383/js/jquery.js</v>
       </c>
       <c r="C179" t="str">
         <v>Script</v>
@@ -5241,7 +5241,7 @@
         <v>3</v>
       </c>
       <c r="B180" t="str">
-        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/faf8e723c75273654ef4ca21f2f98d57be2edb6ad7423f62726de84051a3b8e0/envision/envision.js</v>
+        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/07c16d59554a729db34079442c91c27bb79e776ae9da8ea6eec5385cb6967383/envision/envision.js</v>
       </c>
       <c r="C180" t="str">
         <v>Script</v>
@@ -5250,16 +5250,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E180">
-        <v>17895</v>
+        <v>17837</v>
       </c>
       <c r="F180">
-        <v>71690</v>
+        <v>71762</v>
       </c>
       <c r="G180">
-        <v>0.0052040986349999995</v>
+        <v>0.005187231480999999</v>
       </c>
       <c r="H180">
-        <v>0.006855241653</v>
+        <v>0.006833022931799999</v>
       </c>
     </row>
     <row r="181">
@@ -5267,7 +5267,7 @@
         <v>3</v>
       </c>
       <c r="B181" t="str">
-        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/faf8e723c75273654ef4ca21f2f98d57be2edb6ad7423f62726de84051a3b8e0/js/utils.js</v>
+        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/07c16d59554a729db34079442c91c27bb79e776ae9da8ea6eec5385cb6967383/js/utils.js</v>
       </c>
       <c r="C181" t="str">
         <v>Script</v>
@@ -5276,16 +5276,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E181">
-        <v>18832</v>
+        <v>18673</v>
       </c>
       <c r="F181">
-        <v>58222</v>
+        <v>58086</v>
       </c>
       <c r="G181">
-        <v>0.005476590415999999</v>
+        <v>0.005430351149</v>
       </c>
       <c r="H181">
-        <v>0.0072141889247999995</v>
+        <v>0.007153278982200001</v>
       </c>
     </row>
     <row r="182">
@@ -5293,7 +5293,7 @@
         <v>3</v>
       </c>
       <c r="B182" t="str">
-        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/faf8e723c75273654ef4ca21f2f98d57be2edb6ad7423f62726de84051a3b8e0/js/portlets.js</v>
+        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/07c16d59554a729db34079442c91c27bb79e776ae9da8ea6eec5385cb6967383/js/portlets.js</v>
       </c>
       <c r="C182" t="str">
         <v>Script</v>
@@ -5302,16 +5302,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E182">
-        <v>39317</v>
+        <v>38892</v>
       </c>
       <c r="F182">
-        <v>152113</v>
+        <v>149358</v>
       </c>
       <c r="G182">
-        <v>0.011433894720999998</v>
+        <v>0.011310299195999999</v>
       </c>
       <c r="H182">
-        <v>0.015061611403800003</v>
+        <v>0.014898801808799999</v>
       </c>
     </row>
     <row r="183">
@@ -5371,7 +5371,7 @@
         <v>3</v>
       </c>
       <c r="B185" t="str">
-        <v>https://www.jevnaker.kommune.no/images/200.6a10803c19993a6f9311d8c/1759385980205/vaksine.jpg</v>
+        <v>https://www.jevnaker.kommune.no/images/200.6603e25119a7bb1072fb31/1763133364725/iStock-1442909729.jpg</v>
       </c>
       <c r="C185" t="str">
         <v>Image</v>
@@ -5380,16 +5380,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E185">
-        <v>60778</v>
+        <v>34687</v>
       </c>
       <c r="F185">
-        <v>60489</v>
+        <v>34398</v>
       </c>
       <c r="G185">
-        <v>0.017675032514</v>
+        <v>0.010087430530999997</v>
       </c>
       <c r="H185">
-        <v>0.0232829213292</v>
+        <v>0.013287944521800002</v>
       </c>
     </row>
     <row r="186">
@@ -5397,7 +5397,7 @@
         <v>3</v>
       </c>
       <c r="B186" t="str">
-        <v>https://www.jevnaker.kommune.no/images/200.4ff8dba919a0f52c855ffc1/1762634603578/Svar_for_bestemor.jpg</v>
+        <v>https://www.jevnaker.kommune.no/images/200.7468bd14197a1fc3af868ae/1752152172212/ulfsnes-red.jpg</v>
       </c>
       <c r="C186" t="str">
         <v>Image</v>
@@ -5406,16 +5406,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E186">
-        <v>60347</v>
+        <v>40938</v>
       </c>
       <c r="F186">
-        <v>60058</v>
+        <v>40649</v>
       </c>
       <c r="G186">
-        <v>0.017549692110999996</v>
+        <v>0.011905302593999998</v>
       </c>
       <c r="H186">
-        <v>0.0231178132458</v>
+        <v>0.015682586353200002</v>
       </c>
     </row>
     <row r="187">
@@ -5423,25 +5423,25 @@
         <v>3</v>
       </c>
       <c r="B187" t="str">
-        <v>https://www.jevnaker.kommune.no/images/200.5aa488e919a0f60ef5ddf94/1762632797943/bibli-front.png</v>
+        <v>https://www.jevnaker.kommune.no/images/200.6a10803c19993a6f9311d8c/1759385980205/vaksine.jpg</v>
       </c>
       <c r="C187" t="str">
         <v>Image</v>
       </c>
       <c r="D187" t="str">
-        <v>image/png</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E187">
-        <v>148683</v>
+        <v>60778</v>
       </c>
       <c r="F187">
-        <v>148394</v>
+        <v>60489</v>
       </c>
       <c r="G187">
-        <v>0.043238949278999995</v>
+        <v>0.017675032514</v>
       </c>
       <c r="H187">
-        <v>0.05695769179620001</v>
+        <v>0.0232829213292</v>
       </c>
     </row>
     <row r="188">
@@ -5449,7 +5449,7 @@
         <v>3</v>
       </c>
       <c r="B188" t="str">
-        <v>https://www.jevnaker.kommune.no/images/200.91e7b3719a0f44bb6cce6b/1762247581830/(2)%2006%20kopi-forside.jpg</v>
+        <v>https://www.jevnaker.kommune.no/images/200.4ff8dba919a0f52c855ffc1/1762634603578/Svar_for_bestemor.jpg</v>
       </c>
       <c r="C188" t="str">
         <v>Image</v>
@@ -5458,16 +5458,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E188">
-        <v>73137</v>
+        <v>60347</v>
       </c>
       <c r="F188">
-        <v>72848</v>
+        <v>60058</v>
       </c>
       <c r="G188">
-        <v>0.021269190381</v>
+        <v>0.017549692110999996</v>
       </c>
       <c r="H188">
-        <v>0.028017424351800005</v>
+        <v>0.0231178132458</v>
       </c>
     </row>
     <row r="189">
@@ -5475,25 +5475,25 @@
         <v>3</v>
       </c>
       <c r="B189" t="str">
-        <v>https://www.jevnaker.kommune.no/images/200.5aa488e919a0f60ef5db4d4/1762164629493/pexels-karola-g-4964485.jpg</v>
+        <v>https://www.jevnaker.kommune.no/images/200.5aa488e919a0f60ef5ddf94/1762632797943/bibli-front.png</v>
       </c>
       <c r="C189" t="str">
         <v>Image</v>
       </c>
       <c r="D189" t="str">
-        <v>image/jpeg</v>
+        <v>image/png</v>
       </c>
       <c r="E189">
-        <v>24673</v>
+        <v>148683</v>
       </c>
       <c r="F189">
-        <v>24384</v>
+        <v>148394</v>
       </c>
       <c r="G189">
-        <v>0.007175229148999999</v>
+        <v>0.043238949278999995</v>
       </c>
       <c r="H189">
-        <v>0.0094517673822</v>
+        <v>0.05695769179620001</v>
       </c>
     </row>
     <row r="190">
@@ -5501,7 +5501,7 @@
         <v>3</v>
       </c>
       <c r="B190" t="str">
-        <v>https://www.jevnaker.kommune.no/images/200.f48e3b519a0f6dc2c3c836/1762155773605/heidiellingsen.jpg</v>
+        <v>https://www.jevnaker.kommune.no/images/200.91e7b3719a0f44bb6cce6b/1762247581830/(2)%2006%20kopi-forside.jpg</v>
       </c>
       <c r="C190" t="str">
         <v>Image</v>
@@ -5510,16 +5510,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E190">
-        <v>59349</v>
+        <v>73137</v>
       </c>
       <c r="F190">
-        <v>59060</v>
+        <v>72848</v>
       </c>
       <c r="G190">
-        <v>0.017259460736999997</v>
+        <v>0.021269190381</v>
       </c>
       <c r="H190">
-        <v>0.022735498008600002</v>
+        <v>0.028017424351800005</v>
       </c>
     </row>
     <row r="191">
@@ -5744,16 +5744,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E199">
-        <v>7215</v>
+        <v>7212</v>
       </c>
       <c r="F199">
         <v>22031</v>
       </c>
       <c r="G199">
-        <v>0.0020982157949999995</v>
+        <v>0.0020973433559999997</v>
       </c>
       <c r="H199">
-        <v>0.0027639323010000003</v>
+        <v>0.0027627830568</v>
       </c>
     </row>
     <row r="200">
@@ -5865,7 +5865,7 @@
         <v>3</v>
       </c>
       <c r="B204" t="str">
-        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/91.638b2cc2196f633e47f3b486/1761193868258/BODY/0/sv-template-asset.js</v>
+        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/91.638b2cc2196f633e47f3b486/1763012010971/BODY/0/sv-template-asset.js</v>
       </c>
       <c r="C204" t="str">
         <v>Script</v>
@@ -5891,7 +5891,7 @@
         <v>3</v>
       </c>
       <c r="B205" t="str">
-        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/faf8e723c75273654ef4ca21f2f98d57be2edb6ad7423f62726de84051a3b8e0/js/webAppExternals/react_18_3.js</v>
+        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/07c16d59554a729db34079442c91c27bb79e776ae9da8ea6eec5385cb6967383/js/webAppExternals/react_18_3.js</v>
       </c>
       <c r="C205" t="str">
         <v>Script</v>
@@ -6021,7 +6021,7 @@
         <v>3</v>
       </c>
       <c r="B210" t="str">
-        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/faf8e723c75273654ef4ca21f2f98d57be2edb6ad7423f62726de84051a3b8e0/webapps/webapp_sdk-legacy.js</v>
+        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/07c16d59554a729db34079442c91c27bb79e776ae9da8ea6eec5385cb6967383/webapps/webapp_sdk-legacy.js</v>
       </c>
       <c r="C210" t="str">
         <v>Script</v>
@@ -6073,25 +6073,25 @@
         <v>3</v>
       </c>
       <c r="B212" t="str">
-        <v>https://www.jevnaker.kommune.no/download/18.638b2cc2196f633e47f3e21e/1714030591045/open-sans-v40-latin-regular.woff2</v>
+        <v>https://snapwidget.com/embed/1011816</v>
       </c>
       <c r="C212" t="str">
-        <v>Font</v>
+        <v>Document</v>
       </c>
       <c r="D212" t="str">
-        <v>font/woff2</v>
+        <v>text/html</v>
       </c>
       <c r="E212">
-        <v>18957</v>
+        <v>8725</v>
       </c>
       <c r="F212">
-        <v>18668</v>
+        <v>41338</v>
       </c>
       <c r="G212">
-        <v>0.005512942040999999</v>
+        <v>0.0025373434249999997</v>
       </c>
       <c r="H212">
-        <v>0.007262074099800002</v>
+        <v>0.0033423852150000002</v>
       </c>
     </row>
     <row r="213">
@@ -6099,25 +6099,25 @@
         <v>3</v>
       </c>
       <c r="B213" t="str">
-        <v>https://www.jevnaker.kommune.no/download/18.638b2cc2196f633e47f3e161/1714030633316/open-sans-v40-latin-700.woff2</v>
+        <v>https://www.jevnaker.kommune.no/sitevision/link-icons.svg</v>
       </c>
       <c r="C213" t="str">
-        <v>Font</v>
+        <v>Other</v>
       </c>
       <c r="D213" t="str">
-        <v>font/woff2</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E213">
-        <v>18549</v>
+        <v>1371</v>
       </c>
       <c r="F213">
-        <v>18260</v>
+        <v>2603</v>
       </c>
       <c r="G213">
-        <v>0.0053942903369999995</v>
+        <v>0.000398704623</v>
       </c>
       <c r="H213">
-        <v>0.007105776888600002</v>
+        <v>0.0005252045994</v>
       </c>
     </row>
     <row r="214">
@@ -6125,7 +6125,7 @@
         <v>3</v>
       </c>
       <c r="B214" t="str">
-        <v>https://www.jevnaker.kommune.no/download/18.638b2cc2196f633e47f3e15d/1714030625431/open-sans-v40-latin-600.woff2</v>
+        <v>https://www.jevnaker.kommune.no/download/18.638b2cc2196f633e47f3e21e/1714030591045/open-sans-v40-latin-regular.woff2</v>
       </c>
       <c r="C214" t="str">
         <v>Font</v>
@@ -6134,16 +6134,16 @@
         <v>font/woff2</v>
       </c>
       <c r="E214">
-        <v>18885</v>
+        <v>18957</v>
       </c>
       <c r="F214">
-        <v>18596</v>
+        <v>18668</v>
       </c>
       <c r="G214">
-        <v>0.005492003505</v>
+        <v>0.005512942040999999</v>
       </c>
       <c r="H214">
-        <v>0.007234492238999999</v>
+        <v>0.007262074099800002</v>
       </c>
     </row>
     <row r="215">
@@ -6151,25 +6151,25 @@
         <v>3</v>
       </c>
       <c r="B215" t="str">
-        <v>https://snapwidget.com/embed/1011816</v>
+        <v>https://www.jevnaker.kommune.no/download/18.638b2cc2196f633e47f3e161/1714030633316/open-sans-v40-latin-700.woff2</v>
       </c>
       <c r="C215" t="str">
-        <v>Document</v>
+        <v>Font</v>
       </c>
       <c r="D215" t="str">
-        <v>text/html</v>
+        <v>font/woff2</v>
       </c>
       <c r="E215">
-        <v>8727</v>
+        <v>18549</v>
       </c>
       <c r="F215">
-        <v>41338</v>
+        <v>18260</v>
       </c>
       <c r="G215">
-        <v>0.0025379250509999997</v>
+        <v>0.0053942903369999995</v>
       </c>
       <c r="H215">
-        <v>0.0033431513778</v>
+        <v>0.007105776888600002</v>
       </c>
     </row>
     <row r="216">
@@ -6177,25 +6177,25 @@
         <v>3</v>
       </c>
       <c r="B216" t="str">
-        <v>https://www.jevnaker.kommune.no/sitevision/link-icons.svg</v>
+        <v>https://www.jevnaker.kommune.no/download/18.638b2cc2196f633e47f3e15d/1714030625431/open-sans-v40-latin-600.woff2</v>
       </c>
       <c r="C216" t="str">
-        <v>Other</v>
+        <v>Font</v>
       </c>
       <c r="D216" t="str">
-        <v>image/svg+xml</v>
+        <v>font/woff2</v>
       </c>
       <c r="E216">
-        <v>1371</v>
+        <v>18885</v>
       </c>
       <c r="F216">
-        <v>2603</v>
+        <v>18596</v>
       </c>
       <c r="G216">
-        <v>0.000398704623</v>
+        <v>0.005492003505</v>
       </c>
       <c r="H216">
-        <v>0.0005252045994</v>
+        <v>0.007234492238999999</v>
       </c>
     </row>
     <row r="217">
@@ -6281,7 +6281,7 @@
         <v>3</v>
       </c>
       <c r="B220" t="str">
-        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/faf8e723c75273654ef4ca21f2f98d57be2edb6ad7423f62726de84051a3b8e0/envision/popper-1c40e6672ac9d88ded8c.js</v>
+        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/07c16d59554a729db34079442c91c27bb79e776ae9da8ea6eec5385cb6967383/envision/popper-7d0017b4b0eee8522ac7.js</v>
       </c>
       <c r="C220" t="str">
         <v>Script</v>
@@ -6290,16 +6290,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E220">
-        <v>6837</v>
+        <v>6812</v>
       </c>
       <c r="F220">
-        <v>19616</v>
+        <v>19517</v>
       </c>
       <c r="G220">
-        <v>0.0019882884809999998</v>
+        <v>0.001981018156</v>
       </c>
       <c r="H220">
-        <v>0.0026191275318</v>
+        <v>0.0026095504968</v>
       </c>
     </row>
     <row r="221">
@@ -6307,25 +6307,25 @@
         <v>3</v>
       </c>
       <c r="B221" t="str">
-        <v>https://snapwidget.com/stylesheets/embed.vendor.min.760717b3f565c387.css</v>
+        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cd3/1759239074973/Avatar-Mine-Worker-Man--Streamline-Ultimate.svg</v>
       </c>
       <c r="C221" t="str">
-        <v>Stylesheet</v>
+        <v>Image</v>
       </c>
       <c r="D221" t="str">
-        <v>text/css</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E221">
-        <v>1029</v>
+        <v>2163</v>
       </c>
       <c r="F221">
-        <v>2359</v>
+        <v>1872</v>
       </c>
       <c r="G221">
-        <v>0.000299246577</v>
+        <v>0.0006290285189999999</v>
       </c>
       <c r="H221">
-        <v>0.0003941907606000001</v>
+        <v>0.0008286050682000001</v>
       </c>
     </row>
     <row r="222">
@@ -6333,25 +6333,25 @@
         <v>3</v>
       </c>
       <c r="B222" t="str">
-        <v>https://snapwidget.com/stylesheets/embed.style.min.33d8714986a48d7b.css</v>
+        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47ce2/1759239075181/Tool-Box--Streamline-Ultimate.svg</v>
       </c>
       <c r="C222" t="str">
-        <v>Stylesheet</v>
+        <v>Image</v>
       </c>
       <c r="D222" t="str">
-        <v>text/css</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E222">
-        <v>3988</v>
+        <v>1381</v>
       </c>
       <c r="F222">
-        <v>16311</v>
+        <v>1090</v>
       </c>
       <c r="G222">
-        <v>0.0011597622439999998</v>
+        <v>0.00040161275299999995</v>
       </c>
       <c r="H222">
-        <v>0.0015277286232</v>
+        <v>0.0005290354134000001</v>
       </c>
     </row>
     <row r="223">
@@ -6359,25 +6359,25 @@
         <v>3</v>
       </c>
       <c r="B223" t="str">
-        <v>https://snapwidget.com/stylesheets/embed.grid.min.0d105dc3e2d4e747.css</v>
+        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cdd/1759239075111/Safety-Fire-Extinguisher--Streamline-Ultimate.svg</v>
       </c>
       <c r="C223" t="str">
-        <v>Stylesheet</v>
+        <v>Image</v>
       </c>
       <c r="D223" t="str">
-        <v>text/css</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E223">
-        <v>1193</v>
+        <v>1433</v>
       </c>
       <c r="F223">
-        <v>2769</v>
+        <v>1142</v>
       </c>
       <c r="G223">
-        <v>0.000346939909</v>
+        <v>0.00041673502899999994</v>
       </c>
       <c r="H223">
-        <v>0.00045701611020000003</v>
+        <v>0.0005489556462000001</v>
       </c>
     </row>
     <row r="224">
@@ -6385,25 +6385,25 @@
         <v>3</v>
       </c>
       <c r="B224" t="str">
-        <v>https://www.googletagmanager.com/gtag/js?id=G-E8WQDE3S74</v>
+        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47ce5/1759239075222/Water-Protection-Faucet--Streamline-Ultimate.svg</v>
       </c>
       <c r="C224" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D224" t="str">
-        <v>application/javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E224">
-        <v>146253</v>
+        <v>1941</v>
       </c>
       <c r="F224">
-        <v>428746</v>
+        <v>1650</v>
       </c>
       <c r="G224">
-        <v>0.04253227368899999</v>
+        <v>0.000564468033</v>
       </c>
       <c r="H224">
-        <v>0.05602680399420001</v>
+        <v>0.0007435609974</v>
       </c>
     </row>
     <row r="225">
@@ -6411,25 +6411,25 @@
         <v>3</v>
       </c>
       <c r="B225" t="str">
-        <v>https://snapwidget.com/js/embed.vendor.min.2f17f0b14ee46c5a.js</v>
+        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cd6/1759239075018/Greek-God-Atlas--Streamline-Ultimate.svg</v>
       </c>
       <c r="C225" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D225" t="str">
-        <v>application/javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E225">
-        <v>1472</v>
+        <v>1186</v>
       </c>
       <c r="F225">
-        <v>2529</v>
+        <v>2424</v>
       </c>
       <c r="G225">
-        <v>0.00042807673599999993</v>
+        <v>0.00034490421799999993</v>
       </c>
       <c r="H225">
-        <v>0.0005638958208</v>
+        <v>0.00045433454039999995</v>
       </c>
     </row>
     <row r="226">
@@ -6437,25 +6437,25 @@
         <v>3</v>
       </c>
       <c r="B226" t="str">
-        <v>https://snapwidget.com/js/embed.main.min.65b73ba9362828bd.js</v>
+        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47ce6/1759239075234/Wheelchair-Helper--Streamline-Ultimate.svg</v>
       </c>
       <c r="C226" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D226" t="str">
-        <v>application/javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E226">
-        <v>1425</v>
+        <v>1754</v>
       </c>
       <c r="F226">
-        <v>3096</v>
+        <v>4084</v>
       </c>
       <c r="G226">
-        <v>0.00041440852499999997</v>
+        <v>0.0005100860019999999</v>
       </c>
       <c r="H226">
-        <v>0.000545890995</v>
+        <v>0.0006719247756</v>
       </c>
     </row>
     <row r="227">
@@ -6463,25 +6463,25 @@
         <v>3</v>
       </c>
       <c r="B227" t="str">
-        <v>https://snapwidget.com/js/vendor/iframeResizer.contentWindow.min.0da4d54c7d115e53.js</v>
+        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cd8/1759239075046/House-Home-Building-1--Streamline-Ultimate.svg</v>
       </c>
       <c r="C227" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D227" t="str">
-        <v>application/javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E227">
-        <v>6519</v>
+        <v>1369</v>
       </c>
       <c r="F227">
-        <v>21586</v>
+        <v>1078</v>
       </c>
       <c r="G227">
-        <v>0.001895809947</v>
+        <v>0.00039812299699999997</v>
       </c>
       <c r="H227">
-        <v>0.0024973076466000004</v>
+        <v>0.0005244384366</v>
       </c>
     </row>
     <row r="228">
@@ -6489,25 +6489,25 @@
         <v>3</v>
       </c>
       <c r="B228" t="str">
-        <v>https://static.cloudflareinsights.com/beacon.min.js/vcd15cbe7772f49c399c6a5babf22c1241717689176015</v>
+        <v>https://snapwidget.com/stylesheets/embed.vendor.min.760717b3f565c387.css</v>
       </c>
       <c r="C228" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D228" t="str">
-        <v>text/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E228">
-        <v>7096</v>
+        <v>1003</v>
       </c>
       <c r="F228">
-        <v>19948</v>
+        <v>2359</v>
       </c>
       <c r="G228">
-        <v>0.002063609048</v>
+        <v>0.00029168543899999995</v>
       </c>
       <c r="H228">
-        <v>0.002718345614400001</v>
+        <v>0.00038423064420000004</v>
       </c>
     </row>
     <row r="229">
@@ -6515,25 +6515,25 @@
         <v>3</v>
       </c>
       <c r="B229" t="str">
-        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cd3/1759239074973/Avatar-Mine-Worker-Man--Streamline-Ultimate.svg</v>
+        <v>https://snapwidget.com/stylesheets/embed.style.min.33d8714986a48d7b.css</v>
       </c>
       <c r="C229" t="str">
-        <v>Image</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D229" t="str">
-        <v>image/svg+xml</v>
+        <v>text/css</v>
       </c>
       <c r="E229">
-        <v>2163</v>
+        <v>3982</v>
       </c>
       <c r="F229">
-        <v>1872</v>
+        <v>16311</v>
       </c>
       <c r="G229">
-        <v>0.0006290285189999999</v>
+        <v>0.0011580173659999997</v>
       </c>
       <c r="H229">
-        <v>0.0008286050682000001</v>
+        <v>0.0015254301348000003</v>
       </c>
     </row>
     <row r="230">
@@ -6541,25 +6541,25 @@
         <v>3</v>
       </c>
       <c r="B230" t="str">
-        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47ce2/1759239075181/Tool-Box--Streamline-Ultimate.svg</v>
+        <v>https://snapwidget.com/stylesheets/embed.grid.min.0d105dc3e2d4e747.css</v>
       </c>
       <c r="C230" t="str">
-        <v>Image</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D230" t="str">
-        <v>image/svg+xml</v>
+        <v>text/css</v>
       </c>
       <c r="E230">
-        <v>1381</v>
+        <v>1214</v>
       </c>
       <c r="F230">
-        <v>1090</v>
+        <v>2769</v>
       </c>
       <c r="G230">
-        <v>0.00040161275299999995</v>
+        <v>0.00035304698199999996</v>
       </c>
       <c r="H230">
-        <v>0.0005290354134000001</v>
+        <v>0.0004650608196</v>
       </c>
     </row>
     <row r="231">
@@ -6567,25 +6567,25 @@
         <v>3</v>
       </c>
       <c r="B231" t="str">
-        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cdd/1759239075111/Safety-Fire-Extinguisher--Streamline-Ultimate.svg</v>
+        <v>https://www.googletagmanager.com/gtag/js?id=G-E8WQDE3S74</v>
       </c>
       <c r="C231" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D231" t="str">
-        <v>image/svg+xml</v>
+        <v>application/javascript</v>
       </c>
       <c r="E231">
-        <v>1433</v>
+        <v>146017</v>
       </c>
       <c r="F231">
-        <v>1142</v>
+        <v>428241</v>
       </c>
       <c r="G231">
-        <v>0.00041673502899999994</v>
+        <v>0.042463641820999994</v>
       </c>
       <c r="H231">
-        <v>0.0005489556462000001</v>
+        <v>0.055936396783799996</v>
       </c>
     </row>
     <row r="232">
@@ -6593,25 +6593,25 @@
         <v>3</v>
       </c>
       <c r="B232" t="str">
-        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47ce5/1759239075222/Water-Protection-Faucet--Streamline-Ultimate.svg</v>
+        <v>https://snapwidget.com/js/embed.vendor.min.2f17f0b14ee46c5a.js</v>
       </c>
       <c r="C232" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D232" t="str">
-        <v>image/svg+xml</v>
+        <v>application/javascript</v>
       </c>
       <c r="E232">
-        <v>1941</v>
+        <v>1466</v>
       </c>
       <c r="F232">
-        <v>1650</v>
+        <v>2529</v>
       </c>
       <c r="G232">
-        <v>0.000564468033</v>
+        <v>0.00042633185799999994</v>
       </c>
       <c r="H232">
-        <v>0.0007435609974</v>
+        <v>0.0005615973324</v>
       </c>
     </row>
     <row r="233">
@@ -6619,25 +6619,25 @@
         <v>3</v>
       </c>
       <c r="B233" t="str">
-        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cd6/1759239075018/Greek-God-Atlas--Streamline-Ultimate.svg</v>
+        <v>https://snapwidget.com/js/embed.main.min.65b73ba9362828bd.js</v>
       </c>
       <c r="C233" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D233" t="str">
-        <v>image/svg+xml</v>
+        <v>application/javascript</v>
       </c>
       <c r="E233">
-        <v>1186</v>
+        <v>1424</v>
       </c>
       <c r="F233">
-        <v>2424</v>
+        <v>3096</v>
       </c>
       <c r="G233">
-        <v>0.00034490421799999993</v>
+        <v>0.00041411771199999995</v>
       </c>
       <c r="H233">
-        <v>0.00045433454039999995</v>
+        <v>0.0005455079136000001</v>
       </c>
     </row>
     <row r="234">
@@ -6645,25 +6645,25 @@
         <v>3</v>
       </c>
       <c r="B234" t="str">
-        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47ce6/1759239075234/Wheelchair-Helper--Streamline-Ultimate.svg</v>
+        <v>https://snapwidget.com/js/vendor/iframeResizer.contentWindow.min.0da4d54c7d115e53.js</v>
       </c>
       <c r="C234" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D234" t="str">
-        <v>image/svg+xml</v>
+        <v>application/javascript</v>
       </c>
       <c r="E234">
-        <v>1754</v>
+        <v>6515</v>
       </c>
       <c r="F234">
-        <v>4084</v>
+        <v>21586</v>
       </c>
       <c r="G234">
-        <v>0.0005100860019999999</v>
+        <v>0.0018946466949999999</v>
       </c>
       <c r="H234">
-        <v>0.0006719247756</v>
+        <v>0.0024957753210000004</v>
       </c>
     </row>
     <row r="235">
@@ -6671,25 +6671,25 @@
         <v>3</v>
       </c>
       <c r="B235" t="str">
-        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cd8/1759239075046/House-Home-Building-1--Streamline-Ultimate.svg</v>
+        <v>https://static.cloudflareinsights.com/beacon.min.js/vcd15cbe7772f49c399c6a5babf22c1241717689176015</v>
       </c>
       <c r="C235" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D235" t="str">
-        <v>image/svg+xml</v>
+        <v>text/javascript</v>
       </c>
       <c r="E235">
-        <v>1369</v>
+        <v>7110</v>
       </c>
       <c r="F235">
-        <v>1078</v>
+        <v>19948</v>
       </c>
       <c r="G235">
-        <v>0.00039812299699999997</v>
+        <v>0.0020676804299999997</v>
       </c>
       <c r="H235">
-        <v>0.0005244384366</v>
+        <v>0.0027237087540000005</v>
       </c>
     </row>
     <row r="236">
@@ -6758,16 +6758,16 @@
         <v>image/png</v>
       </c>
       <c r="E238">
-        <v>3184</v>
+        <v>3161</v>
       </c>
       <c r="F238">
         <v>2671</v>
       </c>
       <c r="G238">
-        <v>0.0009259485919999999</v>
+        <v>0.0009192598929999999</v>
       </c>
       <c r="H238">
-        <v>0.0012197311776</v>
+        <v>0.0012109203053999999</v>
       </c>
     </row>
     <row r="239">
@@ -6775,22 +6775,22 @@
         <v>3</v>
       </c>
       <c r="B239" t="str">
-        <v>https://www.googletagmanager.com/td?id=G-E8WQDE3S74&amp;v=3&amp;t=t&amp;pid=1223879406&amp;seq=1&amp;exp=101509157~103116026~103200004~103233427~104527906~104528500~104684208~104684211~105322304~115583767~115938465~115938469~116217636~116217638&amp;dl=snapwidget.com%2Fembed%2F1011816&amp;tdp=G-E8WQDE3S74;102729961;0;0;0&amp;frm=2&amp;rtg=102729961&amp;slo=0&amp;hlo=2&amp;lst=3&amp;bt=0&amp;ct=3&amp;z=0</v>
+        <v>https://snapwidget.com/cdn-cgi/rum?</v>
       </c>
       <c r="C239" t="str">
-        <v>Image</v>
+        <v>XHR</v>
       </c>
       <c r="D239" t="str">
         <v>text/plain</v>
       </c>
       <c r="E239">
-        <v>430</v>
+        <v>335</v>
       </c>
       <c r="G239">
-        <v>0.00012504959</v>
+        <v>0.00009742235499999998</v>
       </c>
       <c r="H239">
-        <v>0.000164725002</v>
+        <v>0.00012833226900000003</v>
       </c>
     </row>
     <row r="240">
@@ -6798,22 +6798,22 @@
         <v>3</v>
       </c>
       <c r="B240" t="str">
-        <v>https://snapwidget.com/cdn-cgi/rum?</v>
+        <v>https://www.jevnaker.kommune.no/favicon.ico</v>
       </c>
       <c r="C240" t="str">
-        <v>XHR</v>
+        <v>other</v>
       </c>
       <c r="D240" t="str">
-        <v>text/plain</v>
+        <v/>
       </c>
       <c r="E240">
-        <v>340</v>
+        <v>203</v>
       </c>
       <c r="G240">
-        <v>0.00009887641999999998</v>
+        <v>0.00005903503899999999</v>
       </c>
       <c r="H240">
-        <v>0.000130247676</v>
+        <v>0.00007776552420000002</v>
       </c>
     </row>
     <row r="241">
@@ -6821,22 +6821,25 @@
         <v>3</v>
       </c>
       <c r="B241" t="str">
-        <v>https://www.jevnaker.kommune.no/favicon.ico</v>
+        <v>https://www.jevnaker.kommune.no/images/18.638b2cc2196f633e47f4bcfc/1749131595297/favicon.ico</v>
       </c>
       <c r="C241" t="str">
-        <v>other</v>
+        <v>Other</v>
       </c>
       <c r="D241" t="str">
-        <v/>
+        <v>image/vnd.microsoft.icon</v>
       </c>
       <c r="E241">
-        <v>203</v>
+        <v>15389</v>
+      </c>
+      <c r="F241">
+        <v>15086</v>
       </c>
       <c r="G241">
-        <v>0.00005903503899999999</v>
+        <v>0.004475321256999999</v>
       </c>
       <c r="H241">
-        <v>0.00007776552420000002</v>
+        <v>0.0058952396646</v>
       </c>
     </row>
     <row r="242">
@@ -6844,25 +6847,25 @@
         <v>3</v>
       </c>
       <c r="B242" t="str">
-        <v>https://www.jevnaker.kommune.no/images/18.638b2cc2196f633e47f4bcfc/1749131595297/favicon.ico</v>
+        <v>https://scontent.cdninstagram.com/v/t39.30808-6/559008362_1232017585620230_1261247343826860851_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=T0D1_iRqtVIQ7kNvwF4oHnO&amp;_nc_oc=Adl3lrtsQ2G01wX5KMlcJRgi5U4dANnSq2oU7RVifCP-m7Gar4L4iH0jF_efHxkp5MU&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=Du_4ouqXXu6usKwpYY-C-A&amp;oh=00_AfjVPiw5hWW7NZIvCyfmvT77Npn05E3ySzFdGRrY9PPHfw&amp;oe=691D21D8</v>
       </c>
       <c r="C242" t="str">
-        <v>Other</v>
+        <v>Image</v>
       </c>
       <c r="D242" t="str">
-        <v>image/vnd.microsoft.icon</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E242">
-        <v>15389</v>
+        <v>593007</v>
       </c>
       <c r="F242">
-        <v>15086</v>
+        <v>592779</v>
       </c>
       <c r="G242">
-        <v>0.004475321256999999</v>
+        <v>0.17245414469099998</v>
       </c>
       <c r="H242">
-        <v>0.0058952396646</v>
+        <v>0.2271699517698</v>
       </c>
     </row>
     <row r="243">
@@ -6870,7 +6873,7 @@
         <v>3</v>
       </c>
       <c r="B243" t="str">
-        <v>https://scontent.cdninstagram.com/v/t39.30808-6/559008362_1232017585620230_1261247343826860851_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=cfWpIiBpc6gQ7kNvwFJL_Xo&amp;_nc_oc=Adk4MnzNmTm9wAckw7t89J452M7KaH7fdncqlIeiI83sF85v2gGwXB1mE4KNBZqp09k&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=20p8J2-NsJApN0CT7-yyvQ&amp;oh=00_AfgHA2gWsgQzHtT9l8qdVwDq-7hcT_Kw98MomuOpjQ0h2Q&amp;oe=69184C58</v>
+        <v>https://scontent.cdninstagram.com/v/t39.30808-6/565329695_1238170471671608_6196745189101583773_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=mCsHf0__u5QQ7kNvwHDDwdV&amp;_nc_oc=Adl5jnijQXhDUOYkThc0-P-YoQCgR2u6O6ziQ3ax_9uh5_fXhje6Py_1OcbOp3ImhAY&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=Du_4ouqXXu6usKwpYY-C-A&amp;oh=00_AfiME4QAjV0DRLt6rpmFCvTxW4XkJs4ZPIaHpGSgzOBHUQ&amp;oe=691D2421</v>
       </c>
       <c r="C243" t="str">
         <v>Image</v>
@@ -6879,16 +6882,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E243">
-        <v>593261</v>
+        <v>279045</v>
       </c>
       <c r="F243">
-        <v>592779</v>
+        <v>278586</v>
       </c>
       <c r="G243">
-        <v>0.17252801119299999</v>
+        <v>0.08114991358499998</v>
       </c>
       <c r="H243">
-        <v>0.22726725444540002</v>
+        <v>0.10689694926300002</v>
       </c>
     </row>
     <row r="244">
@@ -6896,7 +6899,7 @@
         <v>3</v>
       </c>
       <c r="B244" t="str">
-        <v>https://scontent.cdninstagram.com/v/t39.30808-6/565329695_1238170471671608_6196745189101583773_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=Lhv4biFlpT8Q7kNvwH3Q-cU&amp;_nc_oc=AdlCmQkL-qEtINIv_WiA3ooseJpGE01d5M39DHrHAkBUkMJ5Q4Hwfpb1pC_dye75cCE&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=20p8J2-NsJApN0CT7-yyvQ&amp;oh=00_Afio9r9w8guVzCp5QgIfjGMcE3h-3JqucEn3ihklcSattw&amp;oe=69184EA1</v>
+        <v>https://scontent.cdninstagram.com/v/t51.82787-15/571469270_18537882733035841_487393053145516240_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=jKmZ-LZ475YQ7kNvwFOnfQ4&amp;_nc_oc=Adms9KUcc-zLk8787wjf5dmgKK6omwuCLmFFgIy1da02KFozoF9chuR-VnJexisug-0&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=Du_4ouqXXu6usKwpYY-C-A&amp;oh=00_AfhVV9GEnzvUFa-kYHw7e8_tDW9YD-1AwZI-e9N4_phxCw&amp;oe=691D19A2</v>
       </c>
       <c r="C244" t="str">
         <v>Image</v>
@@ -6905,16 +6908,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E244">
-        <v>278918</v>
+        <v>67736</v>
       </c>
       <c r="F244">
-        <v>278586</v>
+        <v>67549</v>
       </c>
       <c r="G244">
-        <v>0.08111298033399998</v>
+        <v>0.019698509367999998</v>
       </c>
       <c r="H244">
-        <v>0.10684829792520002</v>
+        <v>0.025948401710400002</v>
       </c>
     </row>
     <row r="245">
@@ -6922,7 +6925,7 @@
         <v>3</v>
       </c>
       <c r="B245" t="str">
-        <v>https://scontent.cdninstagram.com/v/t51.82787-15/571469270_18537882733035841_487393053145516240_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=8p-l-qPhE4YQ7kNvwHBN29m&amp;_nc_oc=AdmgLxnFU1syt_d6TZ7Nq2KobxuiDbHE-hI1HlLyphuzTsabZA_QITCPnJrPGeIp1n0&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=20p8J2-NsJApN0CT7-yyvQ&amp;oh=00_AfjG3GMTKmgUYZHPerFAGwzFVUbMEDkkZKXnPtLwn-5e9w&amp;oe=69184422</v>
+        <v>https://scontent.cdninstagram.com/v/t39.30808-6/571218357_1246549530833702_3884028946526260024_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=DLNlow1VftYQ7kNvwFAbQ96&amp;_nc_oc=AdlmPlorzlb0nITCmKatpVRKu9tTdZctFTt5--kMouEJJPsUT3oKYoQx2GrS99eBASI&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=Du_4ouqXXu6usKwpYY-C-A&amp;oh=00_Afg0XUXoU2fR-_CHo4cZH-fpkUuJIUesy8O4qJ228zoo7w&amp;oe=691D2F72</v>
       </c>
       <c r="C245" t="str">
         <v>Image</v>
@@ -6931,16 +6934,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E245">
-        <v>67612</v>
+        <v>316283</v>
       </c>
       <c r="F245">
-        <v>67549</v>
+        <v>315697</v>
       </c>
       <c r="G245">
-        <v>0.019662448555999995</v>
+        <v>0.09197920807899998</v>
       </c>
       <c r="H245">
-        <v>0.0259008996168</v>
+        <v>0.1211621344362</v>
       </c>
     </row>
     <row r="246">
@@ -6948,7 +6951,7 @@
         <v>3</v>
       </c>
       <c r="B246" t="str">
-        <v>https://scontent.cdninstagram.com/v/t39.30808-6/571218357_1246549530833702_3884028946526260024_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=q5CzZT8221UQ7kNvwF6hsCW&amp;_nc_oc=Adk35Q77RNWOhCAREtggeEo9ASWWp_ejtvgSl7U9nrUY7KEwv0jfG8Wm4qpEXPmigKs&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=20p8J2-NsJApN0CT7-yyvQ&amp;oh=00_AfgKfnrf0aTRe1Qgw2JdWa8LnERG7Tpaui_uZNOg7jaMZg&amp;oe=691821B2</v>
+        <v>https://scontent.cdninstagram.com/v/t39.30808-6/571331711_1248201744001814_1853178542471537521_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=5iOa_E6a8nIQ7kNvwGtdvzH&amp;_nc_oc=AdkbSjKyfOGu7XGbyCjmzhxXJGmX214i-aoyygRoaKMNU3DuUFj0K2sFE6K2EnVeyCU&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=Du_4ouqXXu6usKwpYY-C-A&amp;oh=00_AfhelwFi4gdUnXnrP0TNiGTNg-LQ88JXhZTYbFle-3y3bg&amp;oe=691D3EBB</v>
       </c>
       <c r="C246" t="str">
         <v>Image</v>
@@ -6957,16 +6960,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E246">
-        <v>315902</v>
+        <v>51340</v>
       </c>
       <c r="F246">
-        <v>315697</v>
+        <v>51283</v>
       </c>
       <c r="G246">
-        <v>0.09186840832599999</v>
+        <v>0.014930339419999999</v>
       </c>
       <c r="H246">
-        <v>0.1210161804228</v>
+        <v>0.019667399076000004</v>
       </c>
     </row>
     <row r="247">
@@ -6974,7 +6977,7 @@
         <v>3</v>
       </c>
       <c r="B247" t="str">
-        <v>https://scontent.cdninstagram.com/v/t39.30808-6/571331711_1248201744001814_1853178542471537521_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=VkSoUGY-LiQQ7kNvwE-WKAc&amp;_nc_oc=Adl2rq7DPkgQXhJ7MV6llGJNmE79jhMxueS6JkEkCkgVeHYwgWcNJ4irOblGqlw_6nE&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=20p8J2-NsJApN0CT7-yyvQ&amp;oh=00_AfgyHUK3IINnQ13deJ6r5gPyf1WBIfJicZ_9p1zKOX68JA&amp;oe=691830FB</v>
+        <v>https://scontent.cdninstagram.com/v/t51.82787-15/572121945_18540931042035841_893827279987965030_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=dxrYgVTpDi4Q7kNvwGohUYC&amp;_nc_oc=Adkgmpt-BQfNq8MO-gDukMpA1BQ4-EMQ25g1U8al2odGf0vSM1Biz0CCeKQkHJ4OB3I&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=Du_4ouqXXu6usKwpYY-C-A&amp;oh=00_Afic0DVprSOCiQBt9Zn_DPzjHfGplGmezj6LV1Pn7wxcUA&amp;oe=691D2E5E</v>
       </c>
       <c r="C247" t="str">
         <v>Image</v>
@@ -6983,47 +6986,21 @@
         <v>image/jpeg</v>
       </c>
       <c r="E247">
-        <v>51340</v>
+        <v>236065</v>
       </c>
       <c r="F247">
-        <v>51283</v>
+        <v>235862</v>
       </c>
       <c r="G247">
-        <v>0.014930339419999999</v>
+        <v>0.068650770845</v>
       </c>
       <c r="H247">
-        <v>0.019667399076000004</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248">
-        <v>3</v>
-      </c>
-      <c r="B248" t="str">
-        <v>https://scontent.cdninstagram.com/v/t51.82787-15/572121945_18540931042035841_893827279987965030_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=7295ilXScTIQ7kNvwF8GLLd&amp;_nc_oc=Adl_DTFHS3RU6h633zxkbI6xCD_ae1Owq0K5OQvS0FUPyiEeCV30xvscTtODU4VpQYM&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=20p8J2-NsJApN0CT7-yyvQ&amp;oh=00_Afj52rncgcH9XDdhQa6jcK9JQYDilX1ZIiGlFgSw_fKvFg&amp;oe=6918209E</v>
-      </c>
-      <c r="C248" t="str">
-        <v>Image</v>
-      </c>
-      <c r="D248" t="str">
-        <v>image/jpeg</v>
-      </c>
-      <c r="E248">
-        <v>236062</v>
-      </c>
-      <c r="F248">
-        <v>235862</v>
-      </c>
-      <c r="G248">
-        <v>0.068649898406</v>
-      </c>
-      <c r="H248">
-        <v>0.0904309614468</v>
+        <v>0.09043211069100002</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H248"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H247"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -7057,10 +7034,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>77280</v>
+        <v>76274</v>
       </c>
       <c r="D2">
-        <v>388701</v>
+        <v>385632</v>
       </c>
     </row>
     <row r="3">
@@ -7071,10 +7048,10 @@
         <v>45</v>
       </c>
       <c r="C3">
-        <v>175401</v>
+        <v>176035</v>
       </c>
       <c r="D3">
-        <v>1648350</v>
+        <v>1654917</v>
       </c>
     </row>
     <row r="4">
@@ -7085,10 +7062,10 @@
         <v>57</v>
       </c>
       <c r="C4">
-        <v>1395269</v>
+        <v>1392481</v>
       </c>
       <c r="D4">
-        <v>4407276</v>
+        <v>4396967</v>
       </c>
     </row>
     <row r="5">
@@ -7096,13 +7073,13 @@
         <v>Image</v>
       </c>
       <c r="B5">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5">
-        <v>7450231</v>
+        <v>7427096</v>
       </c>
       <c r="D5">
-        <v>7448853</v>
+        <v>7423662</v>
       </c>
     </row>
     <row r="6">
@@ -7141,7 +7118,7 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>6425</v>
+        <v>6406</v>
       </c>
       <c r="D8">
         <v>9675</v>
@@ -7194,13 +7171,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3112352</v>
+        <v>3104076</v>
       </c>
       <c r="C2">
-        <v>0.905112422176</v>
+        <v>0.9027056537879999</v>
       </c>
       <c r="D2">
-        <v>1.1922841614528</v>
+        <v>1.1891137797864</v>
       </c>
     </row>
     <row r="3">
@@ -7208,13 +7185,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3113089</v>
+        <v>3104546</v>
       </c>
       <c r="C3">
-        <v>0.9053267513569999</v>
+        <v>0.9028423358979999</v>
       </c>
       <c r="D3">
-        <v>1.1925664924446</v>
+        <v>1.1892938280443999</v>
       </c>
     </row>
     <row r="4">
@@ -7222,13 +7199,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3113426</v>
+        <v>3103931</v>
       </c>
       <c r="C4">
-        <v>0.9054247553379998</v>
+        <v>0.9026634859029999</v>
       </c>
       <c r="D4">
-        <v>1.1926955908763999</v>
+        <v>1.1890582329834</v>
       </c>
     </row>
     <row r="5">
@@ -7236,13 +7213,13 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>3113089</v>
+        <v>3104076</v>
       </c>
       <c r="C5">
-        <v>0.9053267513569999</v>
+        <v>0.9027056537879999</v>
       </c>
       <c r="D5">
-        <v>1.1925664924446</v>
+        <v>1.1891137797864</v>
       </c>
     </row>
   </sheetData>

--- a/Midterm-exam/evidence/spreadsheets/per_site/www.jevnaker.kommune.no.xlsx
+++ b/Midterm-exam/evidence/spreadsheets/per_site/www.jevnaker.kommune.no.xlsx
@@ -445,31 +445,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10236.833499999997</v>
+        <v>10345.462</v>
       </c>
       <c r="C2">
-        <v>3224.633999999999</v>
+        <v>3414.942500000001</v>
       </c>
       <c r="D2">
-        <v>235</v>
+        <v>361</v>
       </c>
       <c r="E2">
-        <v>10540.459749999998</v>
+        <v>10643.10455</v>
       </c>
       <c r="F2">
-        <v>52</v>
+        <v>7.5</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>5414.230477115425</v>
+        <v>5814.306027405515</v>
       </c>
       <c r="I2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J2">
-        <v>3104076</v>
+        <v>3103141</v>
       </c>
       <c r="K2">
         <v>82</v>
@@ -480,31 +480,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10276.724000000002</v>
+        <v>10288.234500000004</v>
       </c>
       <c r="C3">
-        <v>3237.212</v>
+        <v>3250.0795000000003</v>
       </c>
       <c r="D3">
-        <v>377</v>
+        <v>284</v>
       </c>
       <c r="E3">
-        <v>10584.693400000004</v>
+        <v>10592.881800000005</v>
       </c>
       <c r="F3">
-        <v>57.5</v>
+        <v>22</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5578.552266884513</v>
+        <v>5519.141368694169</v>
       </c>
       <c r="I3">
         <v>65</v>
       </c>
       <c r="J3">
-        <v>3104546</v>
+        <v>3104337</v>
       </c>
       <c r="K3">
         <v>82</v>
@@ -515,16 +515,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10190.616750000003</v>
+        <v>10280.342</v>
       </c>
       <c r="C4">
-        <v>3218.274</v>
+        <v>3226.668</v>
       </c>
       <c r="D4">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="E4">
-        <v>10492.291375000004</v>
+        <v>10576.997950000003</v>
       </c>
       <c r="F4">
         <v>4.5</v>
@@ -533,13 +533,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5414.4789819014895</v>
+        <v>5678.352645031716</v>
       </c>
       <c r="I4">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J4">
-        <v>3103931</v>
+        <v>3103588</v>
       </c>
       <c r="K4">
         <v>82</v>
@@ -550,31 +550,31 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>10236.833499999997</v>
+        <v>10288.234500000004</v>
       </c>
       <c r="C5">
-        <v>3224.633999999999</v>
+        <v>3250.0795000000003</v>
       </c>
       <c r="D5">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="E5">
-        <v>10540.459749999998</v>
+        <v>10592.881800000005</v>
       </c>
       <c r="F5">
-        <v>52</v>
+        <v>7.5</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5414.4789819014895</v>
+        <v>5678.352645031716</v>
       </c>
       <c r="I5">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J5">
-        <v>3104076</v>
+        <v>3103588</v>
       </c>
       <c r="K5">
         <v>82</v>
@@ -634,16 +634,16 @@
         <v>text/html</v>
       </c>
       <c r="E2">
-        <v>16701</v>
+        <v>16703</v>
       </c>
       <c r="F2">
         <v>87206</v>
       </c>
       <c r="G2">
-        <v>0.004856867912999999</v>
+        <v>0.004857449538999999</v>
       </c>
       <c r="H2">
-        <v>0.006397842461400001</v>
+        <v>0.006398608624200001</v>
       </c>
     </row>
     <row r="3">
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="str">
-        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/1763012651802/sitevision-responsive-grids.css?gridConfigs=651.638b2cc2196f633e47f3ae1a_FLUID_GRID&amp;pushPull=false</v>
+        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/1763011793025/sitevision-responsive-grids.css?gridConfigs=651.638b2cc2196f633e47f3ae1a_FLUID_GRID&amp;pushPull=false</v>
       </c>
       <c r="C3" t="str">
         <v>Stylesheet</v>
@@ -677,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="str">
-        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/119/5010/print/SiteVision.css</v>
+        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/109/6824/print/SiteVision.css</v>
       </c>
       <c r="C4" t="str">
         <v>Stylesheet</v>
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="str">
-        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/91.638b2cc2196f633e47f3b486/1763012815709/0/sv-template-asset.css</v>
+        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/91.638b2cc2196f633e47f3b486/1763012010965/0/sv-template-asset.css</v>
       </c>
       <c r="C7" t="str">
         <v>Stylesheet</v>
@@ -781,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="str">
-        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/1763012815430/sitevision-spacing.css</v>
+        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/1763012010760/sitevision-spacing.css</v>
       </c>
       <c r="C8" t="str">
         <v>Stylesheet</v>
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="B40" t="str">
-        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/91.638b2cc2196f633e47f3b486/1763012815720/BODY/0/sv-template-asset.js</v>
+        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/91.638b2cc2196f633e47f3b486/1763012010971/BODY/0/sv-template-asset.js</v>
       </c>
       <c r="C40" t="str">
         <v>Script</v>
@@ -1830,16 +1830,16 @@
         <v>text/html</v>
       </c>
       <c r="E48">
-        <v>8722</v>
+        <v>8713</v>
       </c>
       <c r="F48">
         <v>41338</v>
       </c>
       <c r="G48">
-        <v>0.0025364709859999994</v>
+        <v>0.0025338536689999995</v>
       </c>
       <c r="H48">
-        <v>0.003341235970800001</v>
+        <v>0.0033377882382</v>
       </c>
     </row>
     <row r="49">
@@ -1951,25 +1951,25 @@
         <v>1</v>
       </c>
       <c r="B53" t="str">
-        <v>https://snapwidget.com/stylesheets/embed.vendor.min.760717b3f565c387.css</v>
+        <v>https://www.jevnaker.kommune.no/appresource/2.638b2cc2196f633e47f3ad7c/12.638b2cc2196f633e47f41b0b/menuitems?svAjaxReqParam=ajax</v>
       </c>
       <c r="C53" t="str">
-        <v>Stylesheet</v>
+        <v>XHR</v>
       </c>
       <c r="D53" t="str">
-        <v>text/css</v>
+        <v>application/json</v>
       </c>
       <c r="E53">
-        <v>1001</v>
+        <v>855</v>
       </c>
       <c r="F53">
-        <v>2359</v>
+        <v>2281</v>
       </c>
       <c r="G53">
-        <v>0.00029110381299999997</v>
+        <v>0.00024864511499999995</v>
       </c>
       <c r="H53">
-        <v>0.0003834644814000001</v>
+        <v>0.000327534597</v>
       </c>
     </row>
     <row r="54">
@@ -1977,25 +1977,25 @@
         <v>1</v>
       </c>
       <c r="B54" t="str">
-        <v>https://snapwidget.com/stylesheets/embed.style.min.33d8714986a48d7b.css</v>
+        <v>https://www.jevnaker.kommune.no/appresource/2.638b2cc2196f633e47f3ad7c/12.638b2cc2196f633e47f41383/menuitems?svAjaxReqParam=ajax</v>
       </c>
       <c r="C54" t="str">
-        <v>Stylesheet</v>
+        <v>XHR</v>
       </c>
       <c r="D54" t="str">
-        <v>text/css</v>
+        <v>application/json</v>
       </c>
       <c r="E54">
-        <v>4009</v>
+        <v>501</v>
       </c>
       <c r="F54">
-        <v>16311</v>
+        <v>700</v>
       </c>
       <c r="G54">
-        <v>0.001165869317</v>
+        <v>0.000145697313</v>
       </c>
       <c r="H54">
-        <v>0.0015357733326000003</v>
+        <v>0.0001919237814</v>
       </c>
     </row>
     <row r="55">
@@ -2003,25 +2003,25 @@
         <v>1</v>
       </c>
       <c r="B55" t="str">
-        <v>https://snapwidget.com/stylesheets/embed.grid.min.0d105dc3e2d4e747.css</v>
+        <v>https://www.jevnaker.kommune.no/appresource/2.638b2cc2196f633e47f3ad7c/12.638b2cc2196f633e47f3edcd/menuitems?svAjaxReqParam=ajax</v>
       </c>
       <c r="C55" t="str">
-        <v>Stylesheet</v>
+        <v>XHR</v>
       </c>
       <c r="D55" t="str">
-        <v>text/css</v>
+        <v>application/json</v>
       </c>
       <c r="E55">
-        <v>1187</v>
+        <v>442</v>
       </c>
       <c r="F55">
-        <v>2769</v>
+        <v>244</v>
       </c>
       <c r="G55">
-        <v>0.00034519503099999995</v>
+        <v>0.000128539346</v>
       </c>
       <c r="H55">
-        <v>0.00045471762180000004</v>
+        <v>0.0001693219788</v>
       </c>
     </row>
     <row r="56">
@@ -2029,25 +2029,25 @@
         <v>1</v>
       </c>
       <c r="B56" t="str">
-        <v>https://www.googletagmanager.com/gtag/js?id=G-E8WQDE3S74</v>
+        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/07c16d59554a729db34079442c91c27bb79e776ae9da8ea6eec5385cb6967383/envision/popper-7d0017b4b0eee8522ac7.js</v>
       </c>
       <c r="C56" t="str">
         <v>Script</v>
       </c>
       <c r="D56" t="str">
-        <v>application/javascript</v>
+        <v>text/javascript</v>
       </c>
       <c r="E56">
-        <v>146003</v>
+        <v>6812</v>
       </c>
       <c r="F56">
-        <v>428221</v>
+        <v>19517</v>
       </c>
       <c r="G56">
-        <v>0.042459570439</v>
+        <v>0.001981018156</v>
       </c>
       <c r="H56">
-        <v>0.055931033644200004</v>
+        <v>0.0026095504968</v>
       </c>
     </row>
     <row r="57">
@@ -2055,25 +2055,25 @@
         <v>1</v>
       </c>
       <c r="B57" t="str">
-        <v>https://snapwidget.com/js/embed.vendor.min.2f17f0b14ee46c5a.js</v>
+        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cd3/1759239074973/Avatar-Mine-Worker-Man--Streamline-Ultimate.svg</v>
       </c>
       <c r="C57" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D57" t="str">
-        <v>application/javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E57">
-        <v>1438</v>
+        <v>2163</v>
       </c>
       <c r="F57">
-        <v>2529</v>
+        <v>1872</v>
       </c>
       <c r="G57">
-        <v>0.00041818909399999997</v>
+        <v>0.0006290285189999999</v>
       </c>
       <c r="H57">
-        <v>0.0005508710532</v>
+        <v>0.0008286050682000001</v>
       </c>
     </row>
     <row r="58">
@@ -2081,25 +2081,25 @@
         <v>1</v>
       </c>
       <c r="B58" t="str">
-        <v>https://snapwidget.com/js/embed.main.min.65b73ba9362828bd.js</v>
+        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47ce2/1759239075181/Tool-Box--Streamline-Ultimate.svg</v>
       </c>
       <c r="C58" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D58" t="str">
-        <v>application/javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E58">
-        <v>1443</v>
+        <v>1381</v>
       </c>
       <c r="F58">
-        <v>3096</v>
+        <v>1090</v>
       </c>
       <c r="G58">
-        <v>0.00041964315899999994</v>
+        <v>0.00040161275299999995</v>
       </c>
       <c r="H58">
-        <v>0.0005527864602000001</v>
+        <v>0.0005290354134000001</v>
       </c>
     </row>
     <row r="59">
@@ -2107,25 +2107,25 @@
         <v>1</v>
       </c>
       <c r="B59" t="str">
-        <v>https://snapwidget.com/js/vendor/iframeResizer.contentWindow.min.0da4d54c7d115e53.js</v>
+        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cdd/1759239075111/Safety-Fire-Extinguisher--Streamline-Ultimate.svg</v>
       </c>
       <c r="C59" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D59" t="str">
-        <v>application/javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E59">
-        <v>6515</v>
+        <v>1433</v>
       </c>
       <c r="F59">
-        <v>21586</v>
+        <v>1142</v>
       </c>
       <c r="G59">
-        <v>0.0018946466949999999</v>
+        <v>0.00041673502899999994</v>
       </c>
       <c r="H59">
-        <v>0.0024957753210000004</v>
+        <v>0.0005489556462000001</v>
       </c>
     </row>
     <row r="60">
@@ -2133,25 +2133,25 @@
         <v>1</v>
       </c>
       <c r="B60" t="str">
-        <v>https://static.cloudflareinsights.com/beacon.min.js/vcd15cbe7772f49c399c6a5babf22c1241717689176015</v>
+        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47ce5/1759239075222/Water-Protection-Faucet--Streamline-Ultimate.svg</v>
       </c>
       <c r="C60" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D60" t="str">
-        <v>text/javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E60">
-        <v>7110</v>
+        <v>1941</v>
       </c>
       <c r="F60">
-        <v>19948</v>
+        <v>1650</v>
       </c>
       <c r="G60">
-        <v>0.0020676804299999997</v>
+        <v>0.000564468033</v>
       </c>
       <c r="H60">
-        <v>0.0027237087540000005</v>
+        <v>0.0007435609974</v>
       </c>
     </row>
     <row r="61">
@@ -2159,25 +2159,25 @@
         <v>1</v>
       </c>
       <c r="B61" t="str">
-        <v>https://www.jevnaker.kommune.no/appresource/2.638b2cc2196f633e47f3ad7c/12.638b2cc2196f633e47f41b0b/menuitems?svAjaxReqParam=ajax</v>
+        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cd6/1759239075018/Greek-God-Atlas--Streamline-Ultimate.svg</v>
       </c>
       <c r="C61" t="str">
-        <v>XHR</v>
+        <v>Image</v>
       </c>
       <c r="D61" t="str">
-        <v>application/json</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E61">
-        <v>855</v>
+        <v>1186</v>
       </c>
       <c r="F61">
-        <v>2281</v>
+        <v>2424</v>
       </c>
       <c r="G61">
-        <v>0.00024864511499999995</v>
+        <v>0.00034490421799999993</v>
       </c>
       <c r="H61">
-        <v>0.000327534597</v>
+        <v>0.00045433454039999995</v>
       </c>
     </row>
     <row r="62">
@@ -2185,25 +2185,25 @@
         <v>1</v>
       </c>
       <c r="B62" t="str">
-        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/07c16d59554a729db34079442c91c27bb79e776ae9da8ea6eec5385cb6967383/envision/popper-7d0017b4b0eee8522ac7.js</v>
+        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47ce6/1759239075234/Wheelchair-Helper--Streamline-Ultimate.svg</v>
       </c>
       <c r="C62" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D62" t="str">
-        <v>text/javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E62">
-        <v>6812</v>
+        <v>1754</v>
       </c>
       <c r="F62">
-        <v>19517</v>
+        <v>4084</v>
       </c>
       <c r="G62">
-        <v>0.001981018156</v>
+        <v>0.0005100860019999999</v>
       </c>
       <c r="H62">
-        <v>0.0026095504968</v>
+        <v>0.0006719247756</v>
       </c>
     </row>
     <row r="63">
@@ -2211,25 +2211,25 @@
         <v>1</v>
       </c>
       <c r="B63" t="str">
-        <v>https://www.google-analytics.com/analytics.js</v>
+        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cd8/1759239075046/House-Home-Building-1--Streamline-Ultimate.svg</v>
       </c>
       <c r="C63" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D63" t="str">
-        <v>text/javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E63">
-        <v>21344</v>
+        <v>1369</v>
       </c>
       <c r="F63">
-        <v>52310</v>
+        <v>1078</v>
       </c>
       <c r="G63">
-        <v>0.006207112672</v>
+        <v>0.00039812299699999997</v>
       </c>
       <c r="H63">
-        <v>0.008176489401600002</v>
+        <v>0.0005244384366</v>
       </c>
     </row>
     <row r="64">
@@ -2237,25 +2237,25 @@
         <v>1</v>
       </c>
       <c r="B64" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAYAAAAfFcSJAAAAGXRFWHRTb2Z0d2FyZQBBZG9iZSBJb…</v>
+        <v>https://snapwidget.com/stylesheets/embed.vendor.min.760717b3f565c387.css</v>
       </c>
       <c r="C64" t="str">
-        <v>Image</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D64" t="str">
-        <v>image/png</v>
+        <v>text/css</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1031</v>
       </c>
       <c r="F64">
-        <v>926</v>
+        <v>2359</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>0.0002998282029999999</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>0.00039495692340000004</v>
       </c>
     </row>
     <row r="65">
@@ -2263,25 +2263,25 @@
         <v>1</v>
       </c>
       <c r="B65" t="str">
-        <v>https://www.jevnaker.kommune.no/appresource/2.638b2cc2196f633e47f3ad7c/12.638b2cc2196f633e47f41383/menuitems?svAjaxReqParam=ajax</v>
+        <v>https://snapwidget.com/stylesheets/embed.style.min.33d8714986a48d7b.css</v>
       </c>
       <c r="C65" t="str">
-        <v>XHR</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D65" t="str">
-        <v>application/json</v>
+        <v>text/css</v>
       </c>
       <c r="E65">
-        <v>501</v>
+        <v>3989</v>
       </c>
       <c r="F65">
-        <v>700</v>
+        <v>16311</v>
       </c>
       <c r="G65">
-        <v>0.000145697313</v>
+        <v>0.0011600530569999999</v>
       </c>
       <c r="H65">
-        <v>0.0001919237814</v>
+        <v>0.0015281117046000003</v>
       </c>
     </row>
     <row r="66">
@@ -2289,25 +2289,25 @@
         <v>1</v>
       </c>
       <c r="B66" t="str">
-        <v>https://www.jevnaker.kommune.no/appresource/2.638b2cc2196f633e47f3ad7c/12.638b2cc2196f633e47f3edcd/menuitems?svAjaxReqParam=ajax</v>
+        <v>https://snapwidget.com/stylesheets/embed.grid.min.0d105dc3e2d4e747.css</v>
       </c>
       <c r="C66" t="str">
-        <v>XHR</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D66" t="str">
-        <v>application/json</v>
+        <v>text/css</v>
       </c>
       <c r="E66">
-        <v>442</v>
+        <v>1185</v>
       </c>
       <c r="F66">
-        <v>244</v>
+        <v>2769</v>
       </c>
       <c r="G66">
-        <v>0.000128539346</v>
+        <v>0.0003446134049999999</v>
       </c>
       <c r="H66">
-        <v>0.0001693219788</v>
+        <v>0.0004539514590000001</v>
       </c>
     </row>
     <row r="67">
@@ -2315,25 +2315,25 @@
         <v>1</v>
       </c>
       <c r="B67" t="str">
-        <v>https://snapwidget.com/images/post_type_icons.png</v>
+        <v>https://www.googletagmanager.com/gtag/js?id=G-E8WQDE3S74</v>
       </c>
       <c r="C67" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D67" t="str">
-        <v>image/png</v>
+        <v>application/javascript</v>
       </c>
       <c r="E67">
-        <v>3182</v>
+        <v>146005</v>
       </c>
       <c r="F67">
-        <v>2671</v>
+        <v>428221</v>
       </c>
       <c r="G67">
-        <v>0.0009253669659999999</v>
+        <v>0.04246015206499999</v>
       </c>
       <c r="H67">
-        <v>0.0012189650148000002</v>
+        <v>0.055931799807</v>
       </c>
     </row>
     <row r="68">
@@ -2341,25 +2341,25 @@
         <v>1</v>
       </c>
       <c r="B68" t="str">
-        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cd3/1759239074973/Avatar-Mine-Worker-Man--Streamline-Ultimate.svg</v>
+        <v>https://snapwidget.com/js/embed.vendor.min.2f17f0b14ee46c5a.js</v>
       </c>
       <c r="C68" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D68" t="str">
-        <v>image/svg+xml</v>
+        <v>application/javascript</v>
       </c>
       <c r="E68">
-        <v>2163</v>
+        <v>1442</v>
       </c>
       <c r="F68">
-        <v>1872</v>
+        <v>2529</v>
       </c>
       <c r="G68">
-        <v>0.0006290285189999999</v>
+        <v>0.0004193523459999999</v>
       </c>
       <c r="H68">
-        <v>0.0008286050682000001</v>
+        <v>0.0005524033788</v>
       </c>
     </row>
     <row r="69">
@@ -2367,25 +2367,25 @@
         <v>1</v>
       </c>
       <c r="B69" t="str">
-        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47ce2/1759239075181/Tool-Box--Streamline-Ultimate.svg</v>
+        <v>https://snapwidget.com/js/embed.main.min.65b73ba9362828bd.js</v>
       </c>
       <c r="C69" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D69" t="str">
-        <v>image/svg+xml</v>
+        <v>application/javascript</v>
       </c>
       <c r="E69">
-        <v>1381</v>
+        <v>1421</v>
       </c>
       <c r="F69">
-        <v>1090</v>
+        <v>3096</v>
       </c>
       <c r="G69">
-        <v>0.00040161275299999995</v>
+        <v>0.00041324527299999996</v>
       </c>
       <c r="H69">
-        <v>0.0005290354134000001</v>
+        <v>0.0005443586694000002</v>
       </c>
     </row>
     <row r="70">
@@ -2393,25 +2393,25 @@
         <v>1</v>
       </c>
       <c r="B70" t="str">
-        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cdd/1759239075111/Safety-Fire-Extinguisher--Streamline-Ultimate.svg</v>
+        <v>https://snapwidget.com/js/vendor/iframeResizer.contentWindow.min.0da4d54c7d115e53.js</v>
       </c>
       <c r="C70" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D70" t="str">
-        <v>image/svg+xml</v>
+        <v>application/javascript</v>
       </c>
       <c r="E70">
-        <v>1433</v>
+        <v>6541</v>
       </c>
       <c r="F70">
-        <v>1142</v>
+        <v>21586</v>
       </c>
       <c r="G70">
-        <v>0.00041673502899999994</v>
+        <v>0.0019022078329999997</v>
       </c>
       <c r="H70">
-        <v>0.0005489556462000001</v>
+        <v>0.0025057354373999997</v>
       </c>
     </row>
     <row r="71">
@@ -2419,25 +2419,25 @@
         <v>1</v>
       </c>
       <c r="B71" t="str">
-        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47ce5/1759239075222/Water-Protection-Faucet--Streamline-Ultimate.svg</v>
+        <v>https://static.cloudflareinsights.com/beacon.min.js/vcd15cbe7772f49c399c6a5babf22c1241717689176015</v>
       </c>
       <c r="C71" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D71" t="str">
-        <v>image/svg+xml</v>
+        <v>text/javascript</v>
       </c>
       <c r="E71">
-        <v>1941</v>
+        <v>7097</v>
       </c>
       <c r="F71">
-        <v>1650</v>
+        <v>19948</v>
       </c>
       <c r="G71">
-        <v>0.000564468033</v>
+        <v>0.0020638998609999997</v>
       </c>
       <c r="H71">
-        <v>0.0007435609974</v>
+        <v>0.0027187286958</v>
       </c>
     </row>
     <row r="72">
@@ -2445,25 +2445,25 @@
         <v>1</v>
       </c>
       <c r="B72" t="str">
-        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cd6/1759239075018/Greek-God-Atlas--Streamline-Ultimate.svg</v>
+        <v>https://www.google-analytics.com/analytics.js</v>
       </c>
       <c r="C72" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D72" t="str">
-        <v>image/svg+xml</v>
+        <v>text/javascript</v>
       </c>
       <c r="E72">
-        <v>1186</v>
+        <v>21344</v>
       </c>
       <c r="F72">
-        <v>2424</v>
+        <v>52310</v>
       </c>
       <c r="G72">
-        <v>0.00034490421799999993</v>
+        <v>0.006207112672</v>
       </c>
       <c r="H72">
-        <v>0.00045433454039999995</v>
+        <v>0.008176489401600002</v>
       </c>
     </row>
     <row r="73">
@@ -2471,25 +2471,25 @@
         <v>1</v>
       </c>
       <c r="B73" t="str">
-        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47ce6/1759239075234/Wheelchair-Helper--Streamline-Ultimate.svg</v>
+        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAYAAAAfFcSJAAAAGXRFWHRTb2Z0d2FyZQBBZG9iZSBJb…</v>
       </c>
       <c r="C73" t="str">
         <v>Image</v>
       </c>
       <c r="D73" t="str">
-        <v>image/svg+xml</v>
+        <v>image/png</v>
       </c>
       <c r="E73">
-        <v>1754</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>4084</v>
+        <v>926</v>
       </c>
       <c r="G73">
-        <v>0.0005100860019999999</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>0.0006719247756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2497,25 +2497,25 @@
         <v>1</v>
       </c>
       <c r="B74" t="str">
-        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cd8/1759239075046/House-Home-Building-1--Streamline-Ultimate.svg</v>
+        <v>https://snapwidget.com/images/post_type_icons.png</v>
       </c>
       <c r="C74" t="str">
         <v>Image</v>
       </c>
       <c r="D74" t="str">
-        <v>image/svg+xml</v>
+        <v>image/png</v>
       </c>
       <c r="E74">
-        <v>1369</v>
+        <v>3166</v>
       </c>
       <c r="F74">
-        <v>1078</v>
+        <v>2671</v>
       </c>
       <c r="G74">
-        <v>0.00039812299699999997</v>
+        <v>0.0009207139579999999</v>
       </c>
       <c r="H74">
-        <v>0.0005244384366</v>
+        <v>0.0012128357124</v>
       </c>
     </row>
     <row r="75">
@@ -2523,22 +2523,22 @@
         <v>1</v>
       </c>
       <c r="B75" t="str">
-        <v>https://www.jevnaker.kommune.no/favicon.ico</v>
+        <v>https://snapwidget.com/cdn-cgi/rum?</v>
       </c>
       <c r="C75" t="str">
-        <v>other</v>
+        <v>XHR</v>
       </c>
       <c r="D75" t="str">
-        <v/>
+        <v>text/plain</v>
       </c>
       <c r="E75">
-        <v>203</v>
+        <v>339</v>
       </c>
       <c r="G75">
-        <v>0.00005903503899999999</v>
+        <v>0.00009858560699999999</v>
       </c>
       <c r="H75">
-        <v>0.00007776552420000002</v>
+        <v>0.00012986459460000003</v>
       </c>
     </row>
     <row r="76">
@@ -2546,22 +2546,22 @@
         <v>1</v>
       </c>
       <c r="B76" t="str">
-        <v>https://snapwidget.com/cdn-cgi/rum?</v>
+        <v>https://www.jevnaker.kommune.no/favicon.ico</v>
       </c>
       <c r="C76" t="str">
-        <v>XHR</v>
+        <v>other</v>
       </c>
       <c r="D76" t="str">
-        <v>text/plain</v>
+        <v/>
       </c>
       <c r="E76">
-        <v>338</v>
+        <v>203</v>
       </c>
       <c r="G76">
-        <v>0.00009829479399999999</v>
+        <v>0.00005903503899999999</v>
       </c>
       <c r="H76">
-        <v>0.0001294815132</v>
+        <v>0.00007776552420000002</v>
       </c>
     </row>
     <row r="77">
@@ -2595,7 +2595,7 @@
         <v>1</v>
       </c>
       <c r="B78" t="str">
-        <v>https://scontent.cdninstagram.com/v/t39.30808-6/559008362_1232017585620230_1261247343826860851_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=T0D1_iRqtVIQ7kNvwF4oHnO&amp;_nc_oc=Adl3lrtsQ2G01wX5KMlcJRgi5U4dANnSq2oU7RVifCP-m7Gar4L4iH0jF_efHxkp5MU&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=Du_4ouqXXu6usKwpYY-C-A&amp;oh=00_AfjVPiw5hWW7NZIvCyfmvT77Npn05E3ySzFdGRrY9PPHfw&amp;oe=691D21D8</v>
+        <v>https://scontent.cdninstagram.com/v/t39.30808-6/559008362_1232017585620230_1261247343826860851_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=T0D1_iRqtVIQ7kNvwHrs70e&amp;_nc_oc=Admh9nxJTlhhNoBopks_Kh8tZXv6u_fuGHJV9Ih59RwjI3eCJqCEsw_saHDagF1s0zc&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=UVmwsMCgo2BwbhMquMpN3g&amp;oh=00_AfinIa69Y1jZ1nFvtRDVFzmoo_-JrlcwuIHKeIFDD_U-OA&amp;oe=691D21D8</v>
       </c>
       <c r="C78" t="str">
         <v>Image</v>
@@ -2604,16 +2604,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E78">
-        <v>593215</v>
+        <v>593134</v>
       </c>
       <c r="F78">
         <v>592779</v>
       </c>
       <c r="G78">
-        <v>0.17251463379499998</v>
+        <v>0.17249107794199997</v>
       </c>
       <c r="H78">
-        <v>0.22724963270100002</v>
+        <v>0.22721860310760006</v>
       </c>
     </row>
     <row r="79">
@@ -2621,7 +2621,7 @@
         <v>1</v>
       </c>
       <c r="B79" t="str">
-        <v>https://scontent.cdninstagram.com/v/t39.30808-6/565329695_1238170471671608_6196745189101583773_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=mCsHf0__u5QQ7kNvwHDDwdV&amp;_nc_oc=Adl5jnijQXhDUOYkThc0-P-YoQCgR2u6O6ziQ3ax_9uh5_fXhje6Py_1OcbOp3ImhAY&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=Du_4ouqXXu6usKwpYY-C-A&amp;oh=00_AfiME4QAjV0DRLt6rpmFCvTxW4XkJs4ZPIaHpGSgzOBHUQ&amp;oe=691D2421</v>
+        <v>https://scontent.cdninstagram.com/v/t39.30808-6/565329695_1238170471671608_6196745189101583773_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=mCsHf0__u5QQ7kNvwHg7Dt9&amp;_nc_oc=AdkFzpOPj8K5fGazJ4couwCuX7cQvtoLy9BE7KrFGyi-8V6M5GjIv2PGwtg1gwuhdsA&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=UVmwsMCgo2BwbhMquMpN3g&amp;oh=00_AfiHUhuO5fWEF5ydbKx2MsyLcTHAE2DEplLt9zgjNgImZQ&amp;oe=691D2421</v>
       </c>
       <c r="C79" t="str">
         <v>Image</v>
@@ -2630,16 +2630,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E79">
-        <v>279047</v>
+        <v>278664</v>
       </c>
       <c r="F79">
         <v>278586</v>
       </c>
       <c r="G79">
-        <v>0.08115049521099998</v>
+        <v>0.08103911383199999</v>
       </c>
       <c r="H79">
-        <v>0.10689771542580001</v>
+        <v>0.10675099524959998</v>
       </c>
     </row>
     <row r="80">
@@ -2647,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="B80" t="str">
-        <v>https://scontent.cdninstagram.com/v/t51.82787-15/571469270_18537882733035841_487393053145516240_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=jKmZ-LZ475YQ7kNvwFOnfQ4&amp;_nc_oc=Adms9KUcc-zLk8787wjf5dmgKK6omwuCLmFFgIy1da02KFozoF9chuR-VnJexisug-0&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=Du_4ouqXXu6usKwpYY-C-A&amp;oh=00_AfhVV9GEnzvUFa-kYHw7e8_tDW9YD-1AwZI-e9N4_phxCw&amp;oe=691D19A2</v>
+        <v>https://scontent.cdninstagram.com/v/t51.82787-15/571469270_18537882733035841_487393053145516240_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=jKmZ-LZ475YQ7kNvwHURCIF&amp;_nc_oc=Adn0Tp6M5aPJnpDUcd4EyPK7K1WEtqD9_SEBj4I7032enm4-eLENtclEunYfE-qcLRs&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=UVmwsMCgo2BwbhMquMpN3g&amp;oh=00_AfgxCcTXuP4rY4I4ufa9FDT9bPSkhLWdLLhjMlIDLOBQFQ&amp;oe=691D51E2</v>
       </c>
       <c r="C80" t="str">
         <v>Image</v>
@@ -2656,16 +2656,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E80">
-        <v>67736</v>
+        <v>67609</v>
       </c>
       <c r="F80">
         <v>67549</v>
       </c>
       <c r="G80">
-        <v>0.019698509367999998</v>
+        <v>0.019661576116999997</v>
       </c>
       <c r="H80">
-        <v>0.025948401710400002</v>
+        <v>0.0258997503726</v>
       </c>
     </row>
     <row r="81">
@@ -2673,7 +2673,7 @@
         <v>1</v>
       </c>
       <c r="B81" t="str">
-        <v>https://scontent.cdninstagram.com/v/t39.30808-6/571218357_1246549530833702_3884028946526260024_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=DLNlow1VftYQ7kNvwFAbQ96&amp;_nc_oc=AdlmPlorzlb0nITCmKatpVRKu9tTdZctFTt5--kMouEJJPsUT3oKYoQx2GrS99eBASI&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=Du_4ouqXXu6usKwpYY-C-A&amp;oh=00_Afg0XUXoU2fR-_CHo4cZH-fpkUuJIUesy8O4qJ228zoo7w&amp;oe=691D2F72</v>
+        <v>https://scontent.cdninstagram.com/v/t39.30808-6/571218357_1246549530833702_3884028946526260024_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=DLNlow1VftYQ7kNvwGh9E1z&amp;_nc_oc=Adk5I1nhOTZz9K1w8EuWUQ2N9meXrud9u9yWWaG4zGTMe-MPn5tEH_EdJiBEMBperyY&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=UVmwsMCgo2BwbhMquMpN3g&amp;oh=00_Afj9JlqXcBQpVVTwhsVeeDVihAXKGsB1wb2cQyxfXWuheA&amp;oe=691D2F72</v>
       </c>
       <c r="C81" t="str">
         <v>Image</v>
@@ -2699,7 +2699,7 @@
         <v>1</v>
       </c>
       <c r="B82" t="str">
-        <v>https://scontent.cdninstagram.com/v/t39.30808-6/571331711_1248201744001814_1853178542471537521_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=5iOa_E6a8nIQ7kNvwGtdvzH&amp;_nc_oc=AdkbSjKyfOGu7XGbyCjmzhxXJGmX214i-aoyygRoaKMNU3DuUFj0K2sFE6K2EnVeyCU&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=Du_4ouqXXu6usKwpYY-C-A&amp;oh=00_AfhelwFi4gdUnXnrP0TNiGTNg-LQ88JXhZTYbFle-3y3bg&amp;oe=691D3EBB</v>
+        <v>https://scontent.cdninstagram.com/v/t39.30808-6/571331711_1248201744001814_1853178542471537521_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=5iOa_E6a8nIQ7kNvwE6gAZr&amp;_nc_oc=AdlW8GvXDyASFgFoK5jn-Pck1Bm1uNB15Vl5mY78tEnHC91XvFbQDkzTW3YLtGU0H3k&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=UVmwsMCgo2BwbhMquMpN3g&amp;oh=00_Afh4WdhVwPkXwikToiPZOYUSy-yfBymuvogRrhaYMp6kgw&amp;oe=691D3EBB</v>
       </c>
       <c r="C82" t="str">
         <v>Image</v>
@@ -2725,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="B83" t="str">
-        <v>https://scontent.cdninstagram.com/v/t51.82787-15/572121945_18540931042035841_893827279987965030_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=dxrYgVTpDi4Q7kNvwGohUYC&amp;_nc_oc=Adkgmpt-BQfNq8MO-gDukMpA1BQ4-EMQ25g1U8al2odGf0vSM1Biz0CCeKQkHJ4OB3I&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=Du_4ouqXXu6usKwpYY-C-A&amp;oh=00_Afic0DVprSOCiQBt9Zn_DPzjHfGplGmezj6LV1Pn7wxcUA&amp;oe=691D2E5E</v>
+        <v>https://scontent.cdninstagram.com/v/t51.82787-15/572121945_18540931042035841_893827279987965030_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=dxrYgVTpDi4Q7kNvwGwsGjj&amp;_nc_oc=Admc1PBcl1YzDt4EYMLNw_wW-n6ncofIcW7TbP9CxezVRLUAErDZSfqyudvIfgMdSkU&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=UVmwsMCgo2BwbhMquMpN3g&amp;oh=00_Afh4ZrZCMo5DqvGibsRKaUcKoFYVE9earZHQD-Qt94o4UQ&amp;oe=691D2E5E</v>
       </c>
       <c r="C83" t="str">
         <v>Image</v>
@@ -2734,16 +2734,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E83">
-        <v>236265</v>
+        <v>235938</v>
       </c>
       <c r="F83">
         <v>235862</v>
       </c>
       <c r="G83">
-        <v>0.068708933445</v>
+        <v>0.068613837594</v>
       </c>
       <c r="H83">
-        <v>0.09050872697099999</v>
+        <v>0.09038345935320001</v>
       </c>
     </row>
     <row r="84">
@@ -3618,16 +3618,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E117">
-        <v>7210</v>
+        <v>7216</v>
       </c>
       <c r="F117">
         <v>22031</v>
       </c>
       <c r="G117">
-        <v>0.0020967617299999996</v>
+        <v>0.0020985066079999997</v>
       </c>
       <c r="H117">
-        <v>0.0027620168940000003</v>
+        <v>0.0027643153824000004</v>
       </c>
     </row>
     <row r="118">
@@ -3956,16 +3956,16 @@
         <v>text/html</v>
       </c>
       <c r="E130">
-        <v>8718</v>
+        <v>8713</v>
       </c>
       <c r="F130">
         <v>41338</v>
       </c>
       <c r="G130">
-        <v>0.0025353077339999993</v>
+        <v>0.0025338536689999995</v>
       </c>
       <c r="H130">
-        <v>0.0033397036452000005</v>
+        <v>0.0033377882382</v>
       </c>
     </row>
     <row r="131">
@@ -3999,25 +3999,25 @@
         <v>2</v>
       </c>
       <c r="B132" t="str">
-        <v>https://snapwidget.com/stylesheets/embed.vendor.min.760717b3f565c387.css</v>
+        <v>https://www.jevnaker.kommune.no/download/18.638b2cc2196f633e47f3e21e/1714030591045/open-sans-v40-latin-regular.woff2</v>
       </c>
       <c r="C132" t="str">
-        <v>Stylesheet</v>
+        <v>Font</v>
       </c>
       <c r="D132" t="str">
-        <v>text/css</v>
+        <v>font/woff2</v>
       </c>
       <c r="E132">
-        <v>999</v>
+        <v>18957</v>
       </c>
       <c r="F132">
-        <v>2359</v>
+        <v>18668</v>
       </c>
       <c r="G132">
-        <v>0.00029052218699999994</v>
+        <v>0.005512942040999999</v>
       </c>
       <c r="H132">
-        <v>0.0003826983186000001</v>
+        <v>0.007262074099800002</v>
       </c>
     </row>
     <row r="133">
@@ -4025,25 +4025,25 @@
         <v>2</v>
       </c>
       <c r="B133" t="str">
-        <v>https://snapwidget.com/stylesheets/embed.style.min.33d8714986a48d7b.css</v>
+        <v>https://www.jevnaker.kommune.no/download/18.638b2cc2196f633e47f3e161/1714030633316/open-sans-v40-latin-700.woff2</v>
       </c>
       <c r="C133" t="str">
-        <v>Stylesheet</v>
+        <v>Font</v>
       </c>
       <c r="D133" t="str">
-        <v>text/css</v>
+        <v>font/woff2</v>
       </c>
       <c r="E133">
-        <v>3983</v>
+        <v>18549</v>
       </c>
       <c r="F133">
-        <v>16311</v>
+        <v>18260</v>
       </c>
       <c r="G133">
-        <v>0.0011583081789999998</v>
+        <v>0.0053942903369999995</v>
       </c>
       <c r="H133">
-        <v>0.0015258132162000002</v>
+        <v>0.007105776888600002</v>
       </c>
     </row>
     <row r="134">
@@ -4051,25 +4051,25 @@
         <v>2</v>
       </c>
       <c r="B134" t="str">
-        <v>https://snapwidget.com/stylesheets/embed.grid.min.0d105dc3e2d4e747.css</v>
+        <v>https://www.jevnaker.kommune.no/download/18.638b2cc2196f633e47f3e15d/1714030625431/open-sans-v40-latin-600.woff2</v>
       </c>
       <c r="C134" t="str">
-        <v>Stylesheet</v>
+        <v>Font</v>
       </c>
       <c r="D134" t="str">
-        <v>text/css</v>
+        <v>font/woff2</v>
       </c>
       <c r="E134">
-        <v>1211</v>
+        <v>18885</v>
       </c>
       <c r="F134">
-        <v>2769</v>
+        <v>18596</v>
       </c>
       <c r="G134">
-        <v>0.00035217454299999996</v>
+        <v>0.005492003505</v>
       </c>
       <c r="H134">
-        <v>0.00046391157540000006</v>
+        <v>0.007234492238999999</v>
       </c>
     </row>
     <row r="135">
@@ -4077,25 +4077,25 @@
         <v>2</v>
       </c>
       <c r="B135" t="str">
-        <v>https://www.googletagmanager.com/gtag/js?id=G-E8WQDE3S74</v>
+        <v>https://www.jevnaker.kommune.no/appresource/2.638b2cc2196f633e47f3ad7c/12.638b2cc2196f633e47f41b0b/menuitems?svAjaxReqParam=ajax</v>
       </c>
       <c r="C135" t="str">
-        <v>Script</v>
+        <v>XHR</v>
       </c>
       <c r="D135" t="str">
-        <v>application/javascript</v>
+        <v>application/json</v>
       </c>
       <c r="E135">
-        <v>146003</v>
+        <v>855</v>
       </c>
       <c r="F135">
-        <v>428221</v>
+        <v>2281</v>
       </c>
       <c r="G135">
-        <v>0.042459570439</v>
+        <v>0.00024864511499999995</v>
       </c>
       <c r="H135">
-        <v>0.055931033644200004</v>
+        <v>0.000327534597</v>
       </c>
     </row>
     <row r="136">
@@ -4103,25 +4103,25 @@
         <v>2</v>
       </c>
       <c r="B136" t="str">
-        <v>https://snapwidget.com/js/embed.vendor.min.2f17f0b14ee46c5a.js</v>
+        <v>https://www.jevnaker.kommune.no/appresource/2.638b2cc2196f633e47f3ad7c/12.638b2cc2196f633e47f41383/menuitems?svAjaxReqParam=ajax</v>
       </c>
       <c r="C136" t="str">
-        <v>Script</v>
+        <v>XHR</v>
       </c>
       <c r="D136" t="str">
-        <v>application/javascript</v>
+        <v>application/json</v>
       </c>
       <c r="E136">
-        <v>1440</v>
+        <v>501</v>
       </c>
       <c r="F136">
-        <v>2529</v>
+        <v>700</v>
       </c>
       <c r="G136">
-        <v>0.00041877071999999995</v>
+        <v>0.000145697313</v>
       </c>
       <c r="H136">
-        <v>0.000551637216</v>
+        <v>0.0001919237814</v>
       </c>
     </row>
     <row r="137">
@@ -4129,25 +4129,25 @@
         <v>2</v>
       </c>
       <c r="B137" t="str">
-        <v>https://snapwidget.com/js/embed.main.min.65b73ba9362828bd.js</v>
+        <v>https://www.jevnaker.kommune.no/appresource/2.638b2cc2196f633e47f3ad7c/12.638b2cc2196f633e47f3edcd/menuitems?svAjaxReqParam=ajax</v>
       </c>
       <c r="C137" t="str">
-        <v>Script</v>
+        <v>XHR</v>
       </c>
       <c r="D137" t="str">
-        <v>application/javascript</v>
+        <v>application/json</v>
       </c>
       <c r="E137">
-        <v>1445</v>
+        <v>442</v>
       </c>
       <c r="F137">
-        <v>3096</v>
+        <v>244</v>
       </c>
       <c r="G137">
-        <v>0.0004202247849999999</v>
+        <v>0.000128539346</v>
       </c>
       <c r="H137">
-        <v>0.000553552623</v>
+        <v>0.0001693219788</v>
       </c>
     </row>
     <row r="138">
@@ -4155,25 +4155,25 @@
         <v>2</v>
       </c>
       <c r="B138" t="str">
-        <v>https://snapwidget.com/js/vendor/iframeResizer.contentWindow.min.0da4d54c7d115e53.js</v>
+        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/07c16d59554a729db34079442c91c27bb79e776ae9da8ea6eec5385cb6967383/envision/popper-7d0017b4b0eee8522ac7.js</v>
       </c>
       <c r="C138" t="str">
         <v>Script</v>
       </c>
       <c r="D138" t="str">
-        <v>application/javascript</v>
+        <v>text/javascript</v>
       </c>
       <c r="E138">
-        <v>6512</v>
+        <v>6812</v>
       </c>
       <c r="F138">
-        <v>21586</v>
+        <v>19517</v>
       </c>
       <c r="G138">
-        <v>0.0018937742559999998</v>
+        <v>0.001981018156</v>
       </c>
       <c r="H138">
-        <v>0.0024946260768</v>
+        <v>0.0026095504968</v>
       </c>
     </row>
     <row r="139">
@@ -4181,25 +4181,25 @@
         <v>2</v>
       </c>
       <c r="B139" t="str">
-        <v>https://static.cloudflareinsights.com/beacon.min.js/vcd15cbe7772f49c399c6a5babf22c1241717689176015</v>
+        <v>https://snapwidget.com/stylesheets/embed.vendor.min.760717b3f565c387.css</v>
       </c>
       <c r="C139" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D139" t="str">
-        <v>text/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E139">
-        <v>7105</v>
+        <v>1029</v>
       </c>
       <c r="F139">
-        <v>19948</v>
+        <v>2359</v>
       </c>
       <c r="G139">
-        <v>0.002066226365</v>
+        <v>0.000299246577</v>
       </c>
       <c r="H139">
-        <v>0.002721793347</v>
+        <v>0.0003941907606000001</v>
       </c>
     </row>
     <row r="140">
@@ -4207,25 +4207,25 @@
         <v>2</v>
       </c>
       <c r="B140" t="str">
-        <v>https://www.jevnaker.kommune.no/download/18.638b2cc2196f633e47f3e21e/1714030591045/open-sans-v40-latin-regular.woff2</v>
+        <v>https://snapwidget.com/stylesheets/embed.style.min.33d8714986a48d7b.css</v>
       </c>
       <c r="C140" t="str">
-        <v>Font</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D140" t="str">
-        <v>font/woff2</v>
+        <v>text/css</v>
       </c>
       <c r="E140">
-        <v>18957</v>
+        <v>3983</v>
       </c>
       <c r="F140">
-        <v>18668</v>
+        <v>16311</v>
       </c>
       <c r="G140">
-        <v>0.005512942040999999</v>
+        <v>0.0011583081789999998</v>
       </c>
       <c r="H140">
-        <v>0.007262074099800002</v>
+        <v>0.0015258132162000002</v>
       </c>
     </row>
     <row r="141">
@@ -4233,25 +4233,25 @@
         <v>2</v>
       </c>
       <c r="B141" t="str">
-        <v>https://www.jevnaker.kommune.no/download/18.638b2cc2196f633e47f3e161/1714030633316/open-sans-v40-latin-700.woff2</v>
+        <v>https://snapwidget.com/stylesheets/embed.grid.min.0d105dc3e2d4e747.css</v>
       </c>
       <c r="C141" t="str">
-        <v>Font</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D141" t="str">
-        <v>font/woff2</v>
+        <v>text/css</v>
       </c>
       <c r="E141">
-        <v>18549</v>
+        <v>1185</v>
       </c>
       <c r="F141">
-        <v>18260</v>
+        <v>2769</v>
       </c>
       <c r="G141">
-        <v>0.0053942903369999995</v>
+        <v>0.0003446134049999999</v>
       </c>
       <c r="H141">
-        <v>0.007105776888600002</v>
+        <v>0.0004539514590000001</v>
       </c>
     </row>
     <row r="142">
@@ -4259,25 +4259,25 @@
         <v>2</v>
       </c>
       <c r="B142" t="str">
-        <v>https://www.jevnaker.kommune.no/download/18.638b2cc2196f633e47f3e15d/1714030625431/open-sans-v40-latin-600.woff2</v>
+        <v>https://www.googletagmanager.com/gtag/js?id=G-E8WQDE3S74</v>
       </c>
       <c r="C142" t="str">
-        <v>Font</v>
+        <v>Script</v>
       </c>
       <c r="D142" t="str">
-        <v>font/woff2</v>
+        <v>application/javascript</v>
       </c>
       <c r="E142">
-        <v>18885</v>
+        <v>146005</v>
       </c>
       <c r="F142">
-        <v>18596</v>
+        <v>428221</v>
       </c>
       <c r="G142">
-        <v>0.005492003505</v>
+        <v>0.04246015206499999</v>
       </c>
       <c r="H142">
-        <v>0.007234492238999999</v>
+        <v>0.055931799807</v>
       </c>
     </row>
     <row r="143">
@@ -4285,25 +4285,25 @@
         <v>2</v>
       </c>
       <c r="B143" t="str">
-        <v>https://www.jevnaker.kommune.no/appresource/2.638b2cc2196f633e47f3ad7c/12.638b2cc2196f633e47f41b0b/menuitems?svAjaxReqParam=ajax</v>
+        <v>https://snapwidget.com/js/embed.vendor.min.2f17f0b14ee46c5a.js</v>
       </c>
       <c r="C143" t="str">
-        <v>XHR</v>
+        <v>Script</v>
       </c>
       <c r="D143" t="str">
-        <v>application/json</v>
+        <v>application/javascript</v>
       </c>
       <c r="E143">
-        <v>855</v>
+        <v>1441</v>
       </c>
       <c r="F143">
-        <v>2281</v>
+        <v>2529</v>
       </c>
       <c r="G143">
-        <v>0.00024864511499999995</v>
+        <v>0.00041906153299999996</v>
       </c>
       <c r="H143">
-        <v>0.000327534597</v>
+        <v>0.0005520202974000001</v>
       </c>
     </row>
     <row r="144">
@@ -4311,25 +4311,25 @@
         <v>2</v>
       </c>
       <c r="B144" t="str">
-        <v>https://www.google-analytics.com/analytics.js</v>
+        <v>https://snapwidget.com/js/embed.main.min.65b73ba9362828bd.js</v>
       </c>
       <c r="C144" t="str">
         <v>Script</v>
       </c>
       <c r="D144" t="str">
-        <v>text/javascript</v>
+        <v>application/javascript</v>
       </c>
       <c r="E144">
-        <v>21344</v>
+        <v>1458</v>
       </c>
       <c r="F144">
-        <v>52310</v>
+        <v>3096</v>
       </c>
       <c r="G144">
-        <v>0.006207112672</v>
+        <v>0.0004240053539999999</v>
       </c>
       <c r="H144">
-        <v>0.008176489401600002</v>
+        <v>0.0005585326812000001</v>
       </c>
     </row>
     <row r="145">
@@ -4337,25 +4337,25 @@
         <v>2</v>
       </c>
       <c r="B145" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAYAAAAfFcSJAAAAGXRFWHRTb2Z0d2FyZQBBZG9iZSBJb…</v>
+        <v>https://snapwidget.com/js/vendor/iframeResizer.contentWindow.min.0da4d54c7d115e53.js</v>
       </c>
       <c r="C145" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D145" t="str">
-        <v>image/png</v>
+        <v>application/javascript</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>6523</v>
       </c>
       <c r="F145">
-        <v>926</v>
+        <v>21586</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>0.0018969731989999996</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>0.0024988399722000003</v>
       </c>
     </row>
     <row r="146">
@@ -4363,7 +4363,7 @@
         <v>2</v>
       </c>
       <c r="B146" t="str">
-        <v>https://www.jevnaker.kommune.no/sitevision/system-resource/07c16d59554a729db34079442c91c27bb79e776ae9da8ea6eec5385cb6967383/envision/popper-7d0017b4b0eee8522ac7.js</v>
+        <v>https://static.cloudflareinsights.com/beacon.min.js/vcd15cbe7772f49c399c6a5babf22c1241717689176015</v>
       </c>
       <c r="C146" t="str">
         <v>Script</v>
@@ -4372,16 +4372,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E146">
-        <v>6812</v>
+        <v>7111</v>
       </c>
       <c r="F146">
-        <v>19517</v>
+        <v>19948</v>
       </c>
       <c r="G146">
-        <v>0.001981018156</v>
+        <v>0.0020679712429999995</v>
       </c>
       <c r="H146">
-        <v>0.0026095504968</v>
+        <v>0.0027240918354000006</v>
       </c>
     </row>
     <row r="147">
@@ -4389,25 +4389,25 @@
         <v>2</v>
       </c>
       <c r="B147" t="str">
-        <v>https://www.jevnaker.kommune.no/appresource/2.638b2cc2196f633e47f3ad7c/12.638b2cc2196f633e47f41383/menuitems?svAjaxReqParam=ajax</v>
+        <v>https://www.google-analytics.com/analytics.js</v>
       </c>
       <c r="C147" t="str">
-        <v>XHR</v>
+        <v>Script</v>
       </c>
       <c r="D147" t="str">
-        <v>application/json</v>
+        <v>text/javascript</v>
       </c>
       <c r="E147">
-        <v>501</v>
+        <v>21344</v>
       </c>
       <c r="F147">
-        <v>700</v>
+        <v>52310</v>
       </c>
       <c r="G147">
-        <v>0.000145697313</v>
+        <v>0.006207112672</v>
       </c>
       <c r="H147">
-        <v>0.0001919237814</v>
+        <v>0.008176489401600002</v>
       </c>
     </row>
     <row r="148">
@@ -4415,25 +4415,25 @@
         <v>2</v>
       </c>
       <c r="B148" t="str">
-        <v>https://www.jevnaker.kommune.no/appresource/2.638b2cc2196f633e47f3ad7c/12.638b2cc2196f633e47f3edcd/menuitems?svAjaxReqParam=ajax</v>
+        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAYAAAAfFcSJAAAAGXRFWHRTb2Z0d2FyZQBBZG9iZSBJb…</v>
       </c>
       <c r="C148" t="str">
-        <v>XHR</v>
+        <v>Image</v>
       </c>
       <c r="D148" t="str">
-        <v>application/json</v>
+        <v>image/png</v>
       </c>
       <c r="E148">
-        <v>442</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>244</v>
+        <v>926</v>
       </c>
       <c r="G148">
-        <v>0.000128539346</v>
+        <v>0</v>
       </c>
       <c r="H148">
-        <v>0.0001693219788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -4441,25 +4441,25 @@
         <v>2</v>
       </c>
       <c r="B149" t="str">
-        <v>https://snapwidget.com/images/post_type_icons.png</v>
+        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cd3/1759239074973/Avatar-Mine-Worker-Man--Streamline-Ultimate.svg</v>
       </c>
       <c r="C149" t="str">
         <v>Image</v>
       </c>
       <c r="D149" t="str">
-        <v>image/png</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E149">
-        <v>3179</v>
+        <v>2163</v>
       </c>
       <c r="F149">
-        <v>2671</v>
+        <v>1872</v>
       </c>
       <c r="G149">
-        <v>0.0009244945269999998</v>
+        <v>0.0006290285189999999</v>
       </c>
       <c r="H149">
-        <v>0.0012178157706</v>
+        <v>0.0008286050682000001</v>
       </c>
     </row>
     <row r="150">
@@ -4467,7 +4467,7 @@
         <v>2</v>
       </c>
       <c r="B150" t="str">
-        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cd3/1759239074973/Avatar-Mine-Worker-Man--Streamline-Ultimate.svg</v>
+        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47ce2/1759239075181/Tool-Box--Streamline-Ultimate.svg</v>
       </c>
       <c r="C150" t="str">
         <v>Image</v>
@@ -4476,16 +4476,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E150">
-        <v>2163</v>
+        <v>1381</v>
       </c>
       <c r="F150">
-        <v>1872</v>
+        <v>1090</v>
       </c>
       <c r="G150">
-        <v>0.0006290285189999999</v>
+        <v>0.00040161275299999995</v>
       </c>
       <c r="H150">
-        <v>0.0008286050682000001</v>
+        <v>0.0005290354134000001</v>
       </c>
     </row>
     <row r="151">
@@ -4493,7 +4493,7 @@
         <v>2</v>
       </c>
       <c r="B151" t="str">
-        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47ce2/1759239075181/Tool-Box--Streamline-Ultimate.svg</v>
+        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cdd/1759239075111/Safety-Fire-Extinguisher--Streamline-Ultimate.svg</v>
       </c>
       <c r="C151" t="str">
         <v>Image</v>
@@ -4502,16 +4502,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E151">
-        <v>1381</v>
+        <v>1433</v>
       </c>
       <c r="F151">
-        <v>1090</v>
+        <v>1142</v>
       </c>
       <c r="G151">
-        <v>0.00040161275299999995</v>
+        <v>0.00041673502899999994</v>
       </c>
       <c r="H151">
-        <v>0.0005290354134000001</v>
+        <v>0.0005489556462000001</v>
       </c>
     </row>
     <row r="152">
@@ -4519,7 +4519,7 @@
         <v>2</v>
       </c>
       <c r="B152" t="str">
-        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cdd/1759239075111/Safety-Fire-Extinguisher--Streamline-Ultimate.svg</v>
+        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47ce5/1759239075222/Water-Protection-Faucet--Streamline-Ultimate.svg</v>
       </c>
       <c r="C152" t="str">
         <v>Image</v>
@@ -4528,16 +4528,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E152">
-        <v>1433</v>
+        <v>1941</v>
       </c>
       <c r="F152">
-        <v>1142</v>
+        <v>1650</v>
       </c>
       <c r="G152">
-        <v>0.00041673502899999994</v>
+        <v>0.000564468033</v>
       </c>
       <c r="H152">
-        <v>0.0005489556462000001</v>
+        <v>0.0007435609974</v>
       </c>
     </row>
     <row r="153">
@@ -4545,7 +4545,7 @@
         <v>2</v>
       </c>
       <c r="B153" t="str">
-        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47ce5/1759239075222/Water-Protection-Faucet--Streamline-Ultimate.svg</v>
+        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cd6/1759239075018/Greek-God-Atlas--Streamline-Ultimate.svg</v>
       </c>
       <c r="C153" t="str">
         <v>Image</v>
@@ -4554,16 +4554,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E153">
-        <v>1941</v>
+        <v>1186</v>
       </c>
       <c r="F153">
-        <v>1650</v>
+        <v>2424</v>
       </c>
       <c r="G153">
-        <v>0.000564468033</v>
+        <v>0.00034490421799999993</v>
       </c>
       <c r="H153">
-        <v>0.0007435609974</v>
+        <v>0.00045433454039999995</v>
       </c>
     </row>
     <row r="154">
@@ -4571,7 +4571,7 @@
         <v>2</v>
       </c>
       <c r="B154" t="str">
-        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cd6/1759239075018/Greek-God-Atlas--Streamline-Ultimate.svg</v>
+        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47ce6/1759239075234/Wheelchair-Helper--Streamline-Ultimate.svg</v>
       </c>
       <c r="C154" t="str">
         <v>Image</v>
@@ -4580,16 +4580,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E154">
-        <v>1186</v>
+        <v>1754</v>
       </c>
       <c r="F154">
-        <v>2424</v>
+        <v>4084</v>
       </c>
       <c r="G154">
-        <v>0.00034490421799999993</v>
+        <v>0.0005100860019999999</v>
       </c>
       <c r="H154">
-        <v>0.00045433454039999995</v>
+        <v>0.0006719247756</v>
       </c>
     </row>
     <row r="155">
@@ -4597,7 +4597,7 @@
         <v>2</v>
       </c>
       <c r="B155" t="str">
-        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47ce6/1759239075234/Wheelchair-Helper--Streamline-Ultimate.svg</v>
+        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cd8/1759239075046/House-Home-Building-1--Streamline-Ultimate.svg</v>
       </c>
       <c r="C155" t="str">
         <v>Image</v>
@@ -4606,16 +4606,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E155">
-        <v>1754</v>
+        <v>1369</v>
       </c>
       <c r="F155">
-        <v>4084</v>
+        <v>1078</v>
       </c>
       <c r="G155">
-        <v>0.0005100860019999999</v>
+        <v>0.00039812299699999997</v>
       </c>
       <c r="H155">
-        <v>0.0006719247756</v>
+        <v>0.0005244384366</v>
       </c>
     </row>
     <row r="156">
@@ -4623,25 +4623,25 @@
         <v>2</v>
       </c>
       <c r="B156" t="str">
-        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cd8/1759239075046/House-Home-Building-1--Streamline-Ultimate.svg</v>
+        <v>https://snapwidget.com/images/post_type_icons.png</v>
       </c>
       <c r="C156" t="str">
         <v>Image</v>
       </c>
       <c r="D156" t="str">
-        <v>image/svg+xml</v>
+        <v>image/png</v>
       </c>
       <c r="E156">
-        <v>1369</v>
+        <v>3185</v>
       </c>
       <c r="F156">
-        <v>1078</v>
+        <v>2671</v>
       </c>
       <c r="G156">
-        <v>0.00039812299699999997</v>
+        <v>0.0009262394049999999</v>
       </c>
       <c r="H156">
-        <v>0.0005244384366</v>
+        <v>0.001220114259</v>
       </c>
     </row>
     <row r="157">
@@ -4658,13 +4658,13 @@
         <v>text/plain</v>
       </c>
       <c r="E157">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G157">
-        <v>0.00009858560699999999</v>
+        <v>0.00009887641999999998</v>
       </c>
       <c r="H157">
-        <v>0.00012986459460000003</v>
+        <v>0.000130247676</v>
       </c>
     </row>
     <row r="158">
@@ -4721,7 +4721,7 @@
         <v>2</v>
       </c>
       <c r="B160" t="str">
-        <v>https://scontent.cdninstagram.com/v/t39.30808-6/559008362_1232017585620230_1261247343826860851_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=T0D1_iRqtVIQ7kNvwF4oHnO&amp;_nc_oc=Adl3lrtsQ2G01wX5KMlcJRgi5U4dANnSq2oU7RVifCP-m7Gar4L4iH0jF_efHxkp5MU&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=Du_4ouqXXu6usKwpYY-C-A&amp;oh=00_AfjVPiw5hWW7NZIvCyfmvT77Npn05E3ySzFdGRrY9PPHfw&amp;oe=691D21D8</v>
+        <v>https://scontent.cdninstagram.com/v/t39.30808-6/559008362_1232017585620230_1261247343826860851_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=T0D1_iRqtVIQ7kNvwHrs70e&amp;_nc_oc=Admh9nxJTlhhNoBopks_Kh8tZXv6u_fuGHJV9Ih59RwjI3eCJqCEsw_saHDagF1s0zc&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=UVmwsMCgo2BwbhMquMpN3g&amp;oh=00_AfinIa69Y1jZ1nFvtRDVFzmoo_-JrlcwuIHKeIFDD_U-OA&amp;oe=691D21D8</v>
       </c>
       <c r="C160" t="str">
         <v>Image</v>
@@ -4730,16 +4730,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E160">
-        <v>593261</v>
+        <v>593388</v>
       </c>
       <c r="F160">
         <v>592779</v>
       </c>
       <c r="G160">
-        <v>0.17252801119299999</v>
+        <v>0.17256494444399997</v>
       </c>
       <c r="H160">
-        <v>0.22726725444540002</v>
+        <v>0.22731590578320005</v>
       </c>
     </row>
     <row r="161">
@@ -4747,7 +4747,7 @@
         <v>2</v>
       </c>
       <c r="B161" t="str">
-        <v>https://scontent.cdninstagram.com/v/t39.30808-6/565329695_1238170471671608_6196745189101583773_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=mCsHf0__u5QQ7kNvwHDDwdV&amp;_nc_oc=Adl5jnijQXhDUOYkThc0-P-YoQCgR2u6O6ziQ3ax_9uh5_fXhje6Py_1OcbOp3ImhAY&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=Du_4ouqXXu6usKwpYY-C-A&amp;oh=00_AfiME4QAjV0DRLt6rpmFCvTxW4XkJs4ZPIaHpGSgzOBHUQ&amp;oe=691D2421</v>
+        <v>https://scontent.cdninstagram.com/v/t39.30808-6/565329695_1238170471671608_6196745189101583773_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=mCsHf0__u5QQ7kNvwHg7Dt9&amp;_nc_oc=AdkFzpOPj8K5fGazJ4couwCuX7cQvtoLy9BE7KrFGyi-8V6M5GjIv2PGwtg1gwuhdsA&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=UVmwsMCgo2BwbhMquMpN3g&amp;oh=00_AfiHUhuO5fWEF5ydbKx2MsyLcTHAE2DEplLt9zgjNgImZQ&amp;oe=691D2421</v>
       </c>
       <c r="C161" t="str">
         <v>Image</v>
@@ -4773,7 +4773,7 @@
         <v>2</v>
       </c>
       <c r="B162" t="str">
-        <v>https://scontent.cdninstagram.com/v/t51.82787-15/571469270_18537882733035841_487393053145516240_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=jKmZ-LZ475YQ7kNvwFOnfQ4&amp;_nc_oc=Adms9KUcc-zLk8787wjf5dmgKK6omwuCLmFFgIy1da02KFozoF9chuR-VnJexisug-0&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=Du_4ouqXXu6usKwpYY-C-A&amp;oh=00_AfhVV9GEnzvUFa-kYHw7e8_tDW9YD-1AwZI-e9N4_phxCw&amp;oe=691D19A2</v>
+        <v>https://scontent.cdninstagram.com/v/t51.82787-15/571469270_18537882733035841_487393053145516240_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=jKmZ-LZ475YQ7kNvwHURCIF&amp;_nc_oc=Adn0Tp6M5aPJnpDUcd4EyPK7K1WEtqD9_SEBj4I7032enm4-eLENtclEunYfE-qcLRs&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=UVmwsMCgo2BwbhMquMpN3g&amp;oh=00_AfgxCcTXuP4rY4I4ufa9FDT9bPSkhLWdLLhjMlIDLOBQFQ&amp;oe=691D51E2</v>
       </c>
       <c r="C162" t="str">
         <v>Image</v>
@@ -4782,16 +4782,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E162">
-        <v>67736</v>
+        <v>67609</v>
       </c>
       <c r="F162">
         <v>67549</v>
       </c>
       <c r="G162">
-        <v>0.019698509367999998</v>
+        <v>0.019661576116999997</v>
       </c>
       <c r="H162">
-        <v>0.025948401710400002</v>
+        <v>0.0258997503726</v>
       </c>
     </row>
     <row r="163">
@@ -4799,7 +4799,7 @@
         <v>2</v>
       </c>
       <c r="B163" t="str">
-        <v>https://scontent.cdninstagram.com/v/t39.30808-6/571218357_1246549530833702_3884028946526260024_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=DLNlow1VftYQ7kNvwFAbQ96&amp;_nc_oc=AdlmPlorzlb0nITCmKatpVRKu9tTdZctFTt5--kMouEJJPsUT3oKYoQx2GrS99eBASI&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=Du_4ouqXXu6usKwpYY-C-A&amp;oh=00_Afg0XUXoU2fR-_CHo4cZH-fpkUuJIUesy8O4qJ228zoo7w&amp;oe=691D2F72</v>
+        <v>https://scontent.cdninstagram.com/v/t39.30808-6/571218357_1246549530833702_3884028946526260024_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=DLNlow1VftYQ7kNvwGh9E1z&amp;_nc_oc=Adk5I1nhOTZz9K1w8EuWUQ2N9meXrud9u9yWWaG4zGTMe-MPn5tEH_EdJiBEMBperyY&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=UVmwsMCgo2BwbhMquMpN3g&amp;oh=00_Afj9JlqXcBQpVVTwhsVeeDVihAXKGsB1wb2cQyxfXWuheA&amp;oe=691D2F72</v>
       </c>
       <c r="C163" t="str">
         <v>Image</v>
@@ -4808,16 +4808,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E163">
-        <v>316283</v>
+        <v>316156</v>
       </c>
       <c r="F163">
         <v>315697</v>
       </c>
       <c r="G163">
-        <v>0.09197920807899998</v>
+        <v>0.09194227482799998</v>
       </c>
       <c r="H163">
-        <v>0.1211621344362</v>
+        <v>0.12111348309840002</v>
       </c>
     </row>
     <row r="164">
@@ -4825,7 +4825,7 @@
         <v>2</v>
       </c>
       <c r="B164" t="str">
-        <v>https://scontent.cdninstagram.com/v/t39.30808-6/571331711_1248201744001814_1853178542471537521_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=5iOa_E6a8nIQ7kNvwGtdvzH&amp;_nc_oc=AdkbSjKyfOGu7XGbyCjmzhxXJGmX214i-aoyygRoaKMNU3DuUFj0K2sFE6K2EnVeyCU&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=Du_4ouqXXu6usKwpYY-C-A&amp;oh=00_AfhelwFi4gdUnXnrP0TNiGTNg-LQ88JXhZTYbFle-3y3bg&amp;oe=691D3EBB</v>
+        <v>https://scontent.cdninstagram.com/v/t39.30808-6/571331711_1248201744001814_1853178542471537521_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=5iOa_E6a8nIQ7kNvwE6gAZr&amp;_nc_oc=AdlW8GvXDyASFgFoK5jn-Pck1Bm1uNB15Vl5mY78tEnHC91XvFbQDkzTW3YLtGU0H3k&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=UVmwsMCgo2BwbhMquMpN3g&amp;oh=00_Afh4WdhVwPkXwikToiPZOYUSy-yfBymuvogRrhaYMp6kgw&amp;oe=691D3EBB</v>
       </c>
       <c r="C164" t="str">
         <v>Image</v>
@@ -4851,7 +4851,7 @@
         <v>2</v>
       </c>
       <c r="B165" t="str">
-        <v>https://scontent.cdninstagram.com/v/t51.82787-15/572121945_18540931042035841_893827279987965030_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=dxrYgVTpDi4Q7kNvwGohUYC&amp;_nc_oc=Adkgmpt-BQfNq8MO-gDukMpA1BQ4-EMQ25g1U8al2odGf0vSM1Biz0CCeKQkHJ4OB3I&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=Du_4ouqXXu6usKwpYY-C-A&amp;oh=00_Afic0DVprSOCiQBt9Zn_DPzjHfGplGmezj6LV1Pn7wxcUA&amp;oe=691D2E5E</v>
+        <v>https://scontent.cdninstagram.com/v/t51.82787-15/572121945_18540931042035841_893827279987965030_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=dxrYgVTpDi4Q7kNvwGwsGjj&amp;_nc_oc=Admc1PBcl1YzDt4EYMLNw_wW-n6ncofIcW7TbP9CxezVRLUAErDZSfqyudvIfgMdSkU&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=UVmwsMCgo2BwbhMquMpN3g&amp;oh=00_Afh4ZrZCMo5DqvGibsRKaUcKoFYVE9earZHQD-Qt94o4UQ&amp;oe=691D2E5E</v>
       </c>
       <c r="C165" t="str">
         <v>Image</v>
@@ -4860,16 +4860,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E165">
-        <v>236319</v>
+        <v>236192</v>
       </c>
       <c r="F165">
         <v>235862</v>
       </c>
       <c r="G165">
-        <v>0.06872463734699999</v>
+        <v>0.068687704096</v>
       </c>
       <c r="H165">
-        <v>0.0905294133666</v>
+        <v>0.0904807620288</v>
       </c>
     </row>
     <row r="166">
@@ -4886,16 +4886,16 @@
         <v>text/html</v>
       </c>
       <c r="E166">
-        <v>16704</v>
+        <v>16702</v>
       </c>
       <c r="F166">
         <v>87206</v>
       </c>
       <c r="G166">
-        <v>0.004857740351999999</v>
+        <v>0.004857158725999999</v>
       </c>
       <c r="H166">
-        <v>0.006398991705600001</v>
+        <v>0.0063982255428</v>
       </c>
     </row>
     <row r="167">
@@ -4903,7 +4903,7 @@
         <v>3</v>
       </c>
       <c r="B167" t="str">
-        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/1763011793025/sitevision-responsive-grids.css?gridConfigs=651.638b2cc2196f633e47f3ae1a_FLUID_GRID&amp;pushPull=false</v>
+        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/1763012651802/sitevision-responsive-grids.css?gridConfigs=651.638b2cc2196f633e47f3ae1a_FLUID_GRID&amp;pushPull=false</v>
       </c>
       <c r="C167" t="str">
         <v>Stylesheet</v>
@@ -4929,7 +4929,7 @@
         <v>3</v>
       </c>
       <c r="B168" t="str">
-        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/109/6824/print/SiteVision.css</v>
+        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/119/5010/print/SiteVision.css</v>
       </c>
       <c r="C168" t="str">
         <v>Stylesheet</v>
@@ -5007,7 +5007,7 @@
         <v>3</v>
       </c>
       <c r="B171" t="str">
-        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/91.638b2cc2196f633e47f3b486/1763012010965/0/sv-template-asset.css</v>
+        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/91.638b2cc2196f633e47f3b486/1763012815709/0/sv-template-asset.css</v>
       </c>
       <c r="C171" t="str">
         <v>Stylesheet</v>
@@ -5033,7 +5033,7 @@
         <v>3</v>
       </c>
       <c r="B172" t="str">
-        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/1763012010760/sitevision-spacing.css</v>
+        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/1763012815430/sitevision-spacing.css</v>
       </c>
       <c r="C172" t="str">
         <v>Stylesheet</v>
@@ -5744,16 +5744,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E199">
-        <v>7212</v>
+        <v>7210</v>
       </c>
       <c r="F199">
         <v>22031</v>
       </c>
       <c r="G199">
-        <v>0.0020973433559999997</v>
+        <v>0.0020967617299999996</v>
       </c>
       <c r="H199">
-        <v>0.0027627830568</v>
+        <v>0.0027620168940000003</v>
       </c>
     </row>
     <row r="200">
@@ -5865,7 +5865,7 @@
         <v>3</v>
       </c>
       <c r="B204" t="str">
-        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/91.638b2cc2196f633e47f3b486/1763012010971/BODY/0/sv-template-asset.js</v>
+        <v>https://www.jevnaker.kommune.no/2.638b2cc2196f633e47f3ad7c/91.638b2cc2196f633e47f3b486/1763012815720/BODY/0/sv-template-asset.js</v>
       </c>
       <c r="C204" t="str">
         <v>Script</v>
@@ -5926,16 +5926,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E206">
-        <v>22977</v>
+        <v>22978</v>
       </c>
       <c r="F206">
         <v>69596</v>
       </c>
       <c r="G206">
-        <v>0.006682010300999999</v>
+        <v>0.006682301113999999</v>
       </c>
       <c r="H206">
-        <v>0.0088020613278</v>
+        <v>0.0088024444092</v>
       </c>
     </row>
     <row r="207">
@@ -5952,16 +5952,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E207">
-        <v>41219</v>
+        <v>41227</v>
       </c>
       <c r="F207">
         <v>138254</v>
       </c>
       <c r="G207">
-        <v>0.011987021046999998</v>
+        <v>0.011989347550999998</v>
       </c>
       <c r="H207">
-        <v>0.015790232226600004</v>
+        <v>0.015793296877799998</v>
       </c>
     </row>
     <row r="208">
@@ -5978,16 +5978,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E208">
-        <v>24570</v>
+        <v>24571</v>
       </c>
       <c r="F208">
         <v>74871</v>
       </c>
       <c r="G208">
-        <v>0.00714527541</v>
+        <v>0.0071455662229999994</v>
       </c>
       <c r="H208">
-        <v>0.009412309998000001</v>
+        <v>0.009412693079400002</v>
       </c>
     </row>
     <row r="209">
@@ -6004,16 +6004,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E209">
-        <v>19906</v>
+        <v>19913</v>
       </c>
       <c r="F209">
         <v>58733</v>
       </c>
       <c r="G209">
-        <v>0.005788923577999999</v>
+        <v>0.005790959268999999</v>
       </c>
       <c r="H209">
-        <v>0.0076256183484000005</v>
+        <v>0.007628299918200001</v>
       </c>
     </row>
     <row r="210">
@@ -6082,16 +6082,16 @@
         <v>text/html</v>
       </c>
       <c r="E212">
-        <v>8725</v>
+        <v>8720</v>
       </c>
       <c r="F212">
         <v>41338</v>
       </c>
       <c r="G212">
-        <v>0.0025373434249999997</v>
+        <v>0.0025358893599999994</v>
       </c>
       <c r="H212">
-        <v>0.0033423852150000002</v>
+        <v>0.0033404698080000002</v>
       </c>
     </row>
     <row r="213">
@@ -6307,25 +6307,25 @@
         <v>3</v>
       </c>
       <c r="B221" t="str">
-        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cd3/1759239074973/Avatar-Mine-Worker-Man--Streamline-Ultimate.svg</v>
+        <v>https://snapwidget.com/stylesheets/embed.vendor.min.760717b3f565c387.css</v>
       </c>
       <c r="C221" t="str">
-        <v>Image</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D221" t="str">
-        <v>image/svg+xml</v>
+        <v>text/css</v>
       </c>
       <c r="E221">
-        <v>2163</v>
+        <v>1030</v>
       </c>
       <c r="F221">
-        <v>1872</v>
+        <v>2359</v>
       </c>
       <c r="G221">
-        <v>0.0006290285189999999</v>
+        <v>0.0002995373899999999</v>
       </c>
       <c r="H221">
-        <v>0.0008286050682000001</v>
+        <v>0.00039457384200000006</v>
       </c>
     </row>
     <row r="222">
@@ -6333,25 +6333,25 @@
         <v>3</v>
       </c>
       <c r="B222" t="str">
-        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47ce2/1759239075181/Tool-Box--Streamline-Ultimate.svg</v>
+        <v>https://snapwidget.com/stylesheets/embed.style.min.33d8714986a48d7b.css</v>
       </c>
       <c r="C222" t="str">
-        <v>Image</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D222" t="str">
-        <v>image/svg+xml</v>
+        <v>text/css</v>
       </c>
       <c r="E222">
-        <v>1381</v>
+        <v>3989</v>
       </c>
       <c r="F222">
-        <v>1090</v>
+        <v>16311</v>
       </c>
       <c r="G222">
-        <v>0.00040161275299999995</v>
+        <v>0.0011600530569999999</v>
       </c>
       <c r="H222">
-        <v>0.0005290354134000001</v>
+        <v>0.0015281117046000003</v>
       </c>
     </row>
     <row r="223">
@@ -6359,25 +6359,25 @@
         <v>3</v>
       </c>
       <c r="B223" t="str">
-        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cdd/1759239075111/Safety-Fire-Extinguisher--Streamline-Ultimate.svg</v>
+        <v>https://snapwidget.com/stylesheets/embed.grid.min.0d105dc3e2d4e747.css</v>
       </c>
       <c r="C223" t="str">
-        <v>Image</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D223" t="str">
-        <v>image/svg+xml</v>
+        <v>text/css</v>
       </c>
       <c r="E223">
-        <v>1433</v>
+        <v>1188</v>
       </c>
       <c r="F223">
-        <v>1142</v>
+        <v>2769</v>
       </c>
       <c r="G223">
-        <v>0.00041673502899999994</v>
+        <v>0.00034548584399999996</v>
       </c>
       <c r="H223">
-        <v>0.0005489556462000001</v>
+        <v>0.00045510070320000013</v>
       </c>
     </row>
     <row r="224">
@@ -6385,25 +6385,25 @@
         <v>3</v>
       </c>
       <c r="B224" t="str">
-        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47ce5/1759239075222/Water-Protection-Faucet--Streamline-Ultimate.svg</v>
+        <v>https://www.googletagmanager.com/gtag/js?id=G-E8WQDE3S74</v>
       </c>
       <c r="C224" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D224" t="str">
-        <v>image/svg+xml</v>
+        <v>application/javascript</v>
       </c>
       <c r="E224">
-        <v>1941</v>
+        <v>146003</v>
       </c>
       <c r="F224">
-        <v>1650</v>
+        <v>428221</v>
       </c>
       <c r="G224">
-        <v>0.000564468033</v>
+        <v>0.042459570439</v>
       </c>
       <c r="H224">
-        <v>0.0007435609974</v>
+        <v>0.055931033644200004</v>
       </c>
     </row>
     <row r="225">
@@ -6411,25 +6411,25 @@
         <v>3</v>
       </c>
       <c r="B225" t="str">
-        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cd6/1759239075018/Greek-God-Atlas--Streamline-Ultimate.svg</v>
+        <v>https://snapwidget.com/js/embed.vendor.min.2f17f0b14ee46c5a.js</v>
       </c>
       <c r="C225" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D225" t="str">
-        <v>image/svg+xml</v>
+        <v>application/javascript</v>
       </c>
       <c r="E225">
-        <v>1186</v>
+        <v>1444</v>
       </c>
       <c r="F225">
-        <v>2424</v>
+        <v>2529</v>
       </c>
       <c r="G225">
-        <v>0.00034490421799999993</v>
+        <v>0.0004199339719999999</v>
       </c>
       <c r="H225">
-        <v>0.00045433454039999995</v>
+        <v>0.0005531695415999999</v>
       </c>
     </row>
     <row r="226">
@@ -6437,25 +6437,25 @@
         <v>3</v>
       </c>
       <c r="B226" t="str">
-        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47ce6/1759239075234/Wheelchair-Helper--Streamline-Ultimate.svg</v>
+        <v>https://snapwidget.com/js/embed.main.min.65b73ba9362828bd.js</v>
       </c>
       <c r="C226" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D226" t="str">
-        <v>image/svg+xml</v>
+        <v>application/javascript</v>
       </c>
       <c r="E226">
-        <v>1754</v>
+        <v>1427</v>
       </c>
       <c r="F226">
-        <v>4084</v>
+        <v>3096</v>
       </c>
       <c r="G226">
-        <v>0.0005100860019999999</v>
+        <v>0.00041499015099999995</v>
       </c>
       <c r="H226">
-        <v>0.0006719247756</v>
+        <v>0.0005466571578</v>
       </c>
     </row>
     <row r="227">
@@ -6463,25 +6463,25 @@
         <v>3</v>
       </c>
       <c r="B227" t="str">
-        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cd8/1759239075046/House-Home-Building-1--Streamline-Ultimate.svg</v>
+        <v>https://snapwidget.com/js/vendor/iframeResizer.contentWindow.min.0da4d54c7d115e53.js</v>
       </c>
       <c r="C227" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D227" t="str">
-        <v>image/svg+xml</v>
+        <v>application/javascript</v>
       </c>
       <c r="E227">
-        <v>1369</v>
+        <v>6544</v>
       </c>
       <c r="F227">
-        <v>1078</v>
+        <v>21586</v>
       </c>
       <c r="G227">
-        <v>0.00039812299699999997</v>
+        <v>0.0019030802719999997</v>
       </c>
       <c r="H227">
-        <v>0.0005244384366</v>
+        <v>0.0025068846816000004</v>
       </c>
     </row>
     <row r="228">
@@ -6489,25 +6489,25 @@
         <v>3</v>
       </c>
       <c r="B228" t="str">
-        <v>https://snapwidget.com/stylesheets/embed.vendor.min.760717b3f565c387.css</v>
+        <v>https://static.cloudflareinsights.com/beacon.min.js/vcd15cbe7772f49c399c6a5babf22c1241717689176015</v>
       </c>
       <c r="C228" t="str">
-        <v>Stylesheet</v>
+        <v>Script</v>
       </c>
       <c r="D228" t="str">
-        <v>text/css</v>
+        <v>text/javascript</v>
       </c>
       <c r="E228">
-        <v>1003</v>
+        <v>7105</v>
       </c>
       <c r="F228">
-        <v>2359</v>
+        <v>19948</v>
       </c>
       <c r="G228">
-        <v>0.00029168543899999995</v>
+        <v>0.002066226365</v>
       </c>
       <c r="H228">
-        <v>0.00038423064420000004</v>
+        <v>0.002721793347</v>
       </c>
     </row>
     <row r="229">
@@ -6515,25 +6515,25 @@
         <v>3</v>
       </c>
       <c r="B229" t="str">
-        <v>https://snapwidget.com/stylesheets/embed.style.min.33d8714986a48d7b.css</v>
+        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cd3/1759239074973/Avatar-Mine-Worker-Man--Streamline-Ultimate.svg</v>
       </c>
       <c r="C229" t="str">
-        <v>Stylesheet</v>
+        <v>Image</v>
       </c>
       <c r="D229" t="str">
-        <v>text/css</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E229">
-        <v>3982</v>
+        <v>2163</v>
       </c>
       <c r="F229">
-        <v>16311</v>
+        <v>1872</v>
       </c>
       <c r="G229">
-        <v>0.0011580173659999997</v>
+        <v>0.0006290285189999999</v>
       </c>
       <c r="H229">
-        <v>0.0015254301348000003</v>
+        <v>0.0008286050682000001</v>
       </c>
     </row>
     <row r="230">
@@ -6541,25 +6541,25 @@
         <v>3</v>
       </c>
       <c r="B230" t="str">
-        <v>https://snapwidget.com/stylesheets/embed.grid.min.0d105dc3e2d4e747.css</v>
+        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47ce2/1759239075181/Tool-Box--Streamline-Ultimate.svg</v>
       </c>
       <c r="C230" t="str">
-        <v>Stylesheet</v>
+        <v>Image</v>
       </c>
       <c r="D230" t="str">
-        <v>text/css</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E230">
-        <v>1214</v>
+        <v>1381</v>
       </c>
       <c r="F230">
-        <v>2769</v>
+        <v>1090</v>
       </c>
       <c r="G230">
-        <v>0.00035304698199999996</v>
+        <v>0.00040161275299999995</v>
       </c>
       <c r="H230">
-        <v>0.0004650608196</v>
+        <v>0.0005290354134000001</v>
       </c>
     </row>
     <row r="231">
@@ -6567,25 +6567,25 @@
         <v>3</v>
       </c>
       <c r="B231" t="str">
-        <v>https://www.googletagmanager.com/gtag/js?id=G-E8WQDE3S74</v>
+        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cdd/1759239075111/Safety-Fire-Extinguisher--Streamline-Ultimate.svg</v>
       </c>
       <c r="C231" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D231" t="str">
-        <v>application/javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E231">
-        <v>146017</v>
+        <v>1433</v>
       </c>
       <c r="F231">
-        <v>428241</v>
+        <v>1142</v>
       </c>
       <c r="G231">
-        <v>0.042463641820999994</v>
+        <v>0.00041673502899999994</v>
       </c>
       <c r="H231">
-        <v>0.055936396783799996</v>
+        <v>0.0005489556462000001</v>
       </c>
     </row>
     <row r="232">
@@ -6593,25 +6593,25 @@
         <v>3</v>
       </c>
       <c r="B232" t="str">
-        <v>https://snapwidget.com/js/embed.vendor.min.2f17f0b14ee46c5a.js</v>
+        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47ce5/1759239075222/Water-Protection-Faucet--Streamline-Ultimate.svg</v>
       </c>
       <c r="C232" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D232" t="str">
-        <v>application/javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E232">
-        <v>1466</v>
+        <v>1941</v>
       </c>
       <c r="F232">
-        <v>2529</v>
+        <v>1650</v>
       </c>
       <c r="G232">
-        <v>0.00042633185799999994</v>
+        <v>0.000564468033</v>
       </c>
       <c r="H232">
-        <v>0.0005615973324</v>
+        <v>0.0007435609974</v>
       </c>
     </row>
     <row r="233">
@@ -6619,25 +6619,25 @@
         <v>3</v>
       </c>
       <c r="B233" t="str">
-        <v>https://snapwidget.com/js/embed.main.min.65b73ba9362828bd.js</v>
+        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cd6/1759239075018/Greek-God-Atlas--Streamline-Ultimate.svg</v>
       </c>
       <c r="C233" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D233" t="str">
-        <v>application/javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E233">
-        <v>1424</v>
+        <v>1186</v>
       </c>
       <c r="F233">
-        <v>3096</v>
+        <v>2424</v>
       </c>
       <c r="G233">
-        <v>0.00041411771199999995</v>
+        <v>0.00034490421799999993</v>
       </c>
       <c r="H233">
-        <v>0.0005455079136000001</v>
+        <v>0.00045433454039999995</v>
       </c>
     </row>
     <row r="234">
@@ -6645,25 +6645,25 @@
         <v>3</v>
       </c>
       <c r="B234" t="str">
-        <v>https://snapwidget.com/js/vendor/iframeResizer.contentWindow.min.0da4d54c7d115e53.js</v>
+        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47ce6/1759239075234/Wheelchair-Helper--Streamline-Ultimate.svg</v>
       </c>
       <c r="C234" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D234" t="str">
-        <v>application/javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E234">
-        <v>6515</v>
+        <v>1754</v>
       </c>
       <c r="F234">
-        <v>21586</v>
+        <v>4084</v>
       </c>
       <c r="G234">
-        <v>0.0018946466949999999</v>
+        <v>0.0005100860019999999</v>
       </c>
       <c r="H234">
-        <v>0.0024957753210000004</v>
+        <v>0.0006719247756</v>
       </c>
     </row>
     <row r="235">
@@ -6671,25 +6671,25 @@
         <v>3</v>
       </c>
       <c r="B235" t="str">
-        <v>https://static.cloudflareinsights.com/beacon.min.js/vcd15cbe7772f49c399c6a5babf22c1241717689176015</v>
+        <v>https://www.jevnaker.kommune.no/images/18.4f307a8619993b79c47cd8/1759239075046/House-Home-Building-1--Streamline-Ultimate.svg</v>
       </c>
       <c r="C235" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D235" t="str">
-        <v>text/javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E235">
-        <v>7110</v>
+        <v>1369</v>
       </c>
       <c r="F235">
-        <v>19948</v>
+        <v>1078</v>
       </c>
       <c r="G235">
-        <v>0.0020676804299999997</v>
+        <v>0.00039812299699999997</v>
       </c>
       <c r="H235">
-        <v>0.0027237087540000005</v>
+        <v>0.0005244384366</v>
       </c>
     </row>
     <row r="236">
@@ -6758,16 +6758,16 @@
         <v>image/png</v>
       </c>
       <c r="E238">
-        <v>3161</v>
+        <v>3184</v>
       </c>
       <c r="F238">
         <v>2671</v>
       </c>
       <c r="G238">
-        <v>0.0009192598929999999</v>
+        <v>0.0009259485919999999</v>
       </c>
       <c r="H238">
-        <v>0.0012109203053999999</v>
+        <v>0.0012197311776</v>
       </c>
     </row>
     <row r="239">
@@ -6784,13 +6784,13 @@
         <v>text/plain</v>
       </c>
       <c r="E239">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="G239">
-        <v>0.00009742235499999998</v>
+        <v>0.00009974885899999998</v>
       </c>
       <c r="H239">
-        <v>0.00012833226900000003</v>
+        <v>0.0001313969202</v>
       </c>
     </row>
     <row r="240">
@@ -6847,7 +6847,7 @@
         <v>3</v>
       </c>
       <c r="B242" t="str">
-        <v>https://scontent.cdninstagram.com/v/t39.30808-6/559008362_1232017585620230_1261247343826860851_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=T0D1_iRqtVIQ7kNvwF4oHnO&amp;_nc_oc=Adl3lrtsQ2G01wX5KMlcJRgi5U4dANnSq2oU7RVifCP-m7Gar4L4iH0jF_efHxkp5MU&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=Du_4ouqXXu6usKwpYY-C-A&amp;oh=00_AfjVPiw5hWW7NZIvCyfmvT77Npn05E3ySzFdGRrY9PPHfw&amp;oe=691D21D8</v>
+        <v>https://scontent.cdninstagram.com/v/t39.30808-6/559008362_1232017585620230_1261247343826860851_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=T0D1_iRqtVIQ7kNvwHrs70e&amp;_nc_oc=Admh9nxJTlhhNoBopks_Kh8tZXv6u_fuGHJV9Ih59RwjI3eCJqCEsw_saHDagF1s0zc&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=UVmwsMCgo2BwbhMquMpN3g&amp;oh=00_AfinIa69Y1jZ1nFvtRDVFzmoo_-JrlcwuIHKeIFDD_U-OA&amp;oe=691D21D8</v>
       </c>
       <c r="C242" t="str">
         <v>Image</v>
@@ -6856,16 +6856,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E242">
-        <v>593007</v>
+        <v>592880</v>
       </c>
       <c r="F242">
         <v>592779</v>
       </c>
       <c r="G242">
-        <v>0.17245414469099998</v>
+        <v>0.17241721143999997</v>
       </c>
       <c r="H242">
-        <v>0.2271699517698</v>
+        <v>0.227121300432</v>
       </c>
     </row>
     <row r="243">
@@ -6873,7 +6873,7 @@
         <v>3</v>
       </c>
       <c r="B243" t="str">
-        <v>https://scontent.cdninstagram.com/v/t39.30808-6/565329695_1238170471671608_6196745189101583773_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=mCsHf0__u5QQ7kNvwHDDwdV&amp;_nc_oc=Adl5jnijQXhDUOYkThc0-P-YoQCgR2u6O6ziQ3ax_9uh5_fXhje6Py_1OcbOp3ImhAY&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=Du_4ouqXXu6usKwpYY-C-A&amp;oh=00_AfiME4QAjV0DRLt6rpmFCvTxW4XkJs4ZPIaHpGSgzOBHUQ&amp;oe=691D2421</v>
+        <v>https://scontent.cdninstagram.com/v/t39.30808-6/565329695_1238170471671608_6196745189101583773_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=mCsHf0__u5QQ7kNvwHg7Dt9&amp;_nc_oc=AdkFzpOPj8K5fGazJ4couwCuX7cQvtoLy9BE7KrFGyi-8V6M5GjIv2PGwtg1gwuhdsA&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=UVmwsMCgo2BwbhMquMpN3g&amp;oh=00_AfiHUhuO5fWEF5ydbKx2MsyLcTHAE2DEplLt9zgjNgImZQ&amp;oe=691D2421</v>
       </c>
       <c r="C243" t="str">
         <v>Image</v>
@@ -6882,16 +6882,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E243">
-        <v>279045</v>
+        <v>278791</v>
       </c>
       <c r="F243">
         <v>278586</v>
       </c>
       <c r="G243">
-        <v>0.08114991358499998</v>
+        <v>0.081076047083</v>
       </c>
       <c r="H243">
-        <v>0.10689694926300002</v>
+        <v>0.10679964658740003</v>
       </c>
     </row>
     <row r="244">
@@ -6899,7 +6899,7 @@
         <v>3</v>
       </c>
       <c r="B244" t="str">
-        <v>https://scontent.cdninstagram.com/v/t51.82787-15/571469270_18537882733035841_487393053145516240_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=jKmZ-LZ475YQ7kNvwFOnfQ4&amp;_nc_oc=Adms9KUcc-zLk8787wjf5dmgKK6omwuCLmFFgIy1da02KFozoF9chuR-VnJexisug-0&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=Du_4ouqXXu6usKwpYY-C-A&amp;oh=00_AfhVV9GEnzvUFa-kYHw7e8_tDW9YD-1AwZI-e9N4_phxCw&amp;oe=691D19A2</v>
+        <v>https://scontent.cdninstagram.com/v/t51.82787-15/571469270_18537882733035841_487393053145516240_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=jKmZ-LZ475YQ7kNvwHURCIF&amp;_nc_oc=Adn0Tp6M5aPJnpDUcd4EyPK7K1WEtqD9_SEBj4I7032enm4-eLENtclEunYfE-qcLRs&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=UVmwsMCgo2BwbhMquMpN3g&amp;oh=00_AfgxCcTXuP4rY4I4ufa9FDT9bPSkhLWdLLhjMlIDLOBQFQ&amp;oe=691D51E2</v>
       </c>
       <c r="C244" t="str">
         <v>Image</v>
@@ -6925,7 +6925,7 @@
         <v>3</v>
       </c>
       <c r="B245" t="str">
-        <v>https://scontent.cdninstagram.com/v/t39.30808-6/571218357_1246549530833702_3884028946526260024_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=DLNlow1VftYQ7kNvwFAbQ96&amp;_nc_oc=AdlmPlorzlb0nITCmKatpVRKu9tTdZctFTt5--kMouEJJPsUT3oKYoQx2GrS99eBASI&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=Du_4ouqXXu6usKwpYY-C-A&amp;oh=00_Afg0XUXoU2fR-_CHo4cZH-fpkUuJIUesy8O4qJ228zoo7w&amp;oe=691D2F72</v>
+        <v>https://scontent.cdninstagram.com/v/t39.30808-6/571218357_1246549530833702_3884028946526260024_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=DLNlow1VftYQ7kNvwGh9E1z&amp;_nc_oc=Adk5I1nhOTZz9K1w8EuWUQ2N9meXrud9u9yWWaG4zGTMe-MPn5tEH_EdJiBEMBperyY&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=UVmwsMCgo2BwbhMquMpN3g&amp;oh=00_Afj9JlqXcBQpVVTwhsVeeDVihAXKGsB1wb2cQyxfXWuheA&amp;oe=691D2F72</v>
       </c>
       <c r="C245" t="str">
         <v>Image</v>
@@ -6934,16 +6934,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E245">
-        <v>316283</v>
+        <v>316029</v>
       </c>
       <c r="F245">
         <v>315697</v>
       </c>
       <c r="G245">
-        <v>0.09197920807899998</v>
+        <v>0.09190534157699998</v>
       </c>
       <c r="H245">
-        <v>0.1211621344362</v>
+        <v>0.12106483176060001</v>
       </c>
     </row>
     <row r="246">
@@ -6951,7 +6951,7 @@
         <v>3</v>
       </c>
       <c r="B246" t="str">
-        <v>https://scontent.cdninstagram.com/v/t39.30808-6/571331711_1248201744001814_1853178542471537521_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=5iOa_E6a8nIQ7kNvwGtdvzH&amp;_nc_oc=AdkbSjKyfOGu7XGbyCjmzhxXJGmX214i-aoyygRoaKMNU3DuUFj0K2sFE6K2EnVeyCU&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=Du_4ouqXXu6usKwpYY-C-A&amp;oh=00_AfhelwFi4gdUnXnrP0TNiGTNg-LQ88JXhZTYbFle-3y3bg&amp;oe=691D3EBB</v>
+        <v>https://scontent.cdninstagram.com/v/t39.30808-6/571331711_1248201744001814_1853178542471537521_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0FST1VTRUxfSVRFTS5iZXN0X2ltYWdlX3VybGdlbi5DMyJ9&amp;_nc_ohc=5iOa_E6a8nIQ7kNvwE6gAZr&amp;_nc_oc=AdlW8GvXDyASFgFoK5jn-Pck1Bm1uNB15Vl5mY78tEnHC91XvFbQDkzTW3YLtGU0H3k&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=UVmwsMCgo2BwbhMquMpN3g&amp;oh=00_Afh4WdhVwPkXwikToiPZOYUSy-yfBymuvogRrhaYMp6kgw&amp;oe=691D3EBB</v>
       </c>
       <c r="C246" t="str">
         <v>Image</v>
@@ -6977,7 +6977,7 @@
         <v>3</v>
       </c>
       <c r="B247" t="str">
-        <v>https://scontent.cdninstagram.com/v/t51.82787-15/572121945_18540931042035841_893827279987965030_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=dxrYgVTpDi4Q7kNvwGohUYC&amp;_nc_oc=Adkgmpt-BQfNq8MO-gDukMpA1BQ4-EMQ25g1U8al2odGf0vSM1Biz0CCeKQkHJ4OB3I&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=Du_4ouqXXu6usKwpYY-C-A&amp;oh=00_Afic0DVprSOCiQBt9Zn_DPzjHfGplGmezj6LV1Pn7wxcUA&amp;oe=691D2E5E</v>
+        <v>https://scontent.cdninstagram.com/v/t51.82787-15/572121945_18540931042035841_893827279987965030_n.jpg?stp=dst-jpg_e35_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=18de74&amp;efg=eyJlZmdfdGFnIjoiQ0xJUFMuYmVzdF9pbWFnZV91cmxnZW4uQzMifQ%3D%3D&amp;_nc_ohc=dxrYgVTpDi4Q7kNvwGwsGjj&amp;_nc_oc=Admc1PBcl1YzDt4EYMLNw_wW-n6ncofIcW7TbP9CxezVRLUAErDZSfqyudvIfgMdSkU&amp;_nc_zt=23&amp;_nc_ht=scontent.cdninstagram.com&amp;edm=ANo9K5cEAAAA&amp;_nc_gid=UVmwsMCgo2BwbhMquMpN3g&amp;oh=00_Afh4ZrZCMo5DqvGibsRKaUcKoFYVE9earZHQD-Qt94o4UQ&amp;oe=691D2E5E</v>
       </c>
       <c r="C247" t="str">
         <v>Image</v>
@@ -6986,16 +6986,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E247">
-        <v>236065</v>
+        <v>236319</v>
       </c>
       <c r="F247">
         <v>235862</v>
       </c>
       <c r="G247">
-        <v>0.068650770845</v>
+        <v>0.06872463734699999</v>
       </c>
       <c r="H247">
-        <v>0.09043211069100002</v>
+        <v>0.0905294133666</v>
       </c>
     </row>
   </sheetData>
@@ -7034,7 +7034,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>76274</v>
+        <v>76255</v>
       </c>
       <c r="D2">
         <v>385632</v>
@@ -7048,7 +7048,7 @@
         <v>45</v>
       </c>
       <c r="C3">
-        <v>176035</v>
+        <v>176055</v>
       </c>
       <c r="D3">
         <v>1654917</v>
@@ -7062,10 +7062,10 @@
         <v>57</v>
       </c>
       <c r="C4">
-        <v>1392481</v>
+        <v>1392523</v>
       </c>
       <c r="D4">
-        <v>4396967</v>
+        <v>4396947</v>
       </c>
     </row>
     <row r="5">
@@ -7076,7 +7076,7 @@
         <v>105</v>
       </c>
       <c r="C5">
-        <v>7427096</v>
+        <v>7425556</v>
       </c>
       <c r="D5">
         <v>7423662</v>
@@ -7118,7 +7118,7 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>6406</v>
+        <v>6416</v>
       </c>
       <c r="D8">
         <v>9675</v>
@@ -7171,13 +7171,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3104076</v>
+        <v>3103141</v>
       </c>
       <c r="C2">
-        <v>0.9027056537879999</v>
+        <v>0.9024337436329999</v>
       </c>
       <c r="D2">
-        <v>1.1891137797864</v>
+        <v>1.1887555986773999</v>
       </c>
     </row>
     <row r="3">
@@ -7185,13 +7185,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3104546</v>
+        <v>3104337</v>
       </c>
       <c r="C3">
-        <v>0.9028423358979999</v>
+        <v>0.902781555981</v>
       </c>
       <c r="D3">
-        <v>1.1892938280443999</v>
+        <v>1.1892137640318001</v>
       </c>
     </row>
     <row r="4">
@@ -7199,13 +7199,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3103931</v>
+        <v>3103588</v>
       </c>
       <c r="C4">
-        <v>0.9026634859029999</v>
+        <v>0.9025637370439998</v>
       </c>
       <c r="D4">
-        <v>1.1890582329834</v>
+        <v>1.1889268360632</v>
       </c>
     </row>
     <row r="5">
@@ -7213,13 +7213,13 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>3104076</v>
+        <v>3103588</v>
       </c>
       <c r="C5">
-        <v>0.9027056537879999</v>
+        <v>0.9025637370439998</v>
       </c>
       <c r="D5">
-        <v>1.1891137797864</v>
+        <v>1.1889268360632</v>
       </c>
     </row>
   </sheetData>
